--- a/datamining/final_data/sorted2003_nltk.xlsx
+++ b/datamining/final_data/sorted2003_nltk.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:ANF2"/>
+  <dimension ref="A1:ALR2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -442,87 +442,87 @@
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>from</t>
+          <t>editor</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>editor</t>
+          <t>advocacy</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>advocacy</t>
+          <t>advocates</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>advocates</t>
+          <t>students</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>students</t>
+          <t>children</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>children</t>
+          <t>gifted</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>gifted</t>
+          <t>program</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
-          <t>program</t>
+          <t>courses</t>
         </is>
       </c>
       <c r="K1" s="1" t="inlineStr">
         <is>
-          <t>courses</t>
+          <t>programs</t>
         </is>
       </c>
       <c r="L1" s="1" t="inlineStr">
         <is>
+          <t>efforts</t>
+        </is>
+      </c>
+      <c r="M1" s="1" t="inlineStr">
+        <is>
+          <t>learning</t>
+        </is>
+      </c>
+      <c r="N1" s="1" t="inlineStr">
+        <is>
           <t>teachers</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
-        <is>
-          <t>programs</t>
-        </is>
-      </c>
-      <c r="N1" s="1" t="inlineStr">
-        <is>
-          <t>learning</t>
-        </is>
-      </c>
       <c r="O1" s="1" t="inlineStr">
         <is>
-          <t>efforts</t>
+          <t>state</t>
         </is>
       </c>
       <c r="P1" s="1" t="inlineStr">
         <is>
-          <t>state</t>
+          <t>education</t>
         </is>
       </c>
       <c r="Q1" s="1" t="inlineStr">
         <is>
-          <t>education</t>
+          <t>matching</t>
         </is>
       </c>
       <c r="R1" s="1" t="inlineStr">
         <is>
-          <t>matching</t>
+          <t>re-forming</t>
         </is>
       </c>
       <c r="S1" s="1" t="inlineStr">
         <is>
-          <t>re-forming</t>
+          <t>learners</t>
         </is>
       </c>
       <c r="T1" s="1" t="inlineStr">
@@ -532,72 +532,72 @@
       </c>
       <c r="U1" s="1" t="inlineStr">
         <is>
-          <t>learners</t>
+          <t>service</t>
         </is>
       </c>
       <c r="V1" s="1" t="inlineStr">
         <is>
-          <t>service</t>
+          <t>field</t>
         </is>
       </c>
       <c r="W1" s="1" t="inlineStr">
         <is>
+          <t>'s</t>
+        </is>
+      </c>
+      <c r="X1" s="1" t="inlineStr">
+        <is>
           <t>curriculum</t>
         </is>
       </c>
-      <c r="X1" s="1" t="inlineStr">
+      <c r="Y1" s="1" t="inlineStr">
         <is>
           <t>high-ability</t>
         </is>
       </c>
-      <c r="Y1" s="1" t="inlineStr">
+      <c r="Z1" s="1" t="inlineStr">
+        <is>
+          <t>special</t>
+        </is>
+      </c>
+      <c r="AA1" s="1" t="inlineStr">
+        <is>
+          <t>child</t>
+        </is>
+      </c>
+      <c r="AB1" s="1" t="inlineStr">
         <is>
           <t>goal</t>
         </is>
       </c>
-      <c r="Z1" s="1" t="inlineStr">
-        <is>
-          <t>child</t>
-        </is>
-      </c>
-      <c r="AA1" s="1" t="inlineStr">
-        <is>
-          <t>'s</t>
-        </is>
-      </c>
-      <c r="AB1" s="1" t="inlineStr">
+      <c r="AC1" s="1" t="inlineStr">
         <is>
           <t>classroom</t>
         </is>
       </c>
-      <c r="AC1" s="1" t="inlineStr">
-        <is>
-          <t>special</t>
-        </is>
-      </c>
       <c r="AD1" s="1" t="inlineStr">
         <is>
+          <t>school</t>
+        </is>
+      </c>
+      <c r="AE1" s="1" t="inlineStr">
+        <is>
           <t>study</t>
         </is>
       </c>
-      <c r="AE1" s="1" t="inlineStr">
-        <is>
-          <t>field</t>
-        </is>
-      </c>
       <c r="AF1" s="1" t="inlineStr">
         <is>
-          <t>school</t>
+          <t>research</t>
         </is>
       </c>
       <c r="AG1" s="1" t="inlineStr">
         <is>
-          <t>research</t>
+          <t>three</t>
         </is>
       </c>
       <c r="AH1" s="1" t="inlineStr">
         <is>
-          <t>what</t>
+          <t>black</t>
         </is>
       </c>
       <c r="AI1" s="1" t="inlineStr">
@@ -607,504 +607,504 @@
       </c>
       <c r="AJ1" s="1" t="inlineStr">
         <is>
-          <t>the</t>
+          <t>experiences</t>
         </is>
       </c>
       <c r="AK1" s="1" t="inlineStr">
         <is>
-          <t>experiences</t>
+          <t>development</t>
         </is>
       </c>
       <c r="AL1" s="1" t="inlineStr">
         <is>
-          <t>black</t>
+          <t>problems</t>
         </is>
       </c>
       <c r="AM1" s="1" t="inlineStr">
         <is>
-          <t>development</t>
+          <t>science</t>
         </is>
       </c>
       <c r="AN1" s="1" t="inlineStr">
         <is>
-          <t>problems</t>
+          <t>adjustment</t>
         </is>
       </c>
       <c r="AO1" s="1" t="inlineStr">
         <is>
-          <t>this</t>
+          <t>college</t>
         </is>
       </c>
       <c r="AP1" s="1" t="inlineStr">
         <is>
-          <t>adjustment</t>
+          <t>available</t>
         </is>
       </c>
       <c r="AQ1" s="1" t="inlineStr">
         <is>
-          <t>science</t>
+          <t>reflections</t>
         </is>
       </c>
       <c r="AR1" s="1" t="inlineStr">
         <is>
-          <t>college</t>
+          <t>philosophical</t>
         </is>
       </c>
       <c r="AS1" s="1" t="inlineStr">
         <is>
-          <t>available</t>
+          <t>toward</t>
         </is>
       </c>
       <c r="AT1" s="1" t="inlineStr">
         <is>
+          <t>rise</t>
+        </is>
+      </c>
+      <c r="AU1" s="1" t="inlineStr">
+        <is>
           <t>light</t>
         </is>
       </c>
-      <c r="AU1" s="1" t="inlineStr">
+      <c r="AV1" s="1" t="inlineStr">
+        <is>
+          <t>student</t>
+        </is>
+      </c>
+      <c r="AW1" s="1" t="inlineStr">
+        <is>
+          <t>twelve</t>
+        </is>
+      </c>
+      <c r="AX1" s="1" t="inlineStr">
+        <is>
+          <t>still</t>
+        </is>
+      </c>
+      <c r="AY1" s="1" t="inlineStr">
         <is>
           <t>anthropological</t>
         </is>
       </c>
-      <c r="AV1" s="1" t="inlineStr">
-        <is>
-          <t>toward</t>
-        </is>
-      </c>
-      <c r="AW1" s="1" t="inlineStr">
+      <c r="AZ1" s="1" t="inlineStr">
+        <is>
+          <t>trials</t>
+        </is>
+      </c>
+      <c r="BA1" s="1" t="inlineStr">
+        <is>
+          <t>adhd</t>
+        </is>
+      </c>
+      <c r="BB1" s="1" t="inlineStr">
         <is>
           <t>nnat</t>
         </is>
       </c>
-      <c r="AX1" s="1" t="inlineStr">
-        <is>
-          <t>reflections</t>
-        </is>
-      </c>
-      <c r="AY1" s="1" t="inlineStr">
-        <is>
-          <t>philosophical</t>
-        </is>
-      </c>
-      <c r="AZ1" s="1" t="inlineStr">
-        <is>
-          <t>adhd</t>
-        </is>
-      </c>
-      <c r="BA1" s="1" t="inlineStr">
-        <is>
-          <t>student</t>
-        </is>
-      </c>
-      <c r="BB1" s="1" t="inlineStr">
+      <c r="BC1" s="1" t="inlineStr">
+        <is>
+          <t>inner-city</t>
+        </is>
+      </c>
+      <c r="BD1" s="1" t="inlineStr">
         <is>
           <t>inventory</t>
         </is>
       </c>
-      <c r="BC1" s="1" t="inlineStr">
+      <c r="BE1" s="1" t="inlineStr">
+        <is>
+          <t>model</t>
+        </is>
+      </c>
+      <c r="BF1" s="1" t="inlineStr">
         <is>
           <t>kirby</t>
         </is>
       </c>
-      <c r="BD1" s="1" t="inlineStr">
-        <is>
-          <t>model</t>
-        </is>
-      </c>
-      <c r="BE1" s="1" t="inlineStr">
+      <c r="BG1" s="1" t="inlineStr">
         <is>
           <t>local</t>
         </is>
       </c>
-      <c r="BF1" s="1" t="inlineStr">
-        <is>
-          <t>inner-city</t>
-        </is>
-      </c>
-      <c r="BG1" s="1" t="inlineStr">
-        <is>
-          <t>trials</t>
-        </is>
-      </c>
       <c r="BH1" s="1" t="inlineStr">
         <is>
-          <t>and</t>
+          <t>personality</t>
         </is>
       </c>
       <c r="BI1" s="1" t="inlineStr">
         <is>
-          <t>still</t>
+          <t>intensive</t>
         </is>
       </c>
       <c r="BJ1" s="1" t="inlineStr">
         <is>
-          <t>rise</t>
+          <t>factors</t>
         </is>
       </c>
       <c r="BK1" s="1" t="inlineStr">
         <is>
-          <t>personality</t>
+          <t>district</t>
         </is>
       </c>
       <c r="BL1" s="1" t="inlineStr">
         <is>
-          <t>twelve</t>
+          <t>community</t>
         </is>
       </c>
       <c r="BM1" s="1" t="inlineStr">
         <is>
-          <t>three</t>
+          <t>impact</t>
         </is>
       </c>
       <c r="BN1" s="1" t="inlineStr">
         <is>
-          <t>intensive</t>
+          <t>gender</t>
         </is>
       </c>
       <c r="BO1" s="1" t="inlineStr">
         <is>
-          <t>factors</t>
+          <t>types</t>
         </is>
       </c>
       <c r="BP1" s="1" t="inlineStr">
         <is>
-          <t>district</t>
+          <t>achievers</t>
         </is>
       </c>
       <c r="BQ1" s="1" t="inlineStr">
         <is>
-          <t>community</t>
+          <t>attitudes</t>
         </is>
       </c>
       <c r="BR1" s="1" t="inlineStr">
         <is>
-          <t>gender</t>
+          <t>underachievers</t>
         </is>
       </c>
       <c r="BS1" s="1" t="inlineStr">
         <is>
-          <t>types</t>
+          <t>issues</t>
         </is>
       </c>
       <c r="BT1" s="1" t="inlineStr">
         <is>
-          <t>attitudes</t>
+          <t>work</t>
         </is>
       </c>
       <c r="BU1" s="1" t="inlineStr">
         <is>
-          <t>achievers</t>
+          <t>phase</t>
         </is>
       </c>
       <c r="BV1" s="1" t="inlineStr">
         <is>
-          <t>impact</t>
+          <t>group</t>
         </is>
       </c>
       <c r="BW1" s="1" t="inlineStr">
         <is>
-          <t>underachievers</t>
+          <t>questions</t>
         </is>
       </c>
       <c r="BX1" s="1" t="inlineStr">
         <is>
-          <t>work</t>
+          <t>teacher</t>
         </is>
       </c>
       <c r="BY1" s="1" t="inlineStr">
         <is>
-          <t>group</t>
+          <t>perspectives</t>
         </is>
       </c>
       <c r="BZ1" s="1" t="inlineStr">
         <is>
-          <t>teacher</t>
+          <t>questionnaire</t>
         </is>
       </c>
       <c r="CA1" s="1" t="inlineStr">
         <is>
-          <t>in</t>
+          <t>support</t>
         </is>
       </c>
       <c r="CB1" s="1" t="inlineStr">
         <is>
-          <t>phase</t>
+          <t>county</t>
         </is>
       </c>
       <c r="CC1" s="1" t="inlineStr">
         <is>
-          <t>questionnaire</t>
+          <t>pulaski</t>
         </is>
       </c>
       <c r="CD1" s="1" t="inlineStr">
         <is>
-          <t>issues</t>
+          <t>programming</t>
         </is>
       </c>
       <c r="CE1" s="1" t="inlineStr">
         <is>
-          <t>support</t>
+          <t>ability</t>
         </is>
       </c>
       <c r="CF1" s="1" t="inlineStr">
         <is>
-          <t>perspectives</t>
+          <t>highly</t>
         </is>
       </c>
       <c r="CG1" s="1" t="inlineStr">
         <is>
-          <t>questions</t>
+          <t>case</t>
         </is>
       </c>
       <c r="CH1" s="1" t="inlineStr">
         <is>
-          <t>programming</t>
+          <t>physics</t>
         </is>
       </c>
       <c r="CI1" s="1" t="inlineStr">
         <is>
-          <t>highly</t>
+          <t>reported</t>
         </is>
       </c>
       <c r="CJ1" s="1" t="inlineStr">
         <is>
-          <t>ability</t>
+          <t>services</t>
         </is>
       </c>
       <c r="CK1" s="1" t="inlineStr">
         <is>
-          <t>county</t>
+          <t>naase</t>
         </is>
       </c>
       <c r="CL1" s="1" t="inlineStr">
         <is>
-          <t>pulaski</t>
+          <t>author</t>
         </is>
       </c>
       <c r="CM1" s="1" t="inlineStr">
         <is>
-          <t>physics</t>
+          <t>lives</t>
         </is>
       </c>
       <c r="CN1" s="1" t="inlineStr">
         <is>
-          <t>lives</t>
+          <t>instruction</t>
         </is>
       </c>
       <c r="CO1" s="1" t="inlineStr">
         <is>
-          <t>case</t>
+          <t>talented</t>
         </is>
       </c>
       <c r="CP1" s="1" t="inlineStr">
         <is>
-          <t>reported</t>
+          <t>intelligence</t>
         </is>
       </c>
       <c r="CQ1" s="1" t="inlineStr">
         <is>
-          <t>services</t>
+          <t>events</t>
         </is>
       </c>
       <c r="CR1" s="1" t="inlineStr">
         <is>
-          <t>naase</t>
+          <t>data</t>
         </is>
       </c>
       <c r="CS1" s="1" t="inlineStr">
         <is>
-          <t>instruction</t>
+          <t>effective</t>
         </is>
       </c>
       <c r="CT1" s="1" t="inlineStr">
         <is>
-          <t>talented</t>
+          <t>aspiration</t>
         </is>
       </c>
       <c r="CU1" s="1" t="inlineStr">
         <is>
-          <t>events</t>
+          <t>barriers</t>
         </is>
       </c>
       <c r="CV1" s="1" t="inlineStr">
         <is>
-          <t>author</t>
+          <t>talent</t>
         </is>
       </c>
       <c r="CW1" s="1" t="inlineStr">
         <is>
-          <t>intelligence</t>
+          <t>self-fulfillment</t>
         </is>
       </c>
       <c r="CX1" s="1" t="inlineStr">
         <is>
-          <t>a</t>
+          <t>five</t>
         </is>
       </c>
       <c r="CY1" s="1" t="inlineStr">
         <is>
-          <t>effective</t>
+          <t>gt</t>
         </is>
       </c>
       <c r="CZ1" s="1" t="inlineStr">
         <is>
-          <t>aspiration</t>
+          <t>important</t>
         </is>
       </c>
       <c r="DA1" s="1" t="inlineStr">
         <is>
-          <t>self-fulfillment</t>
+          <t>many</t>
         </is>
       </c>
       <c r="DB1" s="1" t="inlineStr">
         <is>
-          <t>talent</t>
+          <t>understanding</t>
         </is>
       </c>
       <c r="DC1" s="1" t="inlineStr">
         <is>
-          <t>barriers</t>
+          <t>attention</t>
         </is>
       </c>
       <c r="DD1" s="1" t="inlineStr">
         <is>
-          <t>many</t>
+          <t>diverse</t>
         </is>
       </c>
       <c r="DE1" s="1" t="inlineStr">
         <is>
-          <t>understanding</t>
+          <t>implications</t>
         </is>
       </c>
       <c r="DF1" s="1" t="inlineStr">
         <is>
-          <t>gt</t>
+          <t>effects</t>
         </is>
       </c>
       <c r="DG1" s="1" t="inlineStr">
         <is>
-          <t>diverse</t>
+          <t>sample</t>
         </is>
       </c>
       <c r="DH1" s="1" t="inlineStr">
         <is>
-          <t>important</t>
+          <t>academic</t>
         </is>
       </c>
       <c r="DI1" s="1" t="inlineStr">
         <is>
-          <t>sample</t>
+          <t>valuation</t>
         </is>
       </c>
       <c r="DJ1" s="1" t="inlineStr">
         <is>
-          <t>five</t>
+          <t>building</t>
         </is>
       </c>
       <c r="DK1" s="1" t="inlineStr">
         <is>
-          <t>valuation</t>
+          <t>success</t>
         </is>
       </c>
       <c r="DL1" s="1" t="inlineStr">
         <is>
-          <t>building</t>
+          <t>national</t>
         </is>
       </c>
       <c r="DM1" s="1" t="inlineStr">
         <is>
-          <t>attention</t>
+          <t>ingredients</t>
         </is>
       </c>
       <c r="DN1" s="1" t="inlineStr">
         <is>
-          <t>national</t>
+          <t>two</t>
         </is>
       </c>
       <c r="DO1" s="1" t="inlineStr">
         <is>
-          <t>effects</t>
+          <t>positive</t>
         </is>
       </c>
       <c r="DP1" s="1" t="inlineStr">
         <is>
-          <t>data</t>
+          <t>participants</t>
         </is>
       </c>
       <c r="DQ1" s="1" t="inlineStr">
         <is>
-          <t>academic</t>
+          <t>also</t>
         </is>
       </c>
       <c r="DR1" s="1" t="inlineStr">
         <is>
+          <t>museum</t>
+        </is>
+      </c>
+      <c r="DS1" s="1" t="inlineStr">
+        <is>
+          <t>parental</t>
+        </is>
+      </c>
+      <c r="DT1" s="1" t="inlineStr">
+        <is>
+          <t>response</t>
+        </is>
+      </c>
+      <c r="DU1" s="1" t="inlineStr">
+        <is>
+          <t>results</t>
+        </is>
+      </c>
+      <c r="DV1" s="1" t="inlineStr">
+        <is>
+          <t>last</t>
+        </is>
+      </c>
+      <c r="DW1" s="1" t="inlineStr">
+        <is>
+          <t>one</t>
+        </is>
+      </c>
+      <c r="DX1" s="1" t="inlineStr">
+        <is>
+          <t>careers</t>
+        </is>
+      </c>
+      <c r="DY1" s="1" t="inlineStr">
+        <is>
           <t>scientific</t>
         </is>
       </c>
-      <c r="DS1" s="1" t="inlineStr">
-        <is>
-          <t>two</t>
-        </is>
-      </c>
-      <c r="DT1" s="1" t="inlineStr">
-        <is>
-          <t>ingredients</t>
-        </is>
-      </c>
-      <c r="DU1" s="1" t="inlineStr">
-        <is>
-          <t>success</t>
-        </is>
-      </c>
-      <c r="DV1" s="1" t="inlineStr">
-        <is>
-          <t>results</t>
-        </is>
-      </c>
-      <c r="DW1" s="1" t="inlineStr">
-        <is>
-          <t>positive</t>
-        </is>
-      </c>
-      <c r="DX1" s="1" t="inlineStr">
-        <is>
-          <t>implications</t>
-        </is>
-      </c>
-      <c r="DY1" s="1" t="inlineStr">
-        <is>
-          <t>careers</t>
-        </is>
-      </c>
       <c r="DZ1" s="1" t="inlineStr">
         <is>
-          <t>also</t>
+          <t>years</t>
         </is>
       </c>
       <c r="EA1" s="1" t="inlineStr">
         <is>
-          <t>participants</t>
+          <t>white</t>
         </is>
       </c>
       <c r="EB1" s="1" t="inlineStr">
         <is>
-          <t>museum</t>
+          <t>difference</t>
         </is>
       </c>
       <c r="EC1" s="1" t="inlineStr">
         <is>
-          <t>response</t>
+          <t>findings</t>
         </is>
       </c>
       <c r="ED1" s="1" t="inlineStr">
         <is>
+          <t>content</t>
+        </is>
+      </c>
+      <c r="EE1" s="1" t="inlineStr">
+        <is>
           <t>hispanic</t>
         </is>
       </c>
-      <c r="EE1" s="1" t="inlineStr">
-        <is>
-          <t>content</t>
-        </is>
-      </c>
       <c r="EF1" s="1" t="inlineStr">
         <is>
           <t>test</t>
@@ -1117,514 +1117,514 @@
       </c>
       <c r="EH1" s="1" t="inlineStr">
         <is>
-          <t>parental</t>
+          <t>relationships</t>
         </is>
       </c>
       <c r="EI1" s="1" t="inlineStr">
         <is>
-          <t>white</t>
+          <t>importance</t>
         </is>
       </c>
       <c r="EJ1" s="1" t="inlineStr">
         <is>
-          <t>relationships</t>
+          <t>increasing</t>
         </is>
       </c>
       <c r="EK1" s="1" t="inlineStr">
         <is>
-          <t>one</t>
+          <t>identify</t>
         </is>
       </c>
       <c r="EL1" s="1" t="inlineStr">
         <is>
-          <t>difference</t>
+          <t>cutting</t>
         </is>
       </c>
       <c r="EM1" s="1" t="inlineStr">
         <is>
+          <t>background</t>
+        </is>
+      </c>
+      <c r="EN1" s="1" t="inlineStr">
+        <is>
+          <t>t.o.v.a</t>
+        </is>
+      </c>
+      <c r="EO1" s="1" t="inlineStr">
+        <is>
+          <t>edge</t>
+        </is>
+      </c>
+      <c r="EP1" s="1" t="inlineStr">
+        <is>
+          <t>policy</t>
+        </is>
+      </c>
+      <c r="EQ1" s="1" t="inlineStr">
+        <is>
+          <t>similar</t>
+        </is>
+      </c>
+      <c r="ER1" s="1" t="inlineStr">
+        <is>
+          <t>educational</t>
+        </is>
+      </c>
+      <c r="ES1" s="1" t="inlineStr">
+        <is>
+          <t>mbti</t>
+        </is>
+      </c>
+      <c r="ET1" s="1" t="inlineStr">
+        <is>
+          <t>analysis</t>
+        </is>
+      </c>
+      <c r="EU1" s="1" t="inlineStr">
+        <is>
           <t>reports</t>
         </is>
       </c>
-      <c r="EN1" s="1" t="inlineStr">
-        <is>
-          <t>last</t>
-        </is>
-      </c>
-      <c r="EO1" s="1" t="inlineStr">
-        <is>
-          <t>findings</t>
-        </is>
-      </c>
-      <c r="EP1" s="1" t="inlineStr">
-        <is>
-          <t>analysis</t>
-        </is>
-      </c>
-      <c r="EQ1" s="1" t="inlineStr">
-        <is>
-          <t>identify</t>
-        </is>
-      </c>
-      <c r="ER1" s="1" t="inlineStr">
+      <c r="EV1" s="1" t="inlineStr">
         <is>
           <t>error</t>
         </is>
       </c>
-      <c r="ES1" s="1" t="inlineStr">
-        <is>
-          <t>background</t>
-        </is>
-      </c>
-      <c r="ET1" s="1" t="inlineStr">
-        <is>
-          <t>similar</t>
-        </is>
-      </c>
-      <c r="EU1" s="1" t="inlineStr">
-        <is>
-          <t>years</t>
-        </is>
-      </c>
-      <c r="EV1" s="1" t="inlineStr">
-        <is>
-          <t>cutting</t>
-        </is>
-      </c>
       <c r="EW1" s="1" t="inlineStr">
         <is>
-          <t>t.o.v.a</t>
+          <t>article</t>
         </is>
       </c>
       <c r="EX1" s="1" t="inlineStr">
         <is>
-          <t>increasing</t>
+          <t>type</t>
         </is>
       </c>
       <c r="EY1" s="1" t="inlineStr">
         <is>
-          <t>policy</t>
+          <t>setting</t>
         </is>
       </c>
       <c r="EZ1" s="1" t="inlineStr">
         <is>
-          <t>edge</t>
+          <t>first</t>
         </is>
       </c>
       <c r="FA1" s="1" t="inlineStr">
         <is>
-          <t>mbti</t>
+          <t>teaching</t>
         </is>
       </c>
       <c r="FB1" s="1" t="inlineStr">
         <is>
-          <t>article</t>
+          <t>problem</t>
         </is>
       </c>
       <c r="FC1" s="1" t="inlineStr">
         <is>
-          <t>teaching</t>
+          <t>female</t>
         </is>
       </c>
       <c r="FD1" s="1" t="inlineStr">
         <is>
-          <t>first</t>
+          <t>british</t>
         </is>
       </c>
       <c r="FE1" s="1" t="inlineStr">
         <is>
-          <t>type</t>
+          <t>analyzed</t>
         </is>
       </c>
       <c r="FF1" s="1" t="inlineStr">
         <is>
-          <t>setting</t>
+          <t>britain</t>
         </is>
       </c>
       <c r="FG1" s="1" t="inlineStr">
         <is>
+          <t>educators</t>
+        </is>
+      </c>
+      <c r="FH1" s="1" t="inlineStr">
+        <is>
+          <t>girls</t>
+        </is>
+      </c>
+      <c r="FI1" s="1" t="inlineStr">
+        <is>
+          <t>effectiveness</t>
+        </is>
+      </c>
+      <c r="FJ1" s="1" t="inlineStr">
+        <is>
           <t>identified</t>
         </is>
       </c>
-      <c r="FH1" s="1" t="inlineStr">
-        <is>
-          <t>importance</t>
-        </is>
-      </c>
-      <c r="FI1" s="1" t="inlineStr">
-        <is>
-          <t>effectiveness</t>
-        </is>
-      </c>
-      <c r="FJ1" s="1" t="inlineStr">
-        <is>
-          <t>female</t>
-        </is>
-      </c>
       <c r="FK1" s="1" t="inlineStr">
         <is>
-          <t>problem</t>
+          <t>characteristics</t>
         </is>
       </c>
       <c r="FL1" s="1" t="inlineStr">
         <is>
-          <t>analyzed</t>
+          <t>kong</t>
         </is>
       </c>
       <c r="FM1" s="1" t="inlineStr">
         <is>
-          <t>educators</t>
+          <t>opportunities</t>
         </is>
       </c>
       <c r="FN1" s="1" t="inlineStr">
         <is>
-          <t>girls</t>
+          <t>successful</t>
         </is>
       </c>
       <c r="FO1" s="1" t="inlineStr">
         <is>
-          <t>britain</t>
+          <t>elementary</t>
         </is>
       </c>
       <c r="FP1" s="1" t="inlineStr">
         <is>
-          <t>british</t>
+          <t>using</t>
         </is>
       </c>
       <c r="FQ1" s="1" t="inlineStr">
         <is>
-          <t>characteristics</t>
+          <t>hong</t>
         </is>
       </c>
       <c r="FR1" s="1" t="inlineStr">
         <is>
-          <t>elementary</t>
+          <t>among</t>
         </is>
       </c>
       <c r="FS1" s="1" t="inlineStr">
         <is>
-          <t>among</t>
+          <t>themes</t>
         </is>
       </c>
       <c r="FT1" s="1" t="inlineStr">
         <is>
-          <t>kong</t>
+          <t>schools</t>
         </is>
       </c>
       <c r="FU1" s="1" t="inlineStr">
         <is>
-          <t>using</t>
+          <t>semester</t>
         </is>
       </c>
       <c r="FV1" s="1" t="inlineStr">
         <is>
-          <t>educational</t>
+          <t>although</t>
         </is>
       </c>
       <c r="FW1" s="1" t="inlineStr">
         <is>
-          <t>hong</t>
+          <t>strong</t>
         </is>
       </c>
       <c r="FX1" s="1" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>high</t>
         </is>
       </c>
       <c r="FY1" s="1" t="inlineStr">
         <is>
-          <t>themes</t>
+          <t>transition</t>
         </is>
       </c>
       <c r="FZ1" s="1" t="inlineStr">
         <is>
-          <t>schools</t>
+          <t>entrance</t>
         </is>
       </c>
       <c r="GA1" s="1" t="inlineStr">
         <is>
-          <t>strong</t>
+          <t>role</t>
         </is>
       </c>
       <c r="GB1" s="1" t="inlineStr">
         <is>
-          <t>opportunities</t>
+          <t>early-entrance</t>
         </is>
       </c>
       <c r="GC1" s="1" t="inlineStr">
         <is>
-          <t>although</t>
+          <t>early</t>
         </is>
       </c>
       <c r="GD1" s="1" t="inlineStr">
         <is>
-          <t>semester</t>
+          <t>experience</t>
         </is>
       </c>
       <c r="GE1" s="1" t="inlineStr">
         <is>
+          <t>first-semester</t>
+        </is>
+      </c>
+      <c r="GF1" s="1" t="inlineStr">
+        <is>
+          <t>adolescents</t>
+        </is>
+      </c>
+      <c r="GG1" s="1" t="inlineStr">
+        <is>
           <t>significant</t>
         </is>
       </c>
-      <c r="GF1" s="1" t="inlineStr">
-        <is>
-          <t>adolescents</t>
-        </is>
-      </c>
-      <c r="GG1" s="1" t="inlineStr">
-        <is>
-          <t>high</t>
-        </is>
-      </c>
       <c r="GH1" s="1" t="inlineStr">
         <is>
-          <t>an</t>
+          <t>advantage</t>
         </is>
       </c>
       <c r="GI1" s="1" t="inlineStr">
         <is>
-          <t>role</t>
+          <t>discusses</t>
         </is>
       </c>
       <c r="GJ1" s="1" t="inlineStr">
         <is>
-          <t>experience</t>
+          <t>including</t>
         </is>
       </c>
       <c r="GK1" s="1" t="inlineStr">
         <is>
+          <t>challenge</t>
+        </is>
+      </c>
+      <c r="GL1" s="1" t="inlineStr">
+        <is>
           <t>key</t>
         </is>
       </c>
-      <c r="GL1" s="1" t="inlineStr">
-        <is>
-          <t>successful</t>
-        </is>
-      </c>
       <c r="GM1" s="1" t="inlineStr">
         <is>
-          <t>challenge</t>
+          <t>make</t>
         </is>
       </c>
       <c r="GN1" s="1" t="inlineStr">
         <is>
+          <t>common</t>
+        </is>
+      </c>
+      <c r="GO1" s="1" t="inlineStr">
+        <is>
           <t>individuals</t>
         </is>
       </c>
-      <c r="GO1" s="1" t="inlineStr">
-        <is>
-          <t>common</t>
-        </is>
-      </c>
       <c r="GP1" s="1" t="inlineStr">
         <is>
-          <t>advantage</t>
+          <t>at-risk</t>
         </is>
       </c>
       <c r="GQ1" s="1" t="inlineStr">
         <is>
-          <t>including</t>
+          <t>benefited</t>
         </is>
       </c>
       <c r="GR1" s="1" t="inlineStr">
         <is>
-          <t>make</t>
+          <t>initiatives</t>
         </is>
       </c>
       <c r="GS1" s="1" t="inlineStr">
         <is>
-          <t>discusses</t>
+          <t>parent</t>
         </is>
       </c>
       <c r="GT1" s="1" t="inlineStr">
         <is>
-          <t>early-entrance</t>
+          <t>use</t>
         </is>
       </c>
       <c r="GU1" s="1" t="inlineStr">
         <is>
+          <t>commitment</t>
+        </is>
+      </c>
+      <c r="GV1" s="1" t="inlineStr">
+        <is>
+          <t>literacy</t>
+        </is>
+      </c>
+      <c r="GW1" s="1" t="inlineStr">
+        <is>
           <t>increased</t>
         </is>
       </c>
-      <c r="GV1" s="1" t="inlineStr">
-        <is>
-          <t>literacy</t>
-        </is>
-      </c>
-      <c r="GW1" s="1" t="inlineStr">
+      <c r="GX1" s="1" t="inlineStr">
+        <is>
+          <t>occurred</t>
+        </is>
+      </c>
+      <c r="GY1" s="1" t="inlineStr">
         <is>
           <t>event</t>
         </is>
       </c>
-      <c r="GX1" s="1" t="inlineStr">
-        <is>
-          <t>transition</t>
-        </is>
-      </c>
-      <c r="GY1" s="1" t="inlineStr">
-        <is>
-          <t>first-semester</t>
-        </is>
-      </c>
       <c r="GZ1" s="1" t="inlineStr">
         <is>
-          <t>entrance</t>
+          <t>''</t>
         </is>
       </c>
       <c r="HA1" s="1" t="inlineStr">
         <is>
-          <t>occurred</t>
+          <t>may</t>
         </is>
       </c>
       <c r="HB1" s="1" t="inlineStr">
         <is>
-          <t>early</t>
+          <t>deprived</t>
         </is>
       </c>
       <c r="HC1" s="1" t="inlineStr">
         <is>
-          <t>at-risk</t>
+          <t>enrolled</t>
         </is>
       </c>
       <c r="HD1" s="1" t="inlineStr">
         <is>
-          <t>benefited</t>
+          <t>class</t>
         </is>
       </c>
       <c r="HE1" s="1" t="inlineStr">
         <is>
+          <t>suggest</t>
+        </is>
+      </c>
+      <c r="HF1" s="1" t="inlineStr">
+        <is>
+          <t>acheived</t>
+        </is>
+      </c>
+      <c r="HG1" s="1" t="inlineStr">
+        <is>
           <t>system</t>
         </is>
       </c>
-      <c r="HF1" s="1" t="inlineStr">
+      <c r="HH1" s="1" t="inlineStr">
+        <is>
+          <t>inclusionary</t>
+        </is>
+      </c>
+      <c r="HI1" s="1" t="inlineStr">
+        <is>
+          <t>ethical</t>
+        </is>
+      </c>
+      <c r="HJ1" s="1" t="inlineStr">
+        <is>
+          <t>change</t>
+        </is>
+      </c>
+      <c r="HK1" s="1" t="inlineStr">
+        <is>
+          <t>adults</t>
+        </is>
+      </c>
+      <c r="HL1" s="1" t="inlineStr">
+        <is>
+          <t>design</t>
+        </is>
+      </c>
+      <c r="HM1" s="1" t="inlineStr">
+        <is>
+          <t>period</t>
+        </is>
+      </c>
+      <c r="HN1" s="1" t="inlineStr">
         <is>
           <t>suggests</t>
         </is>
       </c>
-      <c r="HG1" s="1" t="inlineStr">
-        <is>
-          <t>ethical</t>
-        </is>
-      </c>
-      <c r="HH1" s="1" t="inlineStr">
-        <is>
-          <t>acheived</t>
-        </is>
-      </c>
-      <c r="HI1" s="1" t="inlineStr">
-        <is>
-          <t>parent</t>
-        </is>
-      </c>
-      <c r="HJ1" s="1" t="inlineStr">
-        <is>
-          <t>commitment</t>
-        </is>
-      </c>
-      <c r="HK1" s="1" t="inlineStr">
-        <is>
-          <t>use</t>
-        </is>
-      </c>
-      <c r="HL1" s="1" t="inlineStr">
-        <is>
-          <t>initiatives</t>
-        </is>
-      </c>
-      <c r="HM1" s="1" t="inlineStr">
-        <is>
-          <t>change</t>
-        </is>
-      </c>
-      <c r="HN1" s="1" t="inlineStr">
-        <is>
-          <t>may</t>
-        </is>
-      </c>
       <c r="HO1" s="1" t="inlineStr">
         <is>
-          <t>design</t>
+          <t>level</t>
         </is>
       </c>
       <c r="HP1" s="1" t="inlineStr">
         <is>
+          <t>paper</t>
+        </is>
+      </c>
+      <c r="HQ1" s="1" t="inlineStr">
+        <is>
+          <t>insights</t>
+        </is>
+      </c>
+      <c r="HR1" s="1" t="inlineStr">
+        <is>
           <t>ways</t>
         </is>
       </c>
-      <c r="HQ1" s="1" t="inlineStr">
-        <is>
-          <t>these</t>
-        </is>
-      </c>
-      <c r="HR1" s="1" t="inlineStr">
-        <is>
-          <t>suggest</t>
-        </is>
-      </c>
       <c r="HS1" s="1" t="inlineStr">
         <is>
-          <t>period</t>
+          <t>``</t>
         </is>
       </c>
       <c r="HT1" s="1" t="inlineStr">
         <is>
-          <t>insights</t>
+          <t>and/or</t>
         </is>
       </c>
       <c r="HU1" s="1" t="inlineStr">
         <is>
-          <t>deprived</t>
+          <t>project</t>
         </is>
       </c>
       <c r="HV1" s="1" t="inlineStr">
         <is>
-          <t>paper</t>
+          <t>includes</t>
         </is>
       </c>
       <c r="HW1" s="1" t="inlineStr">
         <is>
-          <t>level</t>
+          <t>omission</t>
         </is>
       </c>
       <c r="HX1" s="1" t="inlineStr">
         <is>
+          <t>collaborative</t>
+        </is>
+      </c>
+      <c r="HY1" s="1" t="inlineStr">
+        <is>
           <t>solving</t>
         </is>
       </c>
-      <c r="HY1" s="1" t="inlineStr">
-        <is>
-          <t>``</t>
-        </is>
-      </c>
       <c r="HZ1" s="1" t="inlineStr">
         <is>
-          <t>includes</t>
+          <t>categories</t>
         </is>
       </c>
       <c r="IA1" s="1" t="inlineStr">
         <is>
+          <t>practice</t>
+        </is>
+      </c>
+      <c r="IB1" s="1" t="inlineStr">
+        <is>
+          <t>outcomes</t>
+        </is>
+      </c>
+      <c r="IC1" s="1" t="inlineStr">
+        <is>
+          <t>greatest</t>
+        </is>
+      </c>
+      <c r="ID1" s="1" t="inlineStr">
+        <is>
+          <t>innovations</t>
+        </is>
+      </c>
+      <c r="IE1" s="1" t="inlineStr">
+        <is>
           <t>examines</t>
         </is>
       </c>
-      <c r="IB1" s="1" t="inlineStr">
-        <is>
-          <t>''</t>
-        </is>
-      </c>
-      <c r="IC1" s="1" t="inlineStr">
-        <is>
-          <t>outcomes</t>
-        </is>
-      </c>
-      <c r="ID1" s="1" t="inlineStr">
-        <is>
-          <t>inclusionary</t>
-        </is>
-      </c>
-      <c r="IE1" s="1" t="inlineStr">
-        <is>
-          <t>collaborative</t>
-        </is>
-      </c>
       <c r="IF1" s="1" t="inlineStr">
         <is>
           <t>met</t>
@@ -1632,292 +1632,292 @@
       </c>
       <c r="IG1" s="1" t="inlineStr">
         <is>
-          <t>adults</t>
+          <t>examined</t>
         </is>
       </c>
       <c r="IH1" s="1" t="inlineStr">
         <is>
-          <t>enrolled</t>
+          <t>need</t>
         </is>
       </c>
       <c r="II1" s="1" t="inlineStr">
         <is>
-          <t>project</t>
+          <t>participation</t>
         </is>
       </c>
       <c r="IJ1" s="1" t="inlineStr">
         <is>
+          <t>version</t>
+        </is>
+      </c>
+      <c r="IK1" s="1" t="inlineStr">
+        <is>
+          <t>explore</t>
+        </is>
+      </c>
+      <c r="IL1" s="1" t="inlineStr">
+        <is>
+          <t>included</t>
+        </is>
+      </c>
+      <c r="IM1" s="1" t="inlineStr">
+        <is>
+          <t>university</t>
+        </is>
+      </c>
+      <c r="IN1" s="1" t="inlineStr">
+        <is>
+          <t>yet</t>
+        </is>
+      </c>
+      <c r="IO1" s="1" t="inlineStr">
+        <is>
+          <t>grade</t>
+        </is>
+      </c>
+      <c r="IP1" s="1" t="inlineStr">
+        <is>
+          <t>see</t>
+        </is>
+      </c>
+      <c r="IQ1" s="1" t="inlineStr">
+        <is>
           <t>evidence</t>
         </is>
       </c>
-      <c r="IK1" s="1" t="inlineStr">
-        <is>
-          <t>to</t>
-        </is>
-      </c>
-      <c r="IL1" s="1" t="inlineStr">
-        <is>
-          <t>class</t>
-        </is>
-      </c>
-      <c r="IM1" s="1" t="inlineStr">
-        <is>
-          <t>grade</t>
-        </is>
-      </c>
-      <c r="IN1" s="1" t="inlineStr">
-        <is>
-          <t>yet</t>
-        </is>
-      </c>
-      <c r="IO1" s="1" t="inlineStr">
+      <c r="IR1" s="1" t="inlineStr">
         <is>
           <t>achievement</t>
         </is>
       </c>
-      <c r="IP1" s="1" t="inlineStr">
-        <is>
-          <t>examined</t>
-        </is>
-      </c>
-      <c r="IQ1" s="1" t="inlineStr">
-        <is>
-          <t>participation</t>
-        </is>
-      </c>
-      <c r="IR1" s="1" t="inlineStr">
-        <is>
-          <t>version</t>
-        </is>
-      </c>
       <c r="IS1" s="1" t="inlineStr">
         <is>
-          <t>need</t>
+          <t>strategies</t>
         </is>
       </c>
       <c r="IT1" s="1" t="inlineStr">
         <is>
-          <t>university</t>
+          <t>purpose</t>
         </is>
       </c>
       <c r="IU1" s="1" t="inlineStr">
         <is>
-          <t>strategies</t>
+          <t>time</t>
         </is>
       </c>
       <c r="IV1" s="1" t="inlineStr">
         <is>
-          <t>explore</t>
+          <t>organization</t>
         </is>
       </c>
       <c r="IW1" s="1" t="inlineStr">
         <is>
-          <t>purpose</t>
+          <t>self-perceptions</t>
         </is>
       </c>
       <c r="IX1" s="1" t="inlineStr">
         <is>
-          <t>included</t>
+          <t>literature</t>
         </is>
       </c>
       <c r="IY1" s="1" t="inlineStr">
         <is>
-          <t>omission</t>
+          <t>nonverbal</t>
         </is>
       </c>
       <c r="IZ1" s="1" t="inlineStr">
         <is>
+          <t>investigate</t>
+        </is>
+      </c>
+      <c r="JA1" s="1" t="inlineStr">
+        <is>
+          <t>studies</t>
+        </is>
+      </c>
+      <c r="JB1" s="1" t="inlineStr">
+        <is>
+          <t>processes</t>
+        </is>
+      </c>
+      <c r="JC1" s="1" t="inlineStr">
+        <is>
+          <t>knowledge</t>
+        </is>
+      </c>
+      <c r="JD1" s="1" t="inlineStr">
+        <is>
+          <t>developed</t>
+        </is>
+      </c>
+      <c r="JE1" s="1" t="inlineStr">
+        <is>
+          <t>motivation/self-regulation</t>
+        </is>
+      </c>
+      <c r="JF1" s="1" t="inlineStr">
+        <is>
+          <t>gains</t>
+        </is>
+      </c>
+      <c r="JG1" s="1" t="inlineStr">
+        <is>
+          <t>individual</t>
+        </is>
+      </c>
+      <c r="JH1" s="1" t="inlineStr">
+        <is>
+          <t>take</t>
+        </is>
+      </c>
+      <c r="JI1" s="1" t="inlineStr">
+        <is>
           <t>funding</t>
         </is>
       </c>
-      <c r="JA1" s="1" t="inlineStr">
+      <c r="JJ1" s="1" t="inlineStr">
+        <is>
+          <t>enriched</t>
+        </is>
+      </c>
+      <c r="JK1" s="1" t="inlineStr">
+        <is>
+          <t>scientists</t>
+        </is>
+      </c>
+      <c r="JL1" s="1" t="inlineStr">
+        <is>
+          <t>standard</t>
+        </is>
+      </c>
+      <c r="JM1" s="1" t="inlineStr">
+        <is>
+          <t>provided</t>
+        </is>
+      </c>
+      <c r="JN1" s="1" t="inlineStr">
+        <is>
+          <t>underrepresentation</t>
+        </is>
+      </c>
+      <c r="JO1" s="1" t="inlineStr">
+        <is>
+          <t>legislation</t>
+        </is>
+      </c>
+      <c r="JP1" s="1" t="inlineStr">
+        <is>
+          <t>assessment</t>
+        </is>
+      </c>
+      <c r="JQ1" s="1" t="inlineStr">
+        <is>
+          <t>mandate</t>
+        </is>
+      </c>
+      <c r="JR1" s="1" t="inlineStr">
+        <is>
+          <t>naglieri</t>
+        </is>
+      </c>
+      <c r="JS1" s="1" t="inlineStr">
         <is>
           <t>lessons</t>
         </is>
       </c>
-      <c r="JB1" s="1" t="inlineStr">
-        <is>
-          <t>mandate</t>
-        </is>
-      </c>
-      <c r="JC1" s="1" t="inlineStr">
-        <is>
-          <t>organization</t>
-        </is>
-      </c>
-      <c r="JD1" s="1" t="inlineStr">
+      <c r="JT1" s="1" t="inlineStr">
+        <is>
+          <t>benefits</t>
+        </is>
+      </c>
+      <c r="JU1" s="1" t="inlineStr">
+        <is>
+          <t>parents</t>
+        </is>
+      </c>
+      <c r="JV1" s="1" t="inlineStr">
         <is>
           <t>groups</t>
         </is>
       </c>
-      <c r="JE1" s="1" t="inlineStr">
-        <is>
-          <t>investigate</t>
-        </is>
-      </c>
-      <c r="JF1" s="1" t="inlineStr">
-        <is>
-          <t>motivation/self-regulation</t>
-        </is>
-      </c>
-      <c r="JG1" s="1" t="inlineStr">
-        <is>
-          <t>self-perceptions</t>
-        </is>
-      </c>
-      <c r="JH1" s="1" t="inlineStr">
+      <c r="JW1" s="1" t="inlineStr">
+        <is>
+          <t>academically</t>
+        </is>
+      </c>
+      <c r="JX1" s="1" t="inlineStr">
+        <is>
+          <t>reveals</t>
+        </is>
+      </c>
+      <c r="JY1" s="1" t="inlineStr">
         <is>
           <t>bridge</t>
         </is>
       </c>
-      <c r="JI1" s="1" t="inlineStr">
-        <is>
-          <t>studies</t>
-        </is>
-      </c>
-      <c r="JJ1" s="1" t="inlineStr">
-        <is>
-          <t>academically</t>
-        </is>
-      </c>
-      <c r="JK1" s="1" t="inlineStr">
-        <is>
-          <t>processes</t>
-        </is>
-      </c>
-      <c r="JL1" s="1" t="inlineStr">
-        <is>
-          <t>legislation</t>
-        </is>
-      </c>
-      <c r="JM1" s="1" t="inlineStr">
-        <is>
-          <t>knowledge</t>
-        </is>
-      </c>
-      <c r="JN1" s="1" t="inlineStr">
-        <is>
-          <t>individual</t>
-        </is>
-      </c>
-      <c r="JO1" s="1" t="inlineStr">
+      <c r="JZ1" s="1" t="inlineStr">
         <is>
           <t>getting</t>
         </is>
       </c>
-      <c r="JP1" s="1" t="inlineStr">
+      <c r="KA1" s="1" t="inlineStr">
         <is>
           <t>help</t>
         </is>
       </c>
-      <c r="JQ1" s="1" t="inlineStr">
-        <is>
-          <t>enriched</t>
-        </is>
-      </c>
-      <c r="JR1" s="1" t="inlineStr">
-        <is>
-          <t>time</t>
-        </is>
-      </c>
-      <c r="JS1" s="1" t="inlineStr">
-        <is>
-          <t>benefits</t>
-        </is>
-      </c>
-      <c r="JT1" s="1" t="inlineStr">
-        <is>
-          <t>parents</t>
-        </is>
-      </c>
-      <c r="JU1" s="1" t="inlineStr">
-        <is>
-          <t>take</t>
-        </is>
-      </c>
-      <c r="JV1" s="1" t="inlineStr">
-        <is>
-          <t>developed</t>
-        </is>
-      </c>
-      <c r="JW1" s="1" t="inlineStr">
-        <is>
-          <t>scientists</t>
-        </is>
-      </c>
-      <c r="JX1" s="1" t="inlineStr">
-        <is>
-          <t>gains</t>
-        </is>
-      </c>
-      <c r="JY1" s="1" t="inlineStr">
-        <is>
-          <t>reveals</t>
-        </is>
-      </c>
-      <c r="JZ1" s="1" t="inlineStr">
+      <c r="KB1" s="1" t="inlineStr">
+        <is>
+          <t>complex</t>
+        </is>
+      </c>
+      <c r="KC1" s="1" t="inlineStr">
         <is>
           <t>districts</t>
         </is>
       </c>
-      <c r="KA1" s="1" t="inlineStr">
+      <c r="KD1" s="1" t="inlineStr">
+        <is>
+          <t>found</t>
+        </is>
+      </c>
+      <c r="KE1" s="1" t="inlineStr">
         <is>
           <t>general</t>
         </is>
       </c>
-      <c r="KB1" s="1" t="inlineStr">
-        <is>
-          <t>complex</t>
-        </is>
-      </c>
-      <c r="KC1" s="1" t="inlineStr">
-        <is>
-          <t>underrepresentation</t>
-        </is>
-      </c>
-      <c r="KD1" s="1" t="inlineStr">
-        <is>
-          <t>standard</t>
-        </is>
-      </c>
-      <c r="KE1" s="1" t="inlineStr">
+      <c r="KF1" s="1" t="inlineStr">
+        <is>
+          <t>story</t>
+        </is>
+      </c>
+      <c r="KG1" s="1" t="inlineStr">
+        <is>
+          <t>prefer</t>
+        </is>
+      </c>
+      <c r="KH1" s="1" t="inlineStr">
         <is>
           <t>greater</t>
         </is>
       </c>
-      <c r="KF1" s="1" t="inlineStr">
+      <c r="KI1" s="1" t="inlineStr">
         <is>
           <t>changes</t>
         </is>
       </c>
-      <c r="KG1" s="1" t="inlineStr">
-        <is>
-          <t>nonverbal</t>
-        </is>
-      </c>
-      <c r="KH1" s="1" t="inlineStr">
-        <is>
-          <t>found</t>
-        </is>
-      </c>
-      <c r="KI1" s="1" t="inlineStr">
-        <is>
-          <t>story</t>
-        </is>
-      </c>
       <c r="KJ1" s="1" t="inlineStr">
         <is>
-          <t>naglieri</t>
+          <t>style</t>
         </is>
       </c>
       <c r="KK1" s="1" t="inlineStr">
         <is>
-          <t>style</t>
+          <t>indicated</t>
         </is>
       </c>
       <c r="KL1" s="1" t="inlineStr">
         <is>
-          <t>literature</t>
+          <t>emerged</t>
         </is>
       </c>
       <c r="KM1" s="1" t="inlineStr">
@@ -1927,242 +1927,242 @@
       </c>
       <c r="KN1" s="1" t="inlineStr">
         <is>
-          <t>indicated</t>
+          <t>observations</t>
         </is>
       </c>
       <c r="KO1" s="1" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>rich</t>
         </is>
       </c>
       <c r="KP1" s="1" t="inlineStr">
         <is>
-          <t>and/or</t>
+          <t>challenges</t>
         </is>
       </c>
       <c r="KQ1" s="1" t="inlineStr">
         <is>
+          <t>interviews</t>
+        </is>
+      </c>
+      <c r="KR1" s="1" t="inlineStr">
+        <is>
+          <t>relations</t>
+        </is>
+      </c>
+      <c r="KS1" s="1" t="inlineStr">
+        <is>
+          <t>prior</t>
+        </is>
+      </c>
+      <c r="KT1" s="1" t="inlineStr">
+        <is>
+          <t>qualitatively</t>
+        </is>
+      </c>
+      <c r="KU1" s="1" t="inlineStr">
+        <is>
+          <t>probed</t>
+        </is>
+      </c>
+      <c r="KV1" s="1" t="inlineStr">
+        <is>
+          <t>voices</t>
+        </is>
+      </c>
+      <c r="KW1" s="1" t="inlineStr">
+        <is>
+          <t>views</t>
+        </is>
+      </c>
+      <c r="KX1" s="1" t="inlineStr">
+        <is>
+          <t>remembered</t>
+        </is>
+      </c>
+      <c r="KY1" s="1" t="inlineStr">
+        <is>
+          <t>shares</t>
+        </is>
+      </c>
+      <c r="KZ1" s="1" t="inlineStr">
+        <is>
+          <t>creative</t>
+        </is>
+      </c>
+      <c r="LA1" s="1" t="inlineStr">
+        <is>
+          <t>best</t>
+        </is>
+      </c>
+      <c r="LB1" s="1" t="inlineStr">
+        <is>
+          <t>able</t>
+        </is>
+      </c>
+      <c r="LC1" s="1" t="inlineStr">
+        <is>
+          <t>percentile</t>
+        </is>
+      </c>
+      <c r="LD1" s="1" t="inlineStr">
+        <is>
           <t>scores</t>
         </is>
       </c>
-      <c r="KR1" s="1" t="inlineStr">
-        <is>
-          <t>categories</t>
-        </is>
-      </c>
-      <c r="KS1" s="1" t="inlineStr">
-        <is>
-          <t>greatest</t>
-        </is>
-      </c>
-      <c r="KT1" s="1" t="inlineStr">
-        <is>
-          <t>percentile</t>
-        </is>
-      </c>
-      <c r="KU1" s="1" t="inlineStr">
-        <is>
-          <t>shares</t>
-        </is>
-      </c>
-      <c r="KV1" s="1" t="inlineStr">
-        <is>
-          <t>interviews</t>
-        </is>
-      </c>
-      <c r="KW1" s="1" t="inlineStr">
-        <is>
-          <t>prior</t>
-        </is>
-      </c>
-      <c r="KX1" s="1" t="inlineStr">
+      <c r="LE1" s="1" t="inlineStr">
+        <is>
+          <t>giftedness</t>
+        </is>
+      </c>
+      <c r="LF1" s="1" t="inlineStr">
+        <is>
+          <t>primary</t>
+        </is>
+      </c>
+      <c r="LG1" s="1" t="inlineStr">
+        <is>
+          <t>phases</t>
+        </is>
+      </c>
+      <c r="LH1" s="1" t="inlineStr">
+        <is>
+          <t>standardized</t>
+        </is>
+      </c>
+      <c r="LI1" s="1" t="inlineStr">
+        <is>
+          <t>tests</t>
+        </is>
+      </c>
+      <c r="LJ1" s="1" t="inlineStr">
+        <is>
+          <t>additional</t>
+        </is>
+      </c>
+      <c r="LK1" s="1" t="inlineStr">
+        <is>
+          <t>affected</t>
+        </is>
+      </c>
+      <c r="LL1" s="1" t="inlineStr">
+        <is>
+          <t>95th</t>
+        </is>
+      </c>
+      <c r="LM1" s="1" t="inlineStr">
+        <is>
+          <t>examine</t>
+        </is>
+      </c>
+      <c r="LN1" s="1" t="inlineStr">
+        <is>
+          <t>surveys</t>
+        </is>
+      </c>
+      <c r="LO1" s="1" t="inlineStr">
         <is>
           <t>emerging</t>
         </is>
       </c>
-      <c r="KY1" s="1" t="inlineStr">
+      <c r="LP1" s="1" t="inlineStr">
         <is>
           <t>fifty</t>
         </is>
       </c>
-      <c r="KZ1" s="1" t="inlineStr">
+      <c r="LQ1" s="1" t="inlineStr">
         <is>
           <t>interview</t>
         </is>
       </c>
-      <c r="LA1" s="1" t="inlineStr">
+      <c r="LR1" s="1" t="inlineStr">
         <is>
           <t>interviewed</t>
         </is>
       </c>
-      <c r="LB1" s="1" t="inlineStr">
-        <is>
-          <t>affected</t>
-        </is>
-      </c>
-      <c r="LC1" s="1" t="inlineStr">
-        <is>
-          <t>able</t>
-        </is>
-      </c>
-      <c r="LD1" s="1" t="inlineStr">
-        <is>
-          <t>additional</t>
-        </is>
-      </c>
-      <c r="LE1" s="1" t="inlineStr">
-        <is>
-          <t>rich</t>
-        </is>
-      </c>
-      <c r="LF1" s="1" t="inlineStr">
+      <c r="LS1" s="1" t="inlineStr">
+        <is>
+          <t>revised</t>
+        </is>
+      </c>
+      <c r="LT1" s="1" t="inlineStr">
+        <is>
+          <t>young</t>
+        </is>
+      </c>
+      <c r="LU1" s="1" t="inlineStr">
+        <is>
+          <t>used</t>
+        </is>
+      </c>
+      <c r="LV1" s="1" t="inlineStr">
         <is>
           <t>parts</t>
         </is>
       </c>
-      <c r="LG1" s="1" t="inlineStr">
+      <c r="LW1" s="1" t="inlineStr">
         <is>
           <t>peers</t>
         </is>
       </c>
-      <c r="LH1" s="1" t="inlineStr">
-        <is>
-          <t>probed</t>
-        </is>
-      </c>
-      <c r="LI1" s="1" t="inlineStr">
-        <is>
-          <t>it</t>
-        </is>
-      </c>
-      <c r="LJ1" s="1" t="inlineStr">
-        <is>
-          <t>qualitatively</t>
-        </is>
-      </c>
-      <c r="LK1" s="1" t="inlineStr">
-        <is>
-          <t>tests</t>
-        </is>
-      </c>
-      <c r="LL1" s="1" t="inlineStr">
-        <is>
-          <t>relations</t>
-        </is>
-      </c>
-      <c r="LM1" s="1" t="inlineStr">
-        <is>
-          <t>standardized</t>
-        </is>
-      </c>
-      <c r="LN1" s="1" t="inlineStr">
-        <is>
-          <t>remembered</t>
-        </is>
-      </c>
-      <c r="LO1" s="1" t="inlineStr">
-        <is>
-          <t>used</t>
-        </is>
-      </c>
-      <c r="LP1" s="1" t="inlineStr">
-        <is>
-          <t>views</t>
-        </is>
-      </c>
-      <c r="LQ1" s="1" t="inlineStr">
-        <is>
-          <t>voices</t>
-        </is>
-      </c>
-      <c r="LR1" s="1" t="inlineStr">
-        <is>
-          <t>observations</t>
-        </is>
-      </c>
-      <c r="LS1" s="1" t="inlineStr">
-        <is>
-          <t>assessment</t>
-        </is>
-      </c>
-      <c r="LT1" s="1" t="inlineStr">
-        <is>
-          <t>innovations</t>
-        </is>
-      </c>
-      <c r="LU1" s="1" t="inlineStr">
-        <is>
-          <t>creative</t>
-        </is>
-      </c>
-      <c r="LV1" s="1" t="inlineStr">
-        <is>
-          <t>95th</t>
-        </is>
-      </c>
-      <c r="LW1" s="1" t="inlineStr">
-        <is>
-          <t>practice</t>
-        </is>
-      </c>
       <c r="LX1" s="1" t="inlineStr">
         <is>
-          <t>phases</t>
+          <t>flexible</t>
         </is>
       </c>
       <c r="LY1" s="1" t="inlineStr">
         <is>
-          <t>best</t>
+          <t>increase</t>
         </is>
       </c>
       <c r="LZ1" s="1" t="inlineStr">
         <is>
-          <t>prefer</t>
+          <t>makes</t>
         </is>
       </c>
       <c r="MA1" s="1" t="inlineStr">
         <is>
-          <t>revised</t>
+          <t>several</t>
         </is>
       </c>
       <c r="MB1" s="1" t="inlineStr">
         <is>
-          <t>young</t>
+          <t>qualitative</t>
         </is>
       </c>
       <c r="MC1" s="1" t="inlineStr">
         <is>
-          <t>emerged</t>
+          <t>future</t>
         </is>
       </c>
       <c r="MD1" s="1" t="inlineStr">
         <is>
-          <t>see</t>
+          <t>addition</t>
         </is>
       </c>
       <c r="ME1" s="1" t="inlineStr">
         <is>
-          <t>provided</t>
+          <t>new</t>
         </is>
       </c>
       <c r="MF1" s="1" t="inlineStr">
         <is>
-          <t>primary</t>
+          <t>minority</t>
         </is>
       </c>
       <c r="MG1" s="1" t="inlineStr">
         <is>
-          <t>flexible</t>
+          <t>part</t>
         </is>
       </c>
       <c r="MH1" s="1" t="inlineStr">
         <is>
-          <t>there</t>
+          <t>recognition</t>
         </is>
       </c>
       <c r="MI1" s="1" t="inlineStr">
         <is>
-          <t>qualitative</t>
+          <t>include</t>
         </is>
       </c>
       <c r="MJ1" s="1" t="inlineStr">
@@ -2172,3492 +2172,3292 @@
       </c>
       <c r="MK1" s="1" t="inlineStr">
         <is>
-          <t>include</t>
+          <t>schoolwork</t>
         </is>
       </c>
       <c r="ML1" s="1" t="inlineStr">
         <is>
-          <t>addition</t>
+          <t>unchallenging</t>
         </is>
       </c>
       <c r="MM1" s="1" t="inlineStr">
         <is>
-          <t>surveys</t>
+          <t>yielded</t>
         </is>
       </c>
       <c r="MN1" s="1" t="inlineStr">
         <is>
-          <t>makes</t>
+          <t>32-item</t>
         </is>
       </c>
       <c r="MO1" s="1" t="inlineStr">
         <is>
-          <t>recognition</t>
+          <t>involvement</t>
         </is>
       </c>
       <c r="MP1" s="1" t="inlineStr">
         <is>
-          <t>part</t>
+          <t>chinese</t>
         </is>
       </c>
       <c r="MQ1" s="1" t="inlineStr">
         <is>
-          <t>several</t>
+          <t>concerns</t>
         </is>
       </c>
       <c r="MR1" s="1" t="inlineStr">
         <is>
-          <t>examine</t>
+          <t>expectations</t>
         </is>
       </c>
       <c r="MS1" s="1" t="inlineStr">
         <is>
-          <t>future</t>
+          <t>different</t>
         </is>
       </c>
       <c r="MT1" s="1" t="inlineStr">
         <is>
-          <t>yielded</t>
+          <t>expand</t>
         </is>
       </c>
       <c r="MU1" s="1" t="inlineStr">
         <is>
-          <t>chinese</t>
+          <t>stand</t>
         </is>
       </c>
       <c r="MV1" s="1" t="inlineStr">
         <is>
-          <t>different</t>
+          <t>based</t>
         </is>
       </c>
       <c r="MW1" s="1" t="inlineStr">
         <is>
-          <t>concerns</t>
+          <t>south</t>
         </is>
       </c>
       <c r="MX1" s="1" t="inlineStr">
         <is>
-          <t>unchallenging</t>
+          <t>rural</t>
         </is>
       </c>
       <c r="MY1" s="1" t="inlineStr">
         <is>
-          <t>schoolwork</t>
+          <t>presence</t>
         </is>
       </c>
       <c r="MZ1" s="1" t="inlineStr">
         <is>
-          <t>32-item</t>
+          <t>played</t>
         </is>
       </c>
       <c r="NA1" s="1" t="inlineStr">
         <is>
-          <t>expectations</t>
+          <t>obtaining</t>
         </is>
       </c>
       <c r="NB1" s="1" t="inlineStr">
         <is>
+          <t>meetings</t>
+        </is>
+      </c>
+      <c r="NC1" s="1" t="inlineStr">
+        <is>
+          <t>loosely</t>
+        </is>
+      </c>
+      <c r="ND1" s="1" t="inlineStr">
+        <is>
+          <t>influential</t>
+        </is>
+      </c>
+      <c r="NE1" s="1" t="inlineStr">
+        <is>
+          <t>hearings</t>
+        </is>
+      </c>
+      <c r="NF1" s="1" t="inlineStr">
+        <is>
+          <t>greatly</t>
+        </is>
+      </c>
+      <c r="NG1" s="1" t="inlineStr">
+        <is>
+          <t>face</t>
+        </is>
+      </c>
+      <c r="NH1" s="1" t="inlineStr">
+        <is>
+          <t>enabling</t>
+        </is>
+      </c>
+      <c r="NI1" s="1" t="inlineStr">
+        <is>
+          <t>diminished</t>
+        </is>
+      </c>
+      <c r="NJ1" s="1" t="inlineStr">
+        <is>
+          <t>describe</t>
+        </is>
+      </c>
+      <c r="NK1" s="1" t="inlineStr">
+        <is>
+          <t>dakota</t>
+        </is>
+      </c>
+      <c r="NL1" s="1" t="inlineStr">
+        <is>
+          <t>custer</t>
+        </is>
+      </c>
+      <c r="NM1" s="1" t="inlineStr">
+        <is>
+          <t>crisis</t>
+        </is>
+      </c>
+      <c r="NN1" s="1" t="inlineStr">
+        <is>
+          <t>coordinator</t>
+        </is>
+      </c>
+      <c r="NO1" s="1" t="inlineStr">
+        <is>
+          <t>budget</t>
+        </is>
+      </c>
+      <c r="NP1" s="1" t="inlineStr">
+        <is>
+          <t>board</t>
+        </is>
+      </c>
+      <c r="NQ1" s="1" t="inlineStr">
+        <is>
+          <t>specific</t>
+        </is>
+      </c>
+      <c r="NR1" s="1" t="inlineStr">
+        <is>
+          <t>outcome</t>
+        </is>
+      </c>
+      <c r="NS1" s="1" t="inlineStr">
+        <is>
+          <t>superintendent</t>
+        </is>
+      </c>
+      <c r="NT1" s="1" t="inlineStr">
+        <is>
+          <t>vital</t>
+        </is>
+      </c>
+      <c r="NU1" s="1" t="inlineStr">
+        <is>
           <t>structured</t>
         </is>
       </c>
-      <c r="NC1" s="1" t="inlineStr">
-        <is>
-          <t>based</t>
-        </is>
-      </c>
-      <c r="ND1" s="1" t="inlineStr">
-        <is>
-          <t>involvement</t>
-        </is>
-      </c>
-      <c r="NE1" s="1" t="inlineStr">
-        <is>
-          <t>stand</t>
-        </is>
-      </c>
-      <c r="NF1" s="1" t="inlineStr">
-        <is>
-          <t>vital</t>
-        </is>
-      </c>
-      <c r="NG1" s="1" t="inlineStr">
+      <c r="NV1" s="1" t="inlineStr">
         <is>
           <t>variety</t>
         </is>
       </c>
-      <c r="NH1" s="1" t="inlineStr">
-        <is>
-          <t>superintendent</t>
-        </is>
-      </c>
-      <c r="NI1" s="1" t="inlineStr">
-        <is>
-          <t>hearings</t>
-        </is>
-      </c>
-      <c r="NJ1" s="1" t="inlineStr">
-        <is>
-          <t>diminished</t>
-        </is>
-      </c>
-      <c r="NK1" s="1" t="inlineStr">
-        <is>
-          <t>outcome</t>
-        </is>
-      </c>
-      <c r="NL1" s="1" t="inlineStr">
-        <is>
-          <t>influential</t>
-        </is>
-      </c>
-      <c r="NM1" s="1" t="inlineStr">
-        <is>
-          <t>greatly</t>
-        </is>
-      </c>
-      <c r="NN1" s="1" t="inlineStr">
-        <is>
-          <t>face</t>
-        </is>
-      </c>
-      <c r="NO1" s="1" t="inlineStr">
-        <is>
-          <t>loosely</t>
-        </is>
-      </c>
-      <c r="NP1" s="1" t="inlineStr">
-        <is>
-          <t>expand</t>
-        </is>
-      </c>
-      <c r="NQ1" s="1" t="inlineStr">
-        <is>
-          <t>meetings</t>
-        </is>
-      </c>
-      <c r="NR1" s="1" t="inlineStr">
-        <is>
-          <t>most</t>
-        </is>
-      </c>
-      <c r="NS1" s="1" t="inlineStr">
-        <is>
-          <t>obtaining</t>
-        </is>
-      </c>
-      <c r="NT1" s="1" t="inlineStr">
-        <is>
-          <t>enabling</t>
-        </is>
-      </c>
-      <c r="NU1" s="1" t="inlineStr">
-        <is>
-          <t>specific</t>
-        </is>
-      </c>
-      <c r="NV1" s="1" t="inlineStr">
-        <is>
-          <t>south</t>
-        </is>
-      </c>
       <c r="NW1" s="1" t="inlineStr">
         <is>
-          <t>played</t>
+          <t>believe</t>
         </is>
       </c>
       <c r="NX1" s="1" t="inlineStr">
         <is>
-          <t>describe</t>
+          <t>inspiration</t>
         </is>
       </c>
       <c r="NY1" s="1" t="inlineStr">
         <is>
-          <t>presence</t>
+          <t>describes</t>
         </is>
       </c>
       <c r="NZ1" s="1" t="inlineStr">
         <is>
-          <t>dakota</t>
+          <t>preparation</t>
         </is>
       </c>
       <c r="OA1" s="1" t="inlineStr">
         <is>
-          <t>custer</t>
+          <t>cause</t>
         </is>
       </c>
       <c r="OB1" s="1" t="inlineStr">
         <is>
-          <t>crisis</t>
+          <t>cases</t>
         </is>
       </c>
       <c r="OC1" s="1" t="inlineStr">
         <is>
-          <t>coordinator</t>
+          <t>evaluate</t>
         </is>
       </c>
       <c r="OD1" s="1" t="inlineStr">
         <is>
-          <t>budget</t>
+          <t>accounts</t>
         </is>
       </c>
       <c r="OE1" s="1" t="inlineStr">
         <is>
-          <t>board</t>
+          <t>measures</t>
         </is>
       </c>
       <c r="OF1" s="1" t="inlineStr">
         <is>
-          <t>rural</t>
+          <t>needs</t>
         </is>
       </c>
       <c r="OG1" s="1" t="inlineStr">
         <is>
+          <t>persistent</t>
+        </is>
+      </c>
+      <c r="OH1" s="1" t="inlineStr">
+        <is>
+          <t>well</t>
+        </is>
+      </c>
+      <c r="OI1" s="1" t="inlineStr">
+        <is>
+          <t>leaders</t>
+        </is>
+      </c>
+      <c r="OJ1" s="1" t="inlineStr">
+        <is>
+          <t>designed</t>
+        </is>
+      </c>
+      <c r="OK1" s="1" t="inlineStr">
+        <is>
+          <t>regarding</t>
+        </is>
+      </c>
+      <c r="OL1" s="1" t="inlineStr">
+        <is>
+          <t>willing</t>
+        </is>
+      </c>
+      <c r="OM1" s="1" t="inlineStr">
+        <is>
+          <t>multiple</t>
+        </is>
+      </c>
+      <c r="ON1" s="1" t="inlineStr">
+        <is>
+          <t>particular</t>
+        </is>
+      </c>
+      <c r="OO1" s="1" t="inlineStr">
+        <is>
+          <t>supporters</t>
+        </is>
+      </c>
+      <c r="OP1" s="1" t="inlineStr">
+        <is>
+          <t>serendipity</t>
+        </is>
+      </c>
+      <c r="OQ1" s="1" t="inlineStr">
+        <is>
+          <t>result</t>
+        </is>
+      </c>
+      <c r="OR1" s="1" t="inlineStr">
+        <is>
+          <t>passion</t>
+        </is>
+      </c>
+      <c r="OS1" s="1" t="inlineStr">
+        <is>
+          <t>people</t>
+        </is>
+      </c>
+      <c r="OT1" s="1" t="inlineStr">
+        <is>
+          <t>represented</t>
+        </is>
+      </c>
+      <c r="OU1" s="1" t="inlineStr">
+        <is>
+          <t>perseverance</t>
+        </is>
+      </c>
+      <c r="OV1" s="1" t="inlineStr">
+        <is>
           <t>refers</t>
         </is>
       </c>
-      <c r="OH1" s="1" t="inlineStr">
-        <is>
-          <t>well</t>
-        </is>
-      </c>
-      <c r="OI1" s="1" t="inlineStr">
-        <is>
-          <t>challenges</t>
-        </is>
-      </c>
-      <c r="OJ1" s="1" t="inlineStr">
-        <is>
-          <t>designed</t>
-        </is>
-      </c>
-      <c r="OK1" s="1" t="inlineStr">
-        <is>
-          <t>accounts</t>
-        </is>
-      </c>
-      <c r="OL1" s="1" t="inlineStr">
-        <is>
-          <t>both</t>
-        </is>
-      </c>
-      <c r="OM1" s="1" t="inlineStr">
-        <is>
-          <t>result</t>
-        </is>
-      </c>
-      <c r="ON1" s="1" t="inlineStr">
-        <is>
-          <t>persistent</t>
-        </is>
-      </c>
-      <c r="OO1" s="1" t="inlineStr">
-        <is>
-          <t>needs</t>
-        </is>
-      </c>
-      <c r="OP1" s="1" t="inlineStr">
-        <is>
-          <t>giftedness</t>
-        </is>
-      </c>
-      <c r="OQ1" s="1" t="inlineStr">
-        <is>
-          <t>believe</t>
-        </is>
-      </c>
-      <c r="OR1" s="1" t="inlineStr">
-        <is>
-          <t>cases</t>
-        </is>
-      </c>
-      <c r="OS1" s="1" t="inlineStr">
-        <is>
-          <t>cause</t>
-        </is>
-      </c>
-      <c r="OT1" s="1" t="inlineStr">
-        <is>
-          <t>describes</t>
-        </is>
-      </c>
-      <c r="OU1" s="1" t="inlineStr">
-        <is>
-          <t>willing</t>
-        </is>
-      </c>
-      <c r="OV1" s="1" t="inlineStr">
-        <is>
-          <t>supporters</t>
-        </is>
-      </c>
       <c r="OW1" s="1" t="inlineStr">
         <is>
-          <t>inspiration</t>
+          <t>self-report</t>
         </is>
       </c>
       <c r="OX1" s="1" t="inlineStr">
         <is>
-          <t>serendipity</t>
+          <t>insight</t>
         </is>
       </c>
       <c r="OY1" s="1" t="inlineStr">
         <is>
-          <t>measures</t>
+          <t>summer</t>
         </is>
       </c>
       <c r="OZ1" s="1" t="inlineStr">
         <is>
-          <t>represented</t>
+          <t>led</t>
         </is>
       </c>
       <c r="PA1" s="1" t="inlineStr">
         <is>
-          <t>multiple</t>
+          <t>narrative</t>
         </is>
       </c>
       <c r="PB1" s="1" t="inlineStr">
         <is>
-          <t>particular</t>
+          <t>high-end</t>
         </is>
       </c>
       <c r="PC1" s="1" t="inlineStr">
         <is>
-          <t>passion</t>
+          <t>largest</t>
         </is>
       </c>
       <c r="PD1" s="1" t="inlineStr">
         <is>
-          <t>people</t>
+          <t>impeded</t>
         </is>
       </c>
       <c r="PE1" s="1" t="inlineStr">
         <is>
-          <t>perseverance</t>
+          <t>...</t>
         </is>
       </c>
       <c r="PF1" s="1" t="inlineStr">
         <is>
-          <t>leaders</t>
+          <t>pilot</t>
         </is>
       </c>
       <c r="PG1" s="1" t="inlineStr">
         <is>
-          <t>preparation</t>
+          <t>final</t>
         </is>
       </c>
       <c r="PH1" s="1" t="inlineStr">
         <is>
-          <t>regarding</t>
+          <t>facilitated</t>
         </is>
       </c>
       <c r="PI1" s="1" t="inlineStr">
         <is>
-          <t>minority</t>
+          <t>details</t>
         </is>
       </c>
       <c r="PJ1" s="1" t="inlineStr">
         <is>
-          <t>pilot</t>
+          <t>circumstances</t>
         </is>
       </c>
       <c r="PK1" s="1" t="inlineStr">
         <is>
-          <t>summer</t>
+          <t>became</t>
         </is>
       </c>
       <c r="PL1" s="1" t="inlineStr">
         <is>
+          <t>nation</t>
+        </is>
+      </c>
+      <c r="PM1" s="1" t="inlineStr">
+        <is>
+          <t>accept</t>
+        </is>
+      </c>
+      <c r="PN1" s="1" t="inlineStr">
+        <is>
           <t>comparable</t>
         </is>
       </c>
-      <c r="PM1" s="1" t="inlineStr">
-        <is>
-          <t>new</t>
-        </is>
-      </c>
-      <c r="PN1" s="1" t="inlineStr">
-        <is>
-          <t>b</t>
-        </is>
-      </c>
       <c r="PO1" s="1" t="inlineStr">
         <is>
-          <t>self-report</t>
+          <t>capable</t>
         </is>
       </c>
       <c r="PP1" s="1" t="inlineStr">
         <is>
+          <t>average</t>
+        </is>
+      </c>
+      <c r="PQ1" s="1" t="inlineStr">
+        <is>
+          <t>necessity</t>
+        </is>
+      </c>
+      <c r="PR1" s="1" t="inlineStr">
+        <is>
+          <t>suburban</t>
+        </is>
+      </c>
+      <c r="PS1" s="1" t="inlineStr">
+        <is>
           <t>following</t>
         </is>
       </c>
-      <c r="PQ1" s="1" t="inlineStr">
-        <is>
-          <t>average</t>
-        </is>
-      </c>
-      <c r="PR1" s="1" t="inlineStr">
-        <is>
-          <t>c</t>
-        </is>
-      </c>
-      <c r="PS1" s="1" t="inlineStr">
-        <is>
-          <t>evaluate</t>
-        </is>
-      </c>
       <c r="PT1" s="1" t="inlineStr">
         <is>
-          <t>increase</t>
+          <t>accelerate</t>
         </is>
       </c>
       <c r="PU1" s="1" t="inlineStr">
         <is>
+          <t>yields</t>
+        </is>
+      </c>
+      <c r="PV1" s="1" t="inlineStr">
+        <is>
+          <t>wrestled</t>
+        </is>
+      </c>
+      <c r="PW1" s="1" t="inlineStr">
+        <is>
+          <t>wanted</t>
+        </is>
+      </c>
+      <c r="PX1" s="1" t="inlineStr">
+        <is>
+          <t>text</t>
+        </is>
+      </c>
+      <c r="PY1" s="1" t="inlineStr">
+        <is>
+          <t>occur</t>
+        </is>
+      </c>
+      <c r="PZ1" s="1" t="inlineStr">
+        <is>
+          <t>tenacity</t>
+        </is>
+      </c>
+      <c r="QA1" s="1" t="inlineStr">
+        <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="QB1" s="1" t="inlineStr">
+        <is>
+          <t>reform</t>
+        </is>
+      </c>
+      <c r="QC1" s="1" t="inlineStr">
+        <is>
+          <t>raised</t>
+        </is>
+      </c>
+      <c r="QD1" s="1" t="inlineStr">
+        <is>
+          <t>place</t>
+        </is>
+      </c>
+      <c r="QE1" s="1" t="inlineStr">
+        <is>
+          <t>passage</t>
+        </is>
+      </c>
+      <c r="QF1" s="1" t="inlineStr">
+        <is>
+          <t>responded</t>
+        </is>
+      </c>
+      <c r="QG1" s="1" t="inlineStr">
+        <is>
+          <t>completed</t>
+        </is>
+      </c>
+      <c r="QH1" s="1" t="inlineStr">
+        <is>
+          <t>compared</t>
+        </is>
+      </c>
+      <c r="QI1" s="1" t="inlineStr">
+        <is>
+          <t>variables</t>
+        </is>
+      </c>
+      <c r="QJ1" s="1" t="inlineStr">
+        <is>
+          <t>studied</t>
+        </is>
+      </c>
+      <c r="QK1" s="1" t="inlineStr">
+        <is>
+          <t>overall</t>
+        </is>
+      </c>
+      <c r="QL1" s="1" t="inlineStr">
+        <is>
+          <t>investigated</t>
+        </is>
+      </c>
+      <c r="QM1" s="1" t="inlineStr">
+        <is>
           <t>agenda</t>
         </is>
       </c>
-      <c r="PV1" s="1" t="inlineStr">
-        <is>
-          <t>compared</t>
-        </is>
-      </c>
-      <c r="PW1" s="1" t="inlineStr">
-        <is>
-          <t>studied</t>
-        </is>
-      </c>
-      <c r="PX1" s="1" t="inlineStr">
-        <is>
-          <t>responded</t>
-        </is>
-      </c>
-      <c r="PY1" s="1" t="inlineStr">
-        <is>
-          <t>variables</t>
-        </is>
-      </c>
-      <c r="PZ1" s="1" t="inlineStr">
-        <is>
-          <t>investigated</t>
-        </is>
-      </c>
-      <c r="QA1" s="1" t="inlineStr">
-        <is>
-          <t>overall</t>
-        </is>
-      </c>
-      <c r="QB1" s="1" t="inlineStr">
-        <is>
-          <t>completed</t>
-        </is>
-      </c>
-      <c r="QC1" s="1" t="inlineStr">
+      <c r="QN1" s="1" t="inlineStr">
+        <is>
+          <t>correlation</t>
+        </is>
+      </c>
+      <c r="QO1" s="1" t="inlineStr">
+        <is>
+          <t>equality</t>
+        </is>
+      </c>
+      <c r="QP1" s="1" t="inlineStr">
+        <is>
+          <t>managed</t>
+        </is>
+      </c>
+      <c r="QQ1" s="1" t="inlineStr">
+        <is>
+          <t>seen</t>
+        </is>
+      </c>
+      <c r="QR1" s="1" t="inlineStr">
+        <is>
+          <t>reasons</t>
+        </is>
+      </c>
+      <c r="QS1" s="1" t="inlineStr">
+        <is>
+          <t>confidence</t>
+        </is>
+      </c>
+      <c r="QT1" s="1" t="inlineStr">
+        <is>
+          <t>patterns</t>
+        </is>
+      </c>
+      <c r="QU1" s="1" t="inlineStr">
+        <is>
+          <t>opportunity</t>
+        </is>
+      </c>
+      <c r="QV1" s="1" t="inlineStr">
+        <is>
+          <t>ages</t>
+        </is>
+      </c>
+      <c r="QW1" s="1" t="inlineStr">
+        <is>
+          <t>almost</t>
+        </is>
+      </c>
+      <c r="QX1" s="1" t="inlineStr">
+        <is>
+          <t>along</t>
+        </is>
+      </c>
+      <c r="QY1" s="1" t="inlineStr">
+        <is>
+          <t>appear</t>
+        </is>
+      </c>
+      <c r="QZ1" s="1" t="inlineStr">
+        <is>
+          <t>major</t>
+        </is>
+      </c>
+      <c r="RA1" s="1" t="inlineStr">
+        <is>
+          <t>acheivements</t>
+        </is>
+      </c>
+      <c r="RB1" s="1" t="inlineStr">
+        <is>
+          <t>inspection</t>
+        </is>
+      </c>
+      <c r="RC1" s="1" t="inlineStr">
+        <is>
+          <t>areas</t>
+        </is>
+      </c>
+      <c r="RD1" s="1" t="inlineStr">
+        <is>
+          <t>boys</t>
+        </is>
+      </c>
+      <c r="RE1" s="1" t="inlineStr">
+        <is>
+          <t>favor</t>
+        </is>
+      </c>
+      <c r="RF1" s="1" t="inlineStr">
+        <is>
+          <t>commision</t>
+        </is>
+      </c>
+      <c r="RG1" s="1" t="inlineStr">
+        <is>
+          <t>equal</t>
+        </is>
+      </c>
+      <c r="RH1" s="1" t="inlineStr">
+        <is>
+          <t>emotionally</t>
+        </is>
+      </c>
+      <c r="RI1" s="1" t="inlineStr">
+        <is>
+          <t>educationally</t>
+        </is>
+      </c>
+      <c r="RJ1" s="1" t="inlineStr">
+        <is>
+          <t>differences</t>
+        </is>
+      </c>
+      <c r="RK1" s="1" t="inlineStr">
+        <is>
+          <t>showing</t>
+        </is>
+      </c>
+      <c r="RL1" s="1" t="inlineStr">
+        <is>
+          <t>checks</t>
+        </is>
+      </c>
+      <c r="RM1" s="1" t="inlineStr">
+        <is>
+          <t>us</t>
+        </is>
+      </c>
+      <c r="RN1" s="1" t="inlineStr">
+        <is>
+          <t>performance</t>
+        </is>
+      </c>
+      <c r="RO1" s="1" t="inlineStr">
+        <is>
+          <t>nongifted</t>
+        </is>
+      </c>
+      <c r="RP1" s="1" t="inlineStr">
+        <is>
+          <t>abilities</t>
+        </is>
+      </c>
+      <c r="RQ1" s="1" t="inlineStr">
+        <is>
+          <t>performed</t>
+        </is>
+      </c>
+      <c r="RR1" s="1" t="inlineStr">
         <is>
           <t>wheras</t>
         </is>
       </c>
-      <c r="QD1" s="1" t="inlineStr">
+      <c r="RS1" s="1" t="inlineStr">
+        <is>
+          <t>u.s</t>
+        </is>
+      </c>
+      <c r="RT1" s="1" t="inlineStr">
         <is>
           <t>workplace</t>
         </is>
       </c>
-      <c r="QE1" s="1" t="inlineStr">
-        <is>
-          <t>us</t>
-        </is>
-      </c>
-      <c r="QF1" s="1" t="inlineStr">
-        <is>
-          <t>high-end</t>
-        </is>
-      </c>
-      <c r="QG1" s="1" t="inlineStr">
-        <is>
-          <t>final</t>
-        </is>
-      </c>
-      <c r="QH1" s="1" t="inlineStr">
-        <is>
-          <t>facilitated</t>
-        </is>
-      </c>
-      <c r="QI1" s="1" t="inlineStr">
-        <is>
-          <t>u.s</t>
-        </is>
-      </c>
-      <c r="QJ1" s="1" t="inlineStr">
-        <is>
-          <t>about</t>
-        </is>
-      </c>
-      <c r="QK1" s="1" t="inlineStr">
-        <is>
-          <t>...</t>
-        </is>
-      </c>
-      <c r="QL1" s="1" t="inlineStr">
+      <c r="RU1" s="1" t="inlineStr">
+        <is>
+          <t>kedi-wisc</t>
+        </is>
+      </c>
+      <c r="RV1" s="1" t="inlineStr">
         <is>
           <t>9.4</t>
         </is>
       </c>
-      <c r="QM1" s="1" t="inlineStr">
-        <is>
-          <t>details</t>
-        </is>
-      </c>
-      <c r="QN1" s="1" t="inlineStr">
-        <is>
-          <t>performed</t>
-        </is>
-      </c>
-      <c r="QO1" s="1" t="inlineStr">
-        <is>
-          <t>circumstances</t>
-        </is>
-      </c>
-      <c r="QP1" s="1" t="inlineStr">
-        <is>
-          <t>capable</t>
-        </is>
-      </c>
-      <c r="QQ1" s="1" t="inlineStr">
-        <is>
-          <t>became</t>
-        </is>
-      </c>
-      <c r="QR1" s="1" t="inlineStr">
-        <is>
-          <t>all</t>
-        </is>
-      </c>
-      <c r="QS1" s="1" t="inlineStr">
-        <is>
-          <t>accept</t>
-        </is>
-      </c>
-      <c r="QT1" s="1" t="inlineStr">
-        <is>
-          <t>accelerated</t>
-        </is>
-      </c>
-      <c r="QU1" s="1" t="inlineStr">
+      <c r="RW1" s="1" t="inlineStr">
+        <is>
+          <t>t.o.v.a.</t>
+        </is>
+      </c>
+      <c r="RX1" s="1" t="inlineStr">
+        <is>
+          <t>better</t>
+        </is>
+      </c>
+      <c r="RY1" s="1" t="inlineStr">
         <is>
           <t>surpassing</t>
         </is>
       </c>
-      <c r="QV1" s="1" t="inlineStr">
-        <is>
-          <t>impeded</t>
-        </is>
-      </c>
-      <c r="QW1" s="1" t="inlineStr">
-        <is>
-          <t>performance</t>
-        </is>
-      </c>
-      <c r="QX1" s="1" t="inlineStr">
-        <is>
-          <t>better</t>
-        </is>
-      </c>
-      <c r="QY1" s="1" t="inlineStr">
-        <is>
-          <t>educationally</t>
-        </is>
-      </c>
-      <c r="QZ1" s="1" t="inlineStr">
-        <is>
-          <t>t.o.v.a.</t>
-        </is>
-      </c>
-      <c r="RA1" s="1" t="inlineStr">
-        <is>
-          <t>differences</t>
-        </is>
-      </c>
-      <c r="RB1" s="1" t="inlineStr">
-        <is>
-          <t>text</t>
-        </is>
-      </c>
-      <c r="RC1" s="1" t="inlineStr">
-        <is>
-          <t>confidence</t>
-        </is>
-      </c>
-      <c r="RD1" s="1" t="inlineStr">
-        <is>
-          <t>checks</t>
-        </is>
-      </c>
-      <c r="RE1" s="1" t="inlineStr">
-        <is>
-          <t>tenacity</t>
-        </is>
-      </c>
-      <c r="RF1" s="1" t="inlineStr">
-        <is>
-          <t>suburban</t>
-        </is>
-      </c>
-      <c r="RG1" s="1" t="inlineStr">
-        <is>
-          <t>nation</t>
-        </is>
-      </c>
-      <c r="RH1" s="1" t="inlineStr">
-        <is>
-          <t>section</t>
-        </is>
-      </c>
-      <c r="RI1" s="1" t="inlineStr">
-        <is>
-          <t>abilities</t>
-        </is>
-      </c>
-      <c r="RJ1" s="1" t="inlineStr">
-        <is>
-          <t>boys</t>
-        </is>
-      </c>
-      <c r="RK1" s="1" t="inlineStr">
-        <is>
-          <t>narrative</t>
-        </is>
-      </c>
-      <c r="RL1" s="1" t="inlineStr">
-        <is>
-          <t>correlation</t>
-        </is>
-      </c>
-      <c r="RM1" s="1" t="inlineStr">
-        <is>
-          <t>acheivements</t>
-        </is>
-      </c>
-      <c r="RN1" s="1" t="inlineStr">
-        <is>
-          <t>raised</t>
-        </is>
-      </c>
-      <c r="RO1" s="1" t="inlineStr">
-        <is>
-          <t>led</t>
-        </is>
-      </c>
-      <c r="RP1" s="1" t="inlineStr">
-        <is>
-          <t>areas</t>
-        </is>
-      </c>
-      <c r="RQ1" s="1" t="inlineStr">
-        <is>
-          <t>appear</t>
-        </is>
-      </c>
-      <c r="RR1" s="1" t="inlineStr">
-        <is>
-          <t>showing</t>
-        </is>
-      </c>
-      <c r="RS1" s="1" t="inlineStr">
-        <is>
-          <t>ages</t>
-        </is>
-      </c>
-      <c r="RT1" s="1" t="inlineStr">
-        <is>
-          <t>reform</t>
-        </is>
-      </c>
-      <c r="RU1" s="1" t="inlineStr">
-        <is>
-          <t>along</t>
-        </is>
-      </c>
-      <c r="RV1" s="1" t="inlineStr">
-        <is>
-          <t>almost</t>
-        </is>
-      </c>
-      <c r="RW1" s="1" t="inlineStr">
-        <is>
-          <t>occur</t>
-        </is>
-      </c>
-      <c r="RX1" s="1" t="inlineStr">
-        <is>
-          <t>necessity</t>
-        </is>
-      </c>
-      <c r="RY1" s="1" t="inlineStr">
-        <is>
-          <t>emotionally</t>
-        </is>
-      </c>
       <c r="RZ1" s="1" t="inlineStr">
         <is>
-          <t>passage</t>
+          <t>accommodations</t>
         </is>
       </c>
       <c r="SA1" s="1" t="inlineStr">
         <is>
-          <t>seen</t>
+          <t>excellence</t>
         </is>
       </c>
       <c r="SB1" s="1" t="inlineStr">
         <is>
-          <t>insight</t>
+          <t>explain</t>
         </is>
       </c>
       <c r="SC1" s="1" t="inlineStr">
         <is>
-          <t>reasons</t>
+          <t>addressed</t>
         </is>
       </c>
       <c r="SD1" s="1" t="inlineStr">
         <is>
-          <t>patterns</t>
+          <t>equitable</t>
         </is>
       </c>
       <c r="SE1" s="1" t="inlineStr">
         <is>
-          <t>opportunity</t>
+          <t>arkansas</t>
         </is>
       </c>
       <c r="SF1" s="1" t="inlineStr">
         <is>
-          <t>yields</t>
+          <t>above-level</t>
         </is>
       </c>
       <c r="SG1" s="1" t="inlineStr">
         <is>
-          <t>wrestled</t>
+          <t>ensure</t>
         </is>
       </c>
       <c r="SH1" s="1" t="inlineStr">
         <is>
-          <t>nongifted</t>
+          <t>vs.</t>
         </is>
       </c>
       <c r="SI1" s="1" t="inlineStr">
         <is>
-          <t>major</t>
+          <t>variance</t>
         </is>
       </c>
       <c r="SJ1" s="1" t="inlineStr">
         <is>
-          <t>inspection</t>
+          <t>enrollment</t>
         </is>
       </c>
       <c r="SK1" s="1" t="inlineStr">
         <is>
-          <t>commision</t>
+          <t>underserved</t>
         </is>
       </c>
       <c r="SL1" s="1" t="inlineStr">
         <is>
-          <t>wanted</t>
+          <t>third</t>
         </is>
       </c>
       <c r="SM1" s="1" t="inlineStr">
         <is>
-          <t>managed</t>
+          <t>surprising</t>
         </is>
       </c>
       <c r="SN1" s="1" t="inlineStr">
         <is>
-          <t>on</t>
+          <t>desegregate</t>
         </is>
       </c>
       <c r="SO1" s="1" t="inlineStr">
         <is>
-          <t>largest</t>
+          <t>stated</t>
         </is>
       </c>
       <c r="SP1" s="1" t="inlineStr">
         <is>
-          <t>kedi-wisc</t>
+          <t>amount</t>
         </is>
       </c>
       <c r="SQ1" s="1" t="inlineStr">
         <is>
-          <t>equality</t>
+          <t>components</t>
         </is>
       </c>
       <c r="SR1" s="1" t="inlineStr">
         <is>
-          <t>equal</t>
+          <t>sixth</t>
         </is>
       </c>
       <c r="SS1" s="1" t="inlineStr">
         <is>
-          <t>favor</t>
+          <t>advisable</t>
         </is>
       </c>
       <c r="ST1" s="1" t="inlineStr">
         <is>
-          <t>place</t>
+          <t>agree</t>
         </is>
       </c>
       <c r="SU1" s="1" t="inlineStr">
         <is>
-          <t>desegregate</t>
+          <t>members</t>
         </is>
       </c>
       <c r="SV1" s="1" t="inlineStr">
         <is>
-          <t>addressed</t>
+          <t>representation</t>
         </is>
       </c>
       <c r="SW1" s="1" t="inlineStr">
         <is>
-          <t>excellence</t>
+          <t>middle</t>
         </is>
       </c>
       <c r="SX1" s="1" t="inlineStr">
         <is>
-          <t>accommodations</t>
+          <t>modification</t>
         </is>
       </c>
       <c r="SY1" s="1" t="inlineStr">
         <is>
-          <t>vs.</t>
+          <t>motivated</t>
         </is>
       </c>
       <c r="SZ1" s="1" t="inlineStr">
         <is>
-          <t>equitable</t>
+          <t>particularly</t>
         </is>
       </c>
       <c r="TA1" s="1" t="inlineStr">
         <is>
-          <t>ensure</t>
+          <t>resulted</t>
         </is>
       </c>
       <c r="TB1" s="1" t="inlineStr">
         <is>
-          <t>above-level</t>
+          <t>private/parochial</t>
         </is>
       </c>
       <c r="TC1" s="1" t="inlineStr">
         <is>
-          <t>enrollment</t>
+          <t>public</t>
         </is>
       </c>
       <c r="TD1" s="1" t="inlineStr">
         <is>
-          <t>components</t>
+          <t>pull-out</t>
         </is>
       </c>
       <c r="TE1" s="1" t="inlineStr">
         <is>
-          <t>underserved</t>
+          <t>receive</t>
         </is>
       </c>
       <c r="TF1" s="1" t="inlineStr">
         <is>
-          <t>arkansas</t>
+          <t>researchers</t>
         </is>
       </c>
       <c r="TG1" s="1" t="inlineStr">
         <is>
-          <t>third</t>
+          <t>scoring</t>
         </is>
       </c>
       <c r="TH1" s="1" t="inlineStr">
         <is>
-          <t>advisable</t>
+          <t>separate</t>
         </is>
       </c>
       <c r="TI1" s="1" t="inlineStr">
         <is>
-          <t>surprising</t>
+          <t>targeted</t>
         </is>
       </c>
       <c r="TJ1" s="1" t="inlineStr">
         <is>
-          <t>amount</t>
+          <t>matter</t>
         </is>
       </c>
       <c r="TK1" s="1" t="inlineStr">
         <is>
-          <t>variance</t>
+          <t>mathematics</t>
         </is>
       </c>
       <c r="TL1" s="1" t="inlineStr">
         <is>
-          <t>stated</t>
+          <t>lack</t>
         </is>
       </c>
       <c r="TM1" s="1" t="inlineStr">
         <is>
-          <t>explain</t>
+          <t>know</t>
         </is>
       </c>
       <c r="TN1" s="1" t="inlineStr">
         <is>
-          <t>targeted</t>
+          <t>analyses</t>
         </is>
       </c>
       <c r="TO1" s="1" t="inlineStr">
         <is>
-          <t>agree</t>
+          <t>exploration</t>
         </is>
       </c>
       <c r="TP1" s="1" t="inlineStr">
         <is>
-          <t>exploration</t>
+          <t>combine</t>
         </is>
       </c>
       <c r="TQ1" s="1" t="inlineStr">
         <is>
-          <t>lack</t>
+          <t>focuses</t>
         </is>
       </c>
       <c r="TR1" s="1" t="inlineStr">
         <is>
-          <t>mathematics</t>
+          <t>g-pam</t>
         </is>
       </c>
       <c r="TS1" s="1" t="inlineStr">
         <is>
-          <t>matter</t>
+          <t>controversy</t>
         </is>
       </c>
       <c r="TT1" s="1" t="inlineStr">
         <is>
-          <t>members</t>
+          <t>presents</t>
         </is>
       </c>
       <c r="TU1" s="1" t="inlineStr">
         <is>
-          <t>middle</t>
+          <t>involved</t>
         </is>
       </c>
       <c r="TV1" s="1" t="inlineStr">
         <is>
-          <t>modification</t>
+          <t>curricular</t>
         </is>
       </c>
       <c r="TW1" s="1" t="inlineStr">
         <is>
-          <t>motivated</t>
+          <t>explained</t>
         </is>
       </c>
       <c r="TX1" s="1" t="inlineStr">
         <is>
-          <t>particularly</t>
+          <t>extent</t>
         </is>
       </c>
       <c r="TY1" s="1" t="inlineStr">
         <is>
-          <t>private/parochial</t>
+          <t>given</t>
         </is>
       </c>
       <c r="TZ1" s="1" t="inlineStr">
         <is>
-          <t>public</t>
+          <t>promote</t>
         </is>
       </c>
       <c r="UA1" s="1" t="inlineStr">
         <is>
-          <t>pull-out</t>
+          <t>grouping</t>
         </is>
       </c>
       <c r="UB1" s="1" t="inlineStr">
         <is>
-          <t>researchers</t>
+          <t>issue</t>
         </is>
       </c>
       <c r="UC1" s="1" t="inlineStr">
         <is>
-          <t>scoring</t>
+          <t>family</t>
         </is>
       </c>
       <c r="UD1" s="1" t="inlineStr">
         <is>
-          <t>separate</t>
+          <t>inside</t>
         </is>
       </c>
       <c r="UE1" s="1" t="inlineStr">
         <is>
-          <t>sixth</t>
+          <t>arguably</t>
         </is>
       </c>
       <c r="UF1" s="1" t="inlineStr">
         <is>
-          <t>involved</t>
+          <t>satisfaction</t>
         </is>
       </c>
       <c r="UG1" s="1" t="inlineStr">
         <is>
-          <t>here</t>
+          <t>received</t>
         </is>
       </c>
       <c r="UH1" s="1" t="inlineStr">
         <is>
-          <t>grouping</t>
+          <t>picture</t>
         </is>
       </c>
       <c r="UI1" s="1" t="inlineStr">
         <is>
-          <t>combine</t>
+          <t>long-term</t>
         </is>
       </c>
       <c r="UJ1" s="1" t="inlineStr">
         <is>
-          <t>analyses</t>
+          <t>juncture</t>
         </is>
       </c>
       <c r="UK1" s="1" t="inlineStr">
         <is>
-          <t>are</t>
+          <t>inaugural</t>
         </is>
       </c>
       <c r="UL1" s="1" t="inlineStr">
         <is>
-          <t>focuses</t>
+          <t>inadequate</t>
         </is>
       </c>
       <c r="UM1" s="1" t="inlineStr">
         <is>
-          <t>g-pam</t>
+          <t>in-depth</t>
         </is>
       </c>
       <c r="UN1" s="1" t="inlineStr">
         <is>
-          <t>know</t>
+          <t>impressions</t>
         </is>
       </c>
       <c r="UO1" s="1" t="inlineStr">
         <is>
-          <t>presents</t>
+          <t>engineering</t>
         </is>
       </c>
       <c r="UP1" s="1" t="inlineStr">
         <is>
-          <t>promote</t>
+          <t>critical</t>
         </is>
       </c>
       <c r="UQ1" s="1" t="inlineStr">
         <is>
-          <t>given</t>
+          <t>challenged</t>
         </is>
       </c>
       <c r="UR1" s="1" t="inlineStr">
         <is>
-          <t>controversy</t>
+          <t>behavioral</t>
         </is>
       </c>
       <c r="US1" s="1" t="inlineStr">
         <is>
-          <t>curricular</t>
+          <t>arts</t>
         </is>
       </c>
       <c r="UT1" s="1" t="inlineStr">
         <is>
-          <t>representation</t>
+          <t>aim</t>
         </is>
       </c>
       <c r="UU1" s="1" t="inlineStr">
         <is>
-          <t>resulted</t>
+          <t>served</t>
         </is>
       </c>
       <c r="UV1" s="1" t="inlineStr">
         <is>
-          <t>explained</t>
+          <t>adjust</t>
         </is>
       </c>
       <c r="UW1" s="1" t="inlineStr">
         <is>
-          <t>extent</t>
+          <t>academy</t>
         </is>
       </c>
       <c r="UX1" s="1" t="inlineStr">
         <is>
-          <t>receive</t>
+          <t>focal</t>
         </is>
       </c>
       <c r="UY1" s="1" t="inlineStr">
         <is>
-          <t>inaugural</t>
+          <t>glass</t>
         </is>
       </c>
       <c r="UZ1" s="1" t="inlineStr">
         <is>
-          <t>focal</t>
+          <t>journal</t>
         </is>
       </c>
       <c r="VA1" s="1" t="inlineStr">
         <is>
+          <t>labelled</t>
+        </is>
+      </c>
+      <c r="VB1" s="1" t="inlineStr">
+        <is>
+          <t>looking</t>
+        </is>
+      </c>
+      <c r="VC1" s="1" t="inlineStr">
+        <is>
+          <t>mother</t>
+        </is>
+      </c>
+      <c r="VD1" s="1" t="inlineStr">
+        <is>
+          <t>multigrade</t>
+        </is>
+      </c>
+      <c r="VE1" s="1" t="inlineStr">
+        <is>
+          <t>open-ended</t>
+        </is>
+      </c>
+      <c r="VF1" s="1" t="inlineStr">
+        <is>
+          <t>researcher</t>
+        </is>
+      </c>
+      <c r="VG1" s="1" t="inlineStr">
+        <is>
+          <t>turning</t>
+        </is>
+      </c>
+      <c r="VH1" s="1" t="inlineStr">
+        <is>
+          <t>discussed</t>
+        </is>
+      </c>
+      <c r="VI1" s="1" t="inlineStr">
+        <is>
+          <t>assess</t>
+        </is>
+      </c>
+      <c r="VJ1" s="1" t="inlineStr">
+        <is>
+          <t>sciences</t>
+        </is>
+      </c>
+      <c r="VK1" s="1" t="inlineStr">
+        <is>
           <t>iowa</t>
         </is>
       </c>
-      <c r="VB1" s="1" t="inlineStr">
-        <is>
-          <t>critical</t>
-        </is>
-      </c>
-      <c r="VC1" s="1" t="inlineStr">
-        <is>
-          <t>engineering</t>
-        </is>
-      </c>
-      <c r="VD1" s="1" t="inlineStr">
-        <is>
-          <t>family</t>
-        </is>
-      </c>
-      <c r="VE1" s="1" t="inlineStr">
-        <is>
-          <t>impressions</t>
-        </is>
-      </c>
-      <c r="VF1" s="1" t="inlineStr">
-        <is>
-          <t>in-depth</t>
-        </is>
-      </c>
-      <c r="VG1" s="1" t="inlineStr">
-        <is>
-          <t>inadequate</t>
-        </is>
-      </c>
-      <c r="VH1" s="1" t="inlineStr">
-        <is>
-          <t>issue</t>
-        </is>
-      </c>
-      <c r="VI1" s="1" t="inlineStr">
+      <c r="VL1" s="1" t="inlineStr">
         <is>
           <t>established</t>
         </is>
       </c>
-      <c r="VJ1" s="1" t="inlineStr">
-        <is>
-          <t>juncture</t>
-        </is>
-      </c>
-      <c r="VK1" s="1" t="inlineStr">
-        <is>
-          <t>long-term</t>
-        </is>
-      </c>
-      <c r="VL1" s="1" t="inlineStr">
-        <is>
-          <t>picture</t>
-        </is>
-      </c>
       <c r="VM1" s="1" t="inlineStr">
         <is>
-          <t>received</t>
+          <t>centered</t>
         </is>
       </c>
       <c r="VN1" s="1" t="inlineStr">
         <is>
-          <t>satisfaction</t>
+          <t>environment</t>
         </is>
       </c>
       <c r="VO1" s="1" t="inlineStr">
         <is>
-          <t>sciences</t>
+          <t>3-year</t>
         </is>
       </c>
       <c r="VP1" s="1" t="inlineStr">
         <is>
-          <t>challenged</t>
+          <t>4th</t>
         </is>
       </c>
       <c r="VQ1" s="1" t="inlineStr">
         <is>
-          <t>behavioral</t>
+          <t>5th</t>
         </is>
       </c>
       <c r="VR1" s="1" t="inlineStr">
         <is>
-          <t>arts</t>
+          <t>additionally</t>
         </is>
       </c>
       <c r="VS1" s="1" t="inlineStr">
         <is>
-          <t>arguably</t>
+          <t>artifacts</t>
         </is>
       </c>
       <c r="VT1" s="1" t="inlineStr">
         <is>
-          <t>aim</t>
+          <t>unique</t>
         </is>
       </c>
       <c r="VU1" s="1" t="inlineStr">
         <is>
-          <t>adjust</t>
+          <t>3rd</t>
         </is>
       </c>
       <c r="VV1" s="1" t="inlineStr">
         <is>
-          <t>academy</t>
+          <t>collection</t>
         </is>
       </c>
       <c r="VW1" s="1" t="inlineStr">
         <is>
-          <t>glass</t>
+          <t>terms</t>
         </is>
       </c>
       <c r="VX1" s="1" t="inlineStr">
         <is>
-          <t>inside</t>
+          <t>discovered</t>
         </is>
       </c>
       <c r="VY1" s="1" t="inlineStr">
         <is>
-          <t>journal</t>
+          <t>collaborated</t>
         </is>
       </c>
       <c r="VZ1" s="1" t="inlineStr">
         <is>
-          <t>labelled</t>
+          <t>social</t>
         </is>
       </c>
       <c r="WA1" s="1" t="inlineStr">
         <is>
-          <t>looking</t>
+          <t>socioeconomic</t>
         </is>
       </c>
       <c r="WB1" s="1" t="inlineStr">
         <is>
-          <t>mother</t>
+          <t>potential</t>
         </is>
       </c>
       <c r="WC1" s="1" t="inlineStr">
         <is>
-          <t>multigrade</t>
+          <t>possibility</t>
         </is>
       </c>
       <c r="WD1" s="1" t="inlineStr">
         <is>
-          <t>open-ended</t>
+          <t>identification</t>
         </is>
       </c>
       <c r="WE1" s="1" t="inlineStr">
         <is>
-          <t>researcher</t>
+          <t>longer</t>
         </is>
       </c>
       <c r="WF1" s="1" t="inlineStr">
         <is>
-          <t>turning</t>
+          <t>would</t>
         </is>
       </c>
       <c r="WG1" s="1" t="inlineStr">
         <is>
-          <t>discussed</t>
+          <t>grouped</t>
         </is>
       </c>
       <c r="WH1" s="1" t="inlineStr">
         <is>
-          <t>served</t>
+          <t>relational</t>
         </is>
       </c>
       <c r="WI1" s="1" t="inlineStr">
         <is>
-          <t>environment</t>
+          <t>frequent</t>
         </is>
       </c>
       <c r="WJ1" s="1" t="inlineStr">
         <is>
-          <t>additionally</t>
+          <t>translating</t>
         </is>
       </c>
       <c r="WK1" s="1" t="inlineStr">
         <is>
-          <t>social</t>
+          <t>presented</t>
         </is>
       </c>
       <c r="WL1" s="1" t="inlineStr">
         <is>
-          <t>assess</t>
+          <t>experts</t>
         </is>
       </c>
       <c r="WM1" s="1" t="inlineStr">
         <is>
-          <t>3-year</t>
+          <t>strategy</t>
         </is>
       </c>
       <c r="WN1" s="1" t="inlineStr">
         <is>
-          <t>while</t>
+          <t>developments</t>
         </is>
       </c>
       <c r="WO1" s="1" t="inlineStr">
         <is>
-          <t>4th</t>
+          <t>possibilities</t>
         </is>
       </c>
       <c r="WP1" s="1" t="inlineStr">
         <is>
-          <t>unique</t>
+          <t>responses</t>
         </is>
       </c>
       <c r="WQ1" s="1" t="inlineStr">
         <is>
-          <t>5th</t>
+          <t>plight</t>
         </is>
       </c>
       <c r="WR1" s="1" t="inlineStr">
         <is>
-          <t>3rd</t>
+          <t>sorted</t>
         </is>
       </c>
       <c r="WS1" s="1" t="inlineStr">
         <is>
-          <t>through</t>
+          <t>small</t>
         </is>
       </c>
       <c r="WT1" s="1" t="inlineStr">
         <is>
-          <t>centered</t>
+          <t>realistic</t>
         </is>
       </c>
       <c r="WU1" s="1" t="inlineStr">
         <is>
-          <t>collaborated</t>
+          <t>measure</t>
         </is>
       </c>
       <c r="WV1" s="1" t="inlineStr">
         <is>
-          <t>collection</t>
+          <t>say</t>
         </is>
       </c>
       <c r="WW1" s="1" t="inlineStr">
         <is>
-          <t>terms</t>
+          <t>personally</t>
         </is>
       </c>
       <c r="WX1" s="1" t="inlineStr">
         <is>
-          <t>artifacts</t>
+          <t>overt</t>
         </is>
       </c>
       <c r="WY1" s="1" t="inlineStr">
         <is>
-          <t>discovered</t>
+          <t>procedures</t>
         </is>
       </c>
       <c r="WZ1" s="1" t="inlineStr">
         <is>
-          <t>personally</t>
+          <t>pressing</t>
         </is>
       </c>
       <c r="XA1" s="1" t="inlineStr">
         <is>
+          <t>part-time</t>
+        </is>
+      </c>
+      <c r="XB1" s="1" t="inlineStr">
+        <is>
+          <t>permitted</t>
+        </is>
+      </c>
+      <c r="XC1" s="1" t="inlineStr">
+        <is>
+          <t>number</t>
+        </is>
+      </c>
+      <c r="XD1" s="1" t="inlineStr">
+        <is>
+          <t>descriptive</t>
+        </is>
+      </c>
+      <c r="XE1" s="1" t="inlineStr">
+        <is>
+          <t>vulnerable</t>
+        </is>
+      </c>
+      <c r="XF1" s="1" t="inlineStr">
+        <is>
+          <t>illustrate</t>
+        </is>
+      </c>
+      <c r="XG1" s="1" t="inlineStr">
+        <is>
+          <t>definitional</t>
+        </is>
+      </c>
+      <c r="XH1" s="1" t="inlineStr">
+        <is>
+          <t>sense</t>
+        </is>
+      </c>
+      <c r="XI1" s="1" t="inlineStr">
+        <is>
+          <t>reformulated</t>
+        </is>
+      </c>
+      <c r="XJ1" s="1" t="inlineStr">
+        <is>
+          <t>adumbrates</t>
+        </is>
+      </c>
+      <c r="XK1" s="1" t="inlineStr">
+        <is>
+          <t>rarely</t>
+        </is>
+      </c>
+      <c r="XL1" s="1" t="inlineStr">
+        <is>
+          <t>64</t>
+        </is>
+      </c>
+      <c r="XM1" s="1" t="inlineStr">
+        <is>
+          <t>according</t>
+        </is>
+      </c>
+      <c r="XN1" s="1" t="inlineStr">
+        <is>
+          <t>analytic</t>
+        </is>
+      </c>
+      <c r="XO1" s="1" t="inlineStr">
+        <is>
+          <t>advantages</t>
+        </is>
+      </c>
+      <c r="XP1" s="1" t="inlineStr">
+        <is>
+          <t>answered</t>
+        </is>
+      </c>
+      <c r="XQ1" s="1" t="inlineStr">
+        <is>
+          <t>relegates</t>
+        </is>
+      </c>
+      <c r="XR1" s="1" t="inlineStr">
+        <is>
+          <t>authorities</t>
+        </is>
+      </c>
+      <c r="XS1" s="1" t="inlineStr">
+        <is>
+          <t>require</t>
+        </is>
+      </c>
+      <c r="XT1" s="1" t="inlineStr">
+        <is>
+          <t>satisfying</t>
+        </is>
+      </c>
+      <c r="XU1" s="1" t="inlineStr">
+        <is>
+          <t>self</t>
+        </is>
+      </c>
+      <c r="XV1" s="1" t="inlineStr">
+        <is>
+          <t>productive</t>
+        </is>
+      </c>
+      <c r="XW1" s="1" t="inlineStr">
+        <is>
+          <t>define</t>
+        </is>
+      </c>
+      <c r="XX1" s="1" t="inlineStr">
+        <is>
+          <t>coded</t>
+        </is>
+      </c>
+      <c r="XY1" s="1" t="inlineStr">
+        <is>
+          <t>philosophy</t>
+        </is>
+      </c>
+      <c r="XZ1" s="1" t="inlineStr">
+        <is>
+          <t>conceptualize</t>
+        </is>
+      </c>
+      <c r="YA1" s="1" t="inlineStr">
+        <is>
+          <t>consensus</t>
+        </is>
+      </c>
+      <c r="YB1" s="1" t="inlineStr">
+        <is>
+          <t>specialized</t>
+        </is>
+      </c>
+      <c r="YC1" s="1" t="inlineStr">
+        <is>
+          <t>tprograms</t>
+        </is>
+      </c>
+      <c r="YD1" s="1" t="inlineStr">
+        <is>
+          <t>curricula</t>
+        </is>
+      </c>
+      <c r="YE1" s="1" t="inlineStr">
+        <is>
+          <t>various</t>
+        </is>
+      </c>
+      <c r="YF1" s="1" t="inlineStr">
+        <is>
+          <t>under-privileged</t>
+        </is>
+      </c>
+      <c r="YG1" s="1" t="inlineStr">
+        <is>
+          <t>trajectories</t>
+        </is>
+      </c>
+      <c r="YH1" s="1" t="inlineStr">
+        <is>
+          <t>towards</t>
+        </is>
+      </c>
+      <c r="YI1" s="1" t="inlineStr">
+        <is>
+          <t>synthesizing</t>
+        </is>
+      </c>
+      <c r="YJ1" s="1" t="inlineStr">
+        <is>
+          <t>sociology</t>
+        </is>
+      </c>
+      <c r="YK1" s="1" t="inlineStr">
+        <is>
+          <t>unanswered</t>
+        </is>
+      </c>
+      <c r="YL1" s="1" t="inlineStr">
+        <is>
+          <t>regular</t>
+        </is>
+      </c>
+      <c r="YM1" s="1" t="inlineStr">
+        <is>
+          <t>under-representation</t>
+        </is>
+      </c>
+      <c r="YN1" s="1" t="inlineStr">
+        <is>
+          <t>made</t>
+        </is>
+      </c>
+      <c r="YO1" s="1" t="inlineStr">
+        <is>
+          <t>differentiated</t>
+        </is>
+      </c>
+      <c r="YP1" s="1" t="inlineStr">
+        <is>
+          <t>era</t>
+        </is>
+      </c>
+      <c r="YQ1" s="1" t="inlineStr">
+        <is>
+          <t>elements</t>
+        </is>
+      </c>
+      <c r="YR1" s="1" t="inlineStr">
+        <is>
+          <t>inclusionism</t>
+        </is>
+      </c>
+      <c r="YS1" s="1" t="inlineStr">
+        <is>
+          <t>hypothetical</t>
+        </is>
+      </c>
+      <c r="YT1" s="1" t="inlineStr">
+        <is>
+          <t>hindrances</t>
+        </is>
+      </c>
+      <c r="YU1" s="1" t="inlineStr">
+        <is>
+          <t>hinders</t>
+        </is>
+      </c>
+      <c r="YV1" s="1" t="inlineStr">
+        <is>
+          <t>formation</t>
+        </is>
+      </c>
+      <c r="YW1" s="1" t="inlineStr">
+        <is>
+          <t>egotistic</t>
+        </is>
+      </c>
+      <c r="YX1" s="1" t="inlineStr">
+        <is>
+          <t>discovery</t>
+        </is>
+      </c>
+      <c r="YY1" s="1" t="inlineStr">
+        <is>
+          <t>disciplines</t>
+        </is>
+      </c>
+      <c r="YZ1" s="1" t="inlineStr">
+        <is>
+          <t>constructs</t>
+        </is>
+      </c>
+      <c r="ZA1" s="1" t="inlineStr">
+        <is>
+          <t>concern</t>
+        </is>
+      </c>
+      <c r="ZB1" s="1" t="inlineStr">
+        <is>
+          <t>capacity</t>
+        </is>
+      </c>
+      <c r="ZC1" s="1" t="inlineStr">
+        <is>
+          <t>awareness</t>
+        </is>
+      </c>
+      <c r="ZD1" s="1" t="inlineStr">
+        <is>
+          <t>appraisals</t>
+        </is>
+      </c>
+      <c r="ZE1" s="1" t="inlineStr">
+        <is>
+          <t>altruism</t>
+        </is>
+      </c>
+      <c r="ZF1" s="1" t="inlineStr">
+        <is>
+          <t>closely</t>
+        </is>
+      </c>
+      <c r="ZG1" s="1" t="inlineStr">
+        <is>
+          <t>educate</t>
+        </is>
+      </c>
+      <c r="ZH1" s="1" t="inlineStr">
+        <is>
+          <t>acquire</t>
+        </is>
+      </c>
+      <c r="ZI1" s="1" t="inlineStr">
+        <is>
+          <t>choices</t>
+        </is>
+      </c>
+      <c r="ZJ1" s="1" t="inlineStr">
+        <is>
+          <t>individualism</t>
+        </is>
+      </c>
+      <c r="ZK1" s="1" t="inlineStr">
+        <is>
+          <t>influences</t>
+        </is>
+      </c>
+      <c r="ZL1" s="1" t="inlineStr">
+        <is>
+          <t>higher</t>
+        </is>
+      </c>
+      <c r="ZM1" s="1" t="inlineStr">
+        <is>
+          <t>outside</t>
+        </is>
+      </c>
+      <c r="ZN1" s="1" t="inlineStr">
+        <is>
+          <t>guidance</t>
+        </is>
+      </c>
+      <c r="ZO1" s="1" t="inlineStr">
+        <is>
           <t>long-range</t>
         </is>
       </c>
-      <c r="XB1" s="1" t="inlineStr">
+      <c r="ZP1" s="1" t="inlineStr">
         <is>
           <t>life</t>
         </is>
       </c>
-      <c r="XC1" s="1" t="inlineStr">
+      <c r="ZQ1" s="1" t="inlineStr">
         <is>
           <t>interdisciplinary</t>
         </is>
       </c>
-      <c r="XD1" s="1" t="inlineStr">
+      <c r="ZR1" s="1" t="inlineStr">
+        <is>
+          <t>growing</t>
+        </is>
+      </c>
+      <c r="ZS1" s="1" t="inlineStr">
+        <is>
+          <t>allow</t>
+        </is>
+      </c>
+      <c r="ZT1" s="1" t="inlineStr">
+        <is>
+          <t>another</t>
+        </is>
+      </c>
+      <c r="ZU1" s="1" t="inlineStr">
+        <is>
+          <t>argues</t>
+        </is>
+      </c>
+      <c r="ZV1" s="1" t="inlineStr">
         <is>
           <t>avoid</t>
         </is>
       </c>
-      <c r="XE1" s="1" t="inlineStr">
-        <is>
-          <t>part-time</t>
-        </is>
-      </c>
-      <c r="XF1" s="1" t="inlineStr">
+      <c r="ZW1" s="1" t="inlineStr">
+        <is>
+          <t>full-time</t>
+        </is>
+      </c>
+      <c r="ZX1" s="1" t="inlineStr">
         <is>
           <t>beyond</t>
         </is>
       </c>
-      <c r="XG1" s="1" t="inlineStr">
-        <is>
-          <t>reformulated</t>
-        </is>
-      </c>
-      <c r="XH1" s="1" t="inlineStr">
-        <is>
-          <t>possibilities</t>
-        </is>
-      </c>
-      <c r="XI1" s="1" t="inlineStr">
-        <is>
-          <t>outside</t>
-        </is>
-      </c>
-      <c r="XJ1" s="1" t="inlineStr">
-        <is>
-          <t>choices</t>
-        </is>
-      </c>
-      <c r="XK1" s="1" t="inlineStr">
-        <is>
-          <t>possibility</t>
-        </is>
-      </c>
-      <c r="XL1" s="1" t="inlineStr">
-        <is>
-          <t>philosophy</t>
-        </is>
-      </c>
-      <c r="XM1" s="1" t="inlineStr">
-        <is>
-          <t>potential</t>
-        </is>
-      </c>
-      <c r="XN1" s="1" t="inlineStr">
-        <is>
-          <t>presented</t>
-        </is>
-      </c>
-      <c r="XO1" s="1" t="inlineStr">
-        <is>
-          <t>plight</t>
-        </is>
-      </c>
-      <c r="XP1" s="1" t="inlineStr">
-        <is>
-          <t>productive</t>
-        </is>
-      </c>
-      <c r="XQ1" s="1" t="inlineStr">
+      <c r="ZY1" s="1" t="inlineStr">
         <is>
           <t>classrooms</t>
         </is>
       </c>
-      <c r="XR1" s="1" t="inlineStr">
+      <c r="ZZ1" s="1" t="inlineStr">
+        <is>
+          <t>inform</t>
+        </is>
+      </c>
+      <c r="AAA1" s="1" t="inlineStr">
+        <is>
+          <t>expertise</t>
+        </is>
+      </c>
+      <c r="AAB1" s="1" t="inlineStr">
+        <is>
+          <t>establish</t>
+        </is>
+      </c>
+      <c r="AAC1" s="1" t="inlineStr">
         <is>
           <t>career</t>
         </is>
       </c>
-      <c r="XS1" s="1" t="inlineStr">
-        <is>
-          <t>rarely</t>
-        </is>
-      </c>
-      <c r="XT1" s="1" t="inlineStr">
-        <is>
-          <t>argues</t>
-        </is>
-      </c>
-      <c r="XU1" s="1" t="inlineStr">
-        <is>
-          <t>realistic</t>
-        </is>
-      </c>
-      <c r="XV1" s="1" t="inlineStr">
-        <is>
-          <t>another</t>
-        </is>
-      </c>
-      <c r="XW1" s="1" t="inlineStr">
-        <is>
-          <t>allow</t>
-        </is>
-      </c>
-      <c r="XX1" s="1" t="inlineStr">
-        <is>
-          <t>specialized</t>
-        </is>
-      </c>
-      <c r="XY1" s="1" t="inlineStr">
-        <is>
-          <t>tprograms</t>
-        </is>
-      </c>
-      <c r="XZ1" s="1" t="inlineStr">
-        <is>
-          <t>vulnerable</t>
-        </is>
-      </c>
-      <c r="YA1" s="1" t="inlineStr">
-        <is>
-          <t>self</t>
-        </is>
-      </c>
-      <c r="YB1" s="1" t="inlineStr">
-        <is>
-          <t>would</t>
-        </is>
-      </c>
-      <c r="YC1" s="1" t="inlineStr">
-        <is>
-          <t>various</t>
-        </is>
-      </c>
-      <c r="YD1" s="1" t="inlineStr">
-        <is>
-          <t>under-privileged</t>
-        </is>
-      </c>
-      <c r="YE1" s="1" t="inlineStr">
-        <is>
-          <t>trajectories</t>
-        </is>
-      </c>
-      <c r="YF1" s="1" t="inlineStr">
-        <is>
-          <t>towards</t>
-        </is>
-      </c>
-      <c r="YG1" s="1" t="inlineStr">
-        <is>
-          <t>synthesizing</t>
-        </is>
-      </c>
-      <c r="YH1" s="1" t="inlineStr">
-        <is>
-          <t>sociology</t>
-        </is>
-      </c>
-      <c r="YI1" s="1" t="inlineStr">
-        <is>
-          <t>satisfying</t>
-        </is>
-      </c>
-      <c r="YJ1" s="1" t="inlineStr">
-        <is>
-          <t>acquire</t>
-        </is>
-      </c>
-      <c r="YK1" s="1" t="inlineStr">
-        <is>
-          <t>adumbrates</t>
-        </is>
-      </c>
-      <c r="YL1" s="1" t="inlineStr">
-        <is>
-          <t>require</t>
-        </is>
-      </c>
-      <c r="YM1" s="1" t="inlineStr">
-        <is>
-          <t>socioeconomic</t>
-        </is>
-      </c>
-      <c r="YN1" s="1" t="inlineStr">
-        <is>
-          <t>advantages</t>
-        </is>
-      </c>
-      <c r="YO1" s="1" t="inlineStr">
-        <is>
-          <t>overt</t>
-        </is>
-      </c>
-      <c r="YP1" s="1" t="inlineStr">
-        <is>
-          <t>relegates</t>
-        </is>
-      </c>
-      <c r="YQ1" s="1" t="inlineStr">
-        <is>
-          <t>relational</t>
-        </is>
-      </c>
-      <c r="YR1" s="1" t="inlineStr">
-        <is>
-          <t>regular</t>
-        </is>
-      </c>
-      <c r="YS1" s="1" t="inlineStr">
-        <is>
-          <t>closely</t>
-        </is>
-      </c>
-      <c r="YT1" s="1" t="inlineStr">
-        <is>
-          <t>guidance</t>
-        </is>
-      </c>
-      <c r="YU1" s="1" t="inlineStr">
-        <is>
-          <t>formation</t>
-        </is>
-      </c>
-      <c r="YV1" s="1" t="inlineStr">
-        <is>
-          <t>growing</t>
-        </is>
-      </c>
-      <c r="YW1" s="1" t="inlineStr">
-        <is>
-          <t>hindrances</t>
-        </is>
-      </c>
-      <c r="YX1" s="1" t="inlineStr">
-        <is>
-          <t>hinders</t>
-        </is>
-      </c>
-      <c r="YY1" s="1" t="inlineStr">
-        <is>
-          <t>egotistic</t>
-        </is>
-      </c>
-      <c r="YZ1" s="1" t="inlineStr">
-        <is>
-          <t>discovery</t>
-        </is>
-      </c>
-      <c r="ZA1" s="1" t="inlineStr">
-        <is>
-          <t>disciplines</t>
-        </is>
-      </c>
-      <c r="ZB1" s="1" t="inlineStr">
-        <is>
-          <t>constructs</t>
-        </is>
-      </c>
-      <c r="ZC1" s="1" t="inlineStr">
-        <is>
-          <t>concern</t>
-        </is>
-      </c>
-      <c r="ZD1" s="1" t="inlineStr">
-        <is>
-          <t>capacity</t>
-        </is>
-      </c>
-      <c r="ZE1" s="1" t="inlineStr">
-        <is>
-          <t>awareness</t>
-        </is>
-      </c>
-      <c r="ZF1" s="1" t="inlineStr">
-        <is>
-          <t>appraisals</t>
-        </is>
-      </c>
-      <c r="ZG1" s="1" t="inlineStr">
-        <is>
-          <t>altruism</t>
-        </is>
-      </c>
-      <c r="ZH1" s="1" t="inlineStr">
+      <c r="AAD1" s="1" t="inlineStr">
         <is>
           <t>discontinuation</t>
         </is>
       </c>
-      <c r="ZI1" s="1" t="inlineStr">
-        <is>
-          <t>full-time</t>
-        </is>
-      </c>
-      <c r="ZJ1" s="1" t="inlineStr">
-        <is>
-          <t>educate</t>
-        </is>
-      </c>
-      <c r="ZK1" s="1" t="inlineStr">
-        <is>
-          <t>for</t>
-        </is>
-      </c>
-      <c r="ZL1" s="1" t="inlineStr">
-        <is>
-          <t>expertise</t>
-        </is>
-      </c>
-      <c r="ZM1" s="1" t="inlineStr">
-        <is>
-          <t>elements</t>
-        </is>
-      </c>
-      <c r="ZN1" s="1" t="inlineStr">
-        <is>
-          <t>era</t>
-        </is>
-      </c>
-      <c r="ZO1" s="1" t="inlineStr">
-        <is>
-          <t>establish</t>
-        </is>
-      </c>
-      <c r="ZP1" s="1" t="inlineStr">
-        <is>
-          <t>hypothetical</t>
-        </is>
-      </c>
-      <c r="ZQ1" s="1" t="inlineStr">
-        <is>
-          <t>sense</t>
-        </is>
-      </c>
-      <c r="ZR1" s="1" t="inlineStr">
-        <is>
-          <t>inclusionism</t>
-        </is>
-      </c>
-      <c r="ZS1" s="1" t="inlineStr">
-        <is>
-          <t>differentiated</t>
-        </is>
-      </c>
-      <c r="ZT1" s="1" t="inlineStr">
-        <is>
-          <t>inform</t>
-        </is>
-      </c>
-      <c r="ZU1" s="1" t="inlineStr">
-        <is>
-          <t>measure</t>
-        </is>
-      </c>
-      <c r="ZV1" s="1" t="inlineStr">
-        <is>
-          <t>higher</t>
-        </is>
-      </c>
-      <c r="ZW1" s="1" t="inlineStr">
-        <is>
-          <t>influences</t>
-        </is>
-      </c>
-      <c r="ZX1" s="1" t="inlineStr">
-        <is>
-          <t>individualism</t>
-        </is>
-      </c>
-      <c r="ZY1" s="1" t="inlineStr">
-        <is>
-          <t>illustrate</t>
-        </is>
-      </c>
-      <c r="ZZ1" s="1" t="inlineStr">
-        <is>
-          <t>made</t>
-        </is>
-      </c>
-      <c r="AAA1" s="1" t="inlineStr">
-        <is>
-          <t>longer</t>
-        </is>
-      </c>
-      <c r="AAB1" s="1" t="inlineStr">
+      <c r="AAE1" s="1" t="inlineStr">
+        <is>
+          <t>problem-solving</t>
+        </is>
+      </c>
+      <c r="AAF1" s="1" t="inlineStr">
+        <is>
+          <t>second</t>
+        </is>
+      </c>
+      <c r="AAG1" s="1" t="inlineStr">
+        <is>
+          <t>screening</t>
+        </is>
+      </c>
+      <c r="AAH1" s="1" t="inlineStr">
+        <is>
+          <t>ranges</t>
+        </is>
+      </c>
+      <c r="AAI1" s="1" t="inlineStr">
+        <is>
+          <t>secure</t>
+        </is>
+      </c>
+      <c r="AAJ1" s="1" t="inlineStr">
+        <is>
+          <t>sent</t>
+        </is>
+      </c>
+      <c r="AAK1" s="1" t="inlineStr">
+        <is>
+          <t>sixty-one</t>
+        </is>
+      </c>
+      <c r="AAL1" s="1" t="inlineStr">
+        <is>
+          <t>short-term</t>
+        </is>
+      </c>
+      <c r="AAM1" s="1" t="inlineStr">
+        <is>
+          <t>single</t>
+        </is>
+      </c>
+      <c r="AAN1" s="1" t="inlineStr">
+        <is>
+          <t>sites</t>
+        </is>
+      </c>
+      <c r="AAO1" s="1" t="inlineStr">
+        <is>
+          <t>six</t>
+        </is>
+      </c>
+      <c r="AAP1" s="1" t="inlineStr">
+        <is>
+          <t>skills</t>
+        </is>
+      </c>
+      <c r="AAQ1" s="1" t="inlineStr">
+        <is>
+          <t>activities</t>
+        </is>
+      </c>
+      <c r="AAR1" s="1" t="inlineStr">
+        <is>
+          <t>states</t>
+        </is>
+      </c>
+      <c r="AAS1" s="1" t="inlineStr">
+        <is>
+          <t>statewide</t>
+        </is>
+      </c>
+      <c r="AAT1" s="1" t="inlineStr">
+        <is>
+          <t>summarized</t>
+        </is>
+      </c>
+      <c r="AAU1" s="1" t="inlineStr">
+        <is>
+          <t>tools</t>
+        </is>
+      </c>
+      <c r="AAV1" s="1" t="inlineStr">
+        <is>
+          <t>behalf</t>
+        </is>
+      </c>
+      <c r="AAW1" s="1" t="inlineStr">
+        <is>
+          <t>detail</t>
+        </is>
+      </c>
+      <c r="AAX1" s="1" t="inlineStr">
+        <is>
+          <t>typology</t>
+        </is>
+      </c>
+      <c r="AAY1" s="1" t="inlineStr">
+        <is>
+          <t>victory</t>
+        </is>
+      </c>
+      <c r="AAZ1" s="1" t="inlineStr">
+        <is>
+          <t>thanks</t>
+        </is>
+      </c>
+      <c r="ABA1" s="1" t="inlineStr">
+        <is>
+          <t>technical</t>
+        </is>
+      </c>
+      <c r="ABB1" s="1" t="inlineStr">
+        <is>
+          <t>saying</t>
+        </is>
+      </c>
+      <c r="ABC1" s="1" t="inlineStr">
+        <is>
+          <t>revitalization</t>
+        </is>
+      </c>
+      <c r="ABD1" s="1" t="inlineStr">
+        <is>
+          <t>required</t>
+        </is>
+      </c>
+      <c r="ABE1" s="1" t="inlineStr">
+        <is>
+          <t>regulations</t>
+        </is>
+      </c>
+      <c r="ABF1" s="1" t="inlineStr">
+        <is>
+          <t>recorded</t>
+        </is>
+      </c>
+      <c r="ABG1" s="1" t="inlineStr">
+        <is>
+          <t>reaping</t>
+        </is>
+      </c>
+      <c r="ABH1" s="1" t="inlineStr">
+        <is>
+          <t>ready</t>
+        </is>
+      </c>
+      <c r="ABI1" s="1" t="inlineStr">
+        <is>
+          <t>reading</t>
+        </is>
+      </c>
+      <c r="ABJ1" s="1" t="inlineStr">
+        <is>
+          <t>publicizing</t>
+        </is>
+      </c>
+      <c r="ABK1" s="1" t="inlineStr">
+        <is>
+          <t>providing</t>
+        </is>
+      </c>
+      <c r="ABL1" s="1" t="inlineStr">
+        <is>
+          <t>process</t>
+        </is>
+      </c>
+      <c r="ABM1" s="1" t="inlineStr">
+        <is>
+          <t>preparing</t>
+        </is>
+      </c>
+      <c r="ABN1" s="1" t="inlineStr">
+        <is>
+          <t>necessary</t>
+        </is>
+      </c>
+      <c r="ABO1" s="1" t="inlineStr">
+        <is>
+          <t>making</t>
+        </is>
+      </c>
+      <c r="ABP1" s="1" t="inlineStr">
+        <is>
+          <t>maintaining</t>
+        </is>
+      </c>
+      <c r="ABQ1" s="1" t="inlineStr">
+        <is>
+          <t>truly</t>
+        </is>
+      </c>
+      <c r="ABR1" s="1" t="inlineStr">
+        <is>
+          <t>vision</t>
+        </is>
+      </c>
+      <c r="ABS1" s="1" t="inlineStr">
+        <is>
+          <t>less-tangible</t>
+        </is>
+      </c>
+      <c r="ABT1" s="1" t="inlineStr">
+        <is>
+          <t>way</t>
+        </is>
+      </c>
+      <c r="ABU1" s="1" t="inlineStr">
+        <is>
+          <t>gauge</t>
+        </is>
+      </c>
+      <c r="ABV1" s="1" t="inlineStr">
+        <is>
+          <t>illustration</t>
+        </is>
+      </c>
+      <c r="ABW1" s="1" t="inlineStr">
+        <is>
+          <t>incorporated</t>
+        </is>
+      </c>
+      <c r="ABX1" s="1" t="inlineStr">
+        <is>
+          <t>inquiry-based</t>
+        </is>
+      </c>
+      <c r="ABY1" s="1" t="inlineStr">
+        <is>
+          <t>outreach</t>
+        </is>
+      </c>
+      <c r="ABZ1" s="1" t="inlineStr">
+        <is>
+          <t>paralleled</t>
+        </is>
+      </c>
+      <c r="ACA1" s="1" t="inlineStr">
+        <is>
+          <t>participant</t>
+        </is>
+      </c>
+      <c r="ACB1" s="1" t="inlineStr">
+        <is>
+          <t>partnerships</t>
+        </is>
+      </c>
+      <c r="ACC1" s="1" t="inlineStr">
+        <is>
+          <t>perceptions</t>
+        </is>
+      </c>
+      <c r="ACD1" s="1" t="inlineStr">
+        <is>
+          <t>postattitude</t>
+        </is>
+      </c>
+      <c r="ACE1" s="1" t="inlineStr">
+        <is>
+          <t>pre-</t>
+        </is>
+      </c>
+      <c r="ACF1" s="1" t="inlineStr">
+        <is>
+          <t>questionnaires</t>
+        </is>
+      </c>
+      <c r="ACG1" s="1" t="inlineStr">
+        <is>
+          <t>specially</t>
+        </is>
+      </c>
+      <c r="ACH1" s="1" t="inlineStr">
+        <is>
+          <t>draw-a-scientist</t>
+        </is>
+      </c>
+      <c r="ACI1" s="1" t="inlineStr">
+        <is>
+          <t>supported</t>
+        </is>
+      </c>
+      <c r="ACJ1" s="1" t="inlineStr">
+        <is>
+          <t>desire</t>
+        </is>
+      </c>
+      <c r="ACK1" s="1" t="inlineStr">
+        <is>
+          <t>wealth</t>
+        </is>
+      </c>
+      <c r="ACL1" s="1" t="inlineStr">
+        <is>
+          <t>looks</t>
+        </is>
+      </c>
+      <c r="ACM1" s="1" t="inlineStr">
+        <is>
+          <t>legislative</t>
+        </is>
+      </c>
+      <c r="ACN1" s="1" t="inlineStr">
+        <is>
+          <t>serve</t>
+        </is>
+      </c>
+      <c r="ACO1" s="1" t="inlineStr">
+        <is>
+          <t>borrowing</t>
+        </is>
+      </c>
+      <c r="ACP1" s="1" t="inlineStr">
+        <is>
+          <t>art</t>
+        </is>
+      </c>
+      <c r="ACQ1" s="1" t="inlineStr">
+        <is>
+          <t>analogy</t>
+        </is>
+      </c>
+      <c r="ACR1" s="1" t="inlineStr">
+        <is>
+          <t>affiliate</t>
+        </is>
+      </c>
+      <c r="ACS1" s="1" t="inlineStr">
+        <is>
+          <t>accomplishments</t>
+        </is>
+      </c>
+      <c r="ACT1" s="1" t="inlineStr">
+        <is>
+          <t>action</t>
+        </is>
+      </c>
+      <c r="ACU1" s="1" t="inlineStr">
+        <is>
+          <t>america</t>
+        </is>
+      </c>
+      <c r="ACV1" s="1" t="inlineStr">
+        <is>
+          <t>celebration</t>
+        </is>
+      </c>
+      <c r="ACW1" s="1" t="inlineStr">
+        <is>
+          <t>connections</t>
+        </is>
+      </c>
+      <c r="ACX1" s="1" t="inlineStr">
+        <is>
+          <t>empowerment</t>
+        </is>
+      </c>
+      <c r="ACY1" s="1" t="inlineStr">
+        <is>
+          <t>grounded</t>
+        </is>
+      </c>
+      <c r="ACZ1" s="1" t="inlineStr">
+        <is>
+          <t>high-lighted</t>
+        </is>
+      </c>
+      <c r="ADA1" s="1" t="inlineStr">
+        <is>
+          <t>instructional</t>
+        </is>
+      </c>
+      <c r="ADB1" s="1" t="inlineStr">
+        <is>
+          <t>investigates</t>
+        </is>
+      </c>
+      <c r="ADC1" s="1" t="inlineStr">
+        <is>
+          <t>learn</t>
+        </is>
+      </c>
+      <c r="ADD1" s="1" t="inlineStr">
+        <is>
+          <t>levels</t>
+        </is>
+      </c>
+      <c r="ADE1" s="1" t="inlineStr">
+        <is>
+          <t>methodology</t>
+        </is>
+      </c>
+      <c r="ADF1" s="1" t="inlineStr">
         <is>
           <t>referenced</t>
         </is>
       </c>
-      <c r="AAC1" s="1" t="inlineStr">
+      <c r="ADG1" s="1" t="inlineStr">
+        <is>
+          <t>blueprints</t>
+        </is>
+      </c>
+      <c r="ADH1" s="1" t="inlineStr">
+        <is>
+          <t>commitments</t>
+        </is>
+      </c>
+      <c r="ADI1" s="1" t="inlineStr">
+        <is>
+          <t>keeping</t>
+        </is>
+      </c>
+      <c r="ADJ1" s="1" t="inlineStr">
+        <is>
+          <t>compromise</t>
+        </is>
+      </c>
+      <c r="ADK1" s="1" t="inlineStr">
+        <is>
+          <t>ideas</t>
+        </is>
+      </c>
+      <c r="ADL1" s="1" t="inlineStr">
+        <is>
+          <t>goals</t>
+        </is>
+      </c>
+      <c r="ADM1" s="1" t="inlineStr">
+        <is>
+          <t>gives</t>
+        </is>
+      </c>
+      <c r="ADN1" s="1" t="inlineStr">
+        <is>
+          <t>gaining</t>
+        </is>
+      </c>
+      <c r="ADO1" s="1" t="inlineStr">
+        <is>
+          <t>follows</t>
+        </is>
+      </c>
+      <c r="ADP1" s="1" t="inlineStr">
+        <is>
+          <t>entails</t>
+        </is>
+      </c>
+      <c r="ADQ1" s="1" t="inlineStr">
+        <is>
+          <t>encompasses</t>
+        </is>
+      </c>
+      <c r="ADR1" s="1" t="inlineStr">
+        <is>
+          <t>educating</t>
+        </is>
+      </c>
+      <c r="ADS1" s="1" t="inlineStr">
+        <is>
+          <t>educated</t>
+        </is>
+      </c>
+      <c r="ADT1" s="1" t="inlineStr">
+        <is>
+          <t>direction</t>
+        </is>
+      </c>
+      <c r="ADU1" s="1" t="inlineStr">
+        <is>
+          <t>developing</t>
+        </is>
+      </c>
+      <c r="ADV1" s="1" t="inlineStr">
+        <is>
+          <t>practical</t>
+        </is>
+      </c>
+      <c r="ADW1" s="1" t="inlineStr">
+        <is>
+          <t>designing</t>
+        </is>
+      </c>
+      <c r="ADX1" s="1" t="inlineStr">
+        <is>
+          <t>dedication</t>
+        </is>
+      </c>
+      <c r="ADY1" s="1" t="inlineStr">
+        <is>
+          <t>curve</t>
+        </is>
+      </c>
+      <c r="ADZ1" s="1" t="inlineStr">
+        <is>
+          <t>construct</t>
+        </is>
+      </c>
+      <c r="AEA1" s="1" t="inlineStr">
+        <is>
+          <t>concrete</t>
+        </is>
+      </c>
+      <c r="AEB1" s="1" t="inlineStr">
+        <is>
+          <t>practices</t>
+        </is>
+      </c>
+      <c r="AEC1" s="1" t="inlineStr">
+        <is>
+          <t>focused</t>
+        </is>
+      </c>
+      <c r="AED1" s="1" t="inlineStr">
+        <is>
+          <t>political</t>
+        </is>
+      </c>
+      <c r="AEE1" s="1" t="inlineStr">
+        <is>
+          <t>5.6</t>
+        </is>
+      </c>
+      <c r="AEF1" s="1" t="inlineStr">
+        <is>
+          <t>step</t>
+        </is>
+      </c>
+      <c r="AEG1" s="1" t="inlineStr">
+        <is>
+          <t>underachievement</t>
+        </is>
+      </c>
+      <c r="AEH1" s="1" t="inlineStr">
+        <is>
+          <t>underachieving</t>
+        </is>
+      </c>
+      <c r="AEI1" s="1" t="inlineStr">
+        <is>
+          <t>whether</t>
+        </is>
+      </c>
+      <c r="AEJ1" s="1" t="inlineStr">
+        <is>
+          <t>125</t>
+        </is>
+      </c>
+      <c r="AEK1" s="1" t="inlineStr">
+        <is>
+          <t>20,270</t>
+        </is>
+      </c>
+      <c r="AEL1" s="1" t="inlineStr">
+        <is>
+          <t>4.4</t>
+        </is>
+      </c>
+      <c r="AEM1" s="1" t="inlineStr">
+        <is>
+          <t>5.1</t>
+        </is>
+      </c>
+      <c r="AEN1" s="1" t="inlineStr">
+        <is>
+          <t>attribute</t>
+        </is>
+      </c>
+      <c r="AEO1" s="1" t="inlineStr">
+        <is>
+          <t>grades</t>
+        </is>
+      </c>
+      <c r="AEP1" s="1" t="inlineStr">
+        <is>
+          <t>capturing</t>
+        </is>
+      </c>
+      <c r="AEQ1" s="1" t="inlineStr">
+        <is>
+          <t>committees</t>
+        </is>
+      </c>
+      <c r="AER1" s="1" t="inlineStr">
+        <is>
+          <t>comparison</t>
+        </is>
+      </c>
+      <c r="AES1" s="1" t="inlineStr">
+        <is>
+          <t>comprised</t>
+        </is>
+      </c>
+      <c r="AET1" s="1" t="inlineStr">
+        <is>
+          <t>culturally</t>
+        </is>
+      </c>
+      <c r="AEU1" s="1" t="inlineStr">
+        <is>
+          <t>demographic</t>
+        </is>
+      </c>
+      <c r="AEV1" s="1" t="inlineStr">
+        <is>
+          <t>distributions</t>
+        </is>
+      </c>
+      <c r="AEW1" s="1" t="inlineStr">
+        <is>
+          <t>earned</t>
+        </is>
+      </c>
+      <c r="AEX1" s="1" t="inlineStr">
+        <is>
+          <t>self-regulation</t>
+        </is>
+      </c>
+      <c r="AEY1" s="1" t="inlineStr">
+        <is>
+          <t>self-ratings</t>
+        </is>
+      </c>
+      <c r="AEZ1" s="1" t="inlineStr">
+        <is>
+          <t>represents</t>
+        </is>
+      </c>
+      <c r="AFA1" s="1" t="inlineStr">
+        <is>
+          <t>related</t>
+        </is>
+      </c>
+      <c r="AFB1" s="1" t="inlineStr">
+        <is>
+          <t>policies</t>
+        </is>
+      </c>
+      <c r="AFC1" s="1" t="inlineStr">
+        <is>
+          <t>122</t>
+        </is>
+      </c>
+      <c r="AFD1" s="1" t="inlineStr">
+        <is>
+          <t>28</t>
+        </is>
+      </c>
+      <c r="AFE1" s="1" t="inlineStr">
+        <is>
+          <t>56</t>
+        </is>
+      </c>
+      <c r="AFF1" s="1" t="inlineStr">
+        <is>
+          <t>81</t>
+        </is>
+      </c>
+      <c r="AFG1" s="1" t="inlineStr">
+        <is>
+          <t>classified</t>
+        </is>
+      </c>
+      <c r="AFH1" s="1" t="inlineStr">
+        <is>
+          <t>consisted</t>
+        </is>
+      </c>
+      <c r="AFI1" s="1" t="inlineStr">
+        <is>
+          <t>correctly</t>
+        </is>
+      </c>
+      <c r="AFJ1" s="1" t="inlineStr">
+        <is>
+          <t>differ</t>
+        </is>
+      </c>
+      <c r="AFK1" s="1" t="inlineStr">
+        <is>
+          <t>differed</t>
+        </is>
+      </c>
+      <c r="AFL1" s="1" t="inlineStr">
+        <is>
+          <t>differentiate</t>
+        </is>
+      </c>
+      <c r="AFM1" s="1" t="inlineStr">
+        <is>
+          <t>high-achieving</t>
+        </is>
+      </c>
+      <c r="AFN1" s="1" t="inlineStr">
+        <is>
+          <t>logistic</t>
+        </is>
+      </c>
+      <c r="AFO1" s="1" t="inlineStr">
+        <is>
+          <t>motivation</t>
+        </is>
+      </c>
+      <c r="AFP1" s="1" t="inlineStr">
+        <is>
+          <t>nationwide</t>
+        </is>
+      </c>
+      <c r="AFQ1" s="1" t="inlineStr">
+        <is>
+          <t>quantifying</t>
+        </is>
+      </c>
+      <c r="AFR1" s="1" t="inlineStr">
+        <is>
+          <t>regression</t>
+        </is>
+      </c>
+      <c r="AFS1" s="1" t="inlineStr">
+        <is>
+          <t>find</t>
+        </is>
+      </c>
+      <c r="AFT1" s="1" t="inlineStr">
+        <is>
+          <t>addressing</t>
+        </is>
+      </c>
+      <c r="AFU1" s="1" t="inlineStr">
+        <is>
+          <t>identifying</t>
+        </is>
+      </c>
+      <c r="AFV1" s="1" t="inlineStr">
+        <is>
+          <t>explored</t>
+        </is>
+      </c>
+      <c r="AFW1" s="1" t="inlineStr">
+        <is>
+          <t>champion</t>
+        </is>
+      </c>
+      <c r="AFX1" s="1" t="inlineStr">
+        <is>
+          <t>contexts</t>
+        </is>
+      </c>
+      <c r="AFY1" s="1" t="inlineStr">
+        <is>
+          <t>cross-case</t>
+        </is>
+      </c>
+      <c r="AFZ1" s="1" t="inlineStr">
+        <is>
+          <t>defined</t>
+        </is>
+      </c>
+      <c r="AGA1" s="1" t="inlineStr">
+        <is>
+          <t>develop</t>
+        </is>
+      </c>
+      <c r="AGB1" s="1" t="inlineStr">
+        <is>
+          <t>indicate</t>
+        </is>
+      </c>
+      <c r="AGC1" s="1" t="inlineStr">
+        <is>
+          <t>directors</t>
+        </is>
+      </c>
+      <c r="AGD1" s="1" t="inlineStr">
+        <is>
+          <t>examples</t>
+        </is>
+      </c>
+      <c r="AGE1" s="1" t="inlineStr">
+        <is>
+          <t>facilitate</t>
+        </is>
+      </c>
+      <c r="AGF1" s="1" t="inlineStr">
+        <is>
+          <t>acceptance</t>
+        </is>
+      </c>
+      <c r="AGG1" s="1" t="inlineStr">
+        <is>
+          <t>guided</t>
+        </is>
+      </c>
+      <c r="AGH1" s="1" t="inlineStr">
+        <is>
+          <t>influence</t>
+        </is>
+      </c>
+      <c r="AGI1" s="1" t="inlineStr">
         <is>
           <t>knowledgeable</t>
         </is>
       </c>
-      <c r="AAD1" s="1" t="inlineStr">
-        <is>
-          <t>second</t>
-        </is>
-      </c>
-      <c r="AAE1" s="1" t="inlineStr">
-        <is>
-          <t>screening</t>
-        </is>
-      </c>
-      <c r="AAF1" s="1" t="inlineStr">
-        <is>
-          <t>influence</t>
-        </is>
-      </c>
-      <c r="AAG1" s="1" t="inlineStr">
-        <is>
-          <t>high-lighted</t>
-        </is>
-      </c>
-      <c r="AAH1" s="1" t="inlineStr">
-        <is>
-          <t>typology</t>
-        </is>
-      </c>
-      <c r="AAI1" s="1" t="inlineStr">
-        <is>
-          <t>methodology</t>
-        </is>
-      </c>
-      <c r="AAJ1" s="1" t="inlineStr">
-        <is>
-          <t>levels</t>
-        </is>
-      </c>
-      <c r="AAK1" s="1" t="inlineStr">
-        <is>
-          <t>ranges</t>
-        </is>
-      </c>
-      <c r="AAL1" s="1" t="inlineStr">
-        <is>
-          <t>learn</t>
-        </is>
-      </c>
-      <c r="AAM1" s="1" t="inlineStr">
-        <is>
-          <t>investigates</t>
-        </is>
-      </c>
-      <c r="AAN1" s="1" t="inlineStr">
-        <is>
-          <t>instructional</t>
-        </is>
-      </c>
-      <c r="AAO1" s="1" t="inlineStr">
-        <is>
-          <t>guided</t>
-        </is>
-      </c>
-      <c r="AAP1" s="1" t="inlineStr">
-        <is>
-          <t>practical</t>
-        </is>
-      </c>
-      <c r="AAQ1" s="1" t="inlineStr">
-        <is>
-          <t>facilitate</t>
-        </is>
-      </c>
-      <c r="AAR1" s="1" t="inlineStr">
-        <is>
-          <t>serve</t>
-        </is>
-      </c>
-      <c r="AAS1" s="1" t="inlineStr">
+      <c r="AGJ1" s="1" t="inlineStr">
+        <is>
+          <t>often</t>
+        </is>
+      </c>
+      <c r="AGK1" s="1" t="inlineStr">
+        <is>
+          <t>leading</t>
+        </is>
+      </c>
+      <c r="AGL1" s="1" t="inlineStr">
+        <is>
+          <t>like</t>
+        </is>
+      </c>
+      <c r="AGM1" s="1" t="inlineStr">
         <is>
           <t>local/state</t>
         </is>
       </c>
-      <c r="AAT1" s="1" t="inlineStr">
-        <is>
-          <t>leading</t>
-        </is>
-      </c>
-      <c r="AAU1" s="1" t="inlineStr">
-        <is>
-          <t>political</t>
-        </is>
-      </c>
-      <c r="AAV1" s="1" t="inlineStr">
-        <is>
-          <t>six</t>
-        </is>
-      </c>
-      <c r="AAW1" s="1" t="inlineStr">
-        <is>
-          <t>sixty-one</t>
-        </is>
-      </c>
-      <c r="AAX1" s="1" t="inlineStr">
-        <is>
-          <t>skills</t>
-        </is>
-      </c>
-      <c r="AAY1" s="1" t="inlineStr">
-        <is>
-          <t>states</t>
-        </is>
-      </c>
-      <c r="AAZ1" s="1" t="inlineStr">
-        <is>
-          <t>statewide</t>
-        </is>
-      </c>
-      <c r="ABA1" s="1" t="inlineStr">
-        <is>
-          <t>single</t>
-        </is>
-      </c>
-      <c r="ABB1" s="1" t="inlineStr">
-        <is>
-          <t>summarized</t>
-        </is>
-      </c>
-      <c r="ABC1" s="1" t="inlineStr">
-        <is>
-          <t>short-term</t>
-        </is>
-      </c>
-      <c r="ABD1" s="1" t="inlineStr">
-        <is>
-          <t>tools</t>
-        </is>
-      </c>
-      <c r="ABE1" s="1" t="inlineStr">
-        <is>
-          <t>problem-solving</t>
-        </is>
-      </c>
-      <c r="ABF1" s="1" t="inlineStr">
-        <is>
-          <t>policies</t>
-        </is>
-      </c>
-      <c r="ABG1" s="1" t="inlineStr">
-        <is>
-          <t>sent</t>
-        </is>
-      </c>
-      <c r="ABH1" s="1" t="inlineStr">
-        <is>
-          <t>secure</t>
-        </is>
-      </c>
-      <c r="ABI1" s="1" t="inlineStr">
-        <is>
-          <t>often</t>
-        </is>
-      </c>
-      <c r="ABJ1" s="1" t="inlineStr">
+      <c r="AGN1" s="1" t="inlineStr">
         <is>
           <t>look</t>
         </is>
       </c>
-      <c r="ABK1" s="1" t="inlineStr">
-        <is>
-          <t>sites</t>
-        </is>
-      </c>
-      <c r="ABL1" s="1" t="inlineStr">
-        <is>
-          <t>like</t>
-        </is>
-      </c>
-      <c r="ABM1" s="1" t="inlineStr">
-        <is>
-          <t>practices</t>
-        </is>
-      </c>
-      <c r="ABN1" s="1" t="inlineStr">
-        <is>
-          <t>as</t>
-        </is>
-      </c>
-      <c r="ABO1" s="1" t="inlineStr">
-        <is>
-          <t>grounded</t>
-        </is>
-      </c>
-      <c r="ABP1" s="1" t="inlineStr">
-        <is>
-          <t>empowerment</t>
-        </is>
-      </c>
-      <c r="ABQ1" s="1" t="inlineStr">
-        <is>
-          <t>victory</t>
-        </is>
-      </c>
-      <c r="ABR1" s="1" t="inlineStr">
-        <is>
-          <t>truly</t>
-        </is>
-      </c>
-      <c r="ABS1" s="1" t="inlineStr">
-        <is>
-          <t>thanks</t>
-        </is>
-      </c>
-      <c r="ABT1" s="1" t="inlineStr">
-        <is>
-          <t>technical</t>
-        </is>
-      </c>
-      <c r="ABU1" s="1" t="inlineStr">
-        <is>
-          <t>saying</t>
-        </is>
-      </c>
-      <c r="ABV1" s="1" t="inlineStr">
-        <is>
-          <t>revitalization</t>
-        </is>
-      </c>
-      <c r="ABW1" s="1" t="inlineStr">
-        <is>
-          <t>required</t>
-        </is>
-      </c>
-      <c r="ABX1" s="1" t="inlineStr">
-        <is>
-          <t>regulations</t>
-        </is>
-      </c>
-      <c r="ABY1" s="1" t="inlineStr">
-        <is>
-          <t>recorded</t>
-        </is>
-      </c>
-      <c r="ABZ1" s="1" t="inlineStr">
-        <is>
-          <t>reaping</t>
-        </is>
-      </c>
-      <c r="ACA1" s="1" t="inlineStr">
-        <is>
-          <t>ready</t>
-        </is>
-      </c>
-      <c r="ACB1" s="1" t="inlineStr">
-        <is>
-          <t>reading</t>
-        </is>
-      </c>
-      <c r="ACC1" s="1" t="inlineStr">
-        <is>
-          <t>publicizing</t>
-        </is>
-      </c>
-      <c r="ACD1" s="1" t="inlineStr">
-        <is>
-          <t>providing</t>
-        </is>
-      </c>
-      <c r="ACE1" s="1" t="inlineStr">
-        <is>
-          <t>process</t>
-        </is>
-      </c>
-      <c r="ACF1" s="1" t="inlineStr">
-        <is>
-          <t>preparing</t>
-        </is>
-      </c>
-      <c r="ACG1" s="1" t="inlineStr">
-        <is>
-          <t>necessary</t>
-        </is>
-      </c>
-      <c r="ACH1" s="1" t="inlineStr">
-        <is>
-          <t>vision</t>
-        </is>
-      </c>
-      <c r="ACI1" s="1" t="inlineStr">
-        <is>
-          <t>way</t>
-        </is>
-      </c>
-      <c r="ACJ1" s="1" t="inlineStr">
-        <is>
-          <t>wealth</t>
-        </is>
-      </c>
-      <c r="ACK1" s="1" t="inlineStr">
-        <is>
-          <t>paralleled</t>
-        </is>
-      </c>
-      <c r="ACL1" s="1" t="inlineStr">
-        <is>
-          <t>focused</t>
-        </is>
-      </c>
-      <c r="ACM1" s="1" t="inlineStr">
-        <is>
-          <t>gauge</t>
-        </is>
-      </c>
-      <c r="ACN1" s="1" t="inlineStr">
-        <is>
-          <t>desire</t>
-        </is>
-      </c>
-      <c r="ACO1" s="1" t="inlineStr">
-        <is>
-          <t>illustration</t>
-        </is>
-      </c>
-      <c r="ACP1" s="1" t="inlineStr">
-        <is>
-          <t>incorporated</t>
-        </is>
-      </c>
-      <c r="ACQ1" s="1" t="inlineStr">
-        <is>
-          <t>inquiry-based</t>
-        </is>
-      </c>
-      <c r="ACR1" s="1" t="inlineStr">
-        <is>
-          <t>outreach</t>
-        </is>
-      </c>
-      <c r="ACS1" s="1" t="inlineStr">
-        <is>
-          <t>participant</t>
-        </is>
-      </c>
-      <c r="ACT1" s="1" t="inlineStr">
-        <is>
-          <t>supported</t>
-        </is>
-      </c>
-      <c r="ACU1" s="1" t="inlineStr">
-        <is>
-          <t>partnerships</t>
-        </is>
-      </c>
-      <c r="ACV1" s="1" t="inlineStr">
-        <is>
-          <t>perceptions</t>
-        </is>
-      </c>
-      <c r="ACW1" s="1" t="inlineStr">
-        <is>
-          <t>postattitude</t>
-        </is>
-      </c>
-      <c r="ACX1" s="1" t="inlineStr">
-        <is>
-          <t>pre-</t>
-        </is>
-      </c>
-      <c r="ACY1" s="1" t="inlineStr">
+      <c r="AGO1" s="1" t="inlineStr">
+        <is>
+          <t>adversarial</t>
+        </is>
+      </c>
+      <c r="AGP1" s="1" t="inlineStr">
+        <is>
+          <t>center</t>
+        </is>
+      </c>
+      <c r="AGQ1" s="1" t="inlineStr">
+        <is>
+          <t>34</t>
+        </is>
+      </c>
+      <c r="AGR1" s="1" t="inlineStr">
+        <is>
+          <t>separately</t>
+        </is>
+      </c>
+      <c r="AGS1" s="1" t="inlineStr">
+        <is>
+          <t>ineffectiveness</t>
+        </is>
+      </c>
+      <c r="AGT1" s="1" t="inlineStr">
+        <is>
+          <t>k-12</t>
+        </is>
+      </c>
+      <c r="AGU1" s="1" t="inlineStr">
+        <is>
+          <t>percentages</t>
+        </is>
+      </c>
+      <c r="AGV1" s="1" t="inlineStr">
+        <is>
+          <t>poor</t>
+        </is>
+      </c>
+      <c r="AGW1" s="1" t="inlineStr">
+        <is>
+          <t>population</t>
+        </is>
+      </c>
+      <c r="AGX1" s="1" t="inlineStr">
+        <is>
+          <t>procedure</t>
+        </is>
+      </c>
+      <c r="AGY1" s="1" t="inlineStr">
+        <is>
+          <t>rank</t>
+        </is>
+      </c>
+      <c r="AGZ1" s="1" t="inlineStr">
+        <is>
+          <t>score</t>
+        </is>
+      </c>
+      <c r="AHA1" s="1" t="inlineStr">
+        <is>
+          <t>selection</t>
+        </is>
+      </c>
+      <c r="AHB1" s="1" t="inlineStr">
+        <is>
+          <t>sensitive</t>
+        </is>
+      </c>
+      <c r="AHC1" s="1" t="inlineStr">
+        <is>
+          <t>thus</t>
+        </is>
+      </c>
+      <c r="AHD1" s="1" t="inlineStr">
+        <is>
+          <t>u.s.</t>
+        </is>
+      </c>
+      <c r="AHE1" s="1" t="inlineStr">
+        <is>
+          <t>useful</t>
+        </is>
+      </c>
+      <c r="AHF1" s="1" t="inlineStr">
         <is>
           <t>dast</t>
         </is>
       </c>
-      <c r="ACZ1" s="1" t="inlineStr">
-        <is>
-          <t>questionnaires</t>
-        </is>
-      </c>
-      <c r="ADA1" s="1" t="inlineStr">
-        <is>
-          <t>specially</t>
-        </is>
-      </c>
-      <c r="ADB1" s="1" t="inlineStr">
-        <is>
-          <t>making</t>
-        </is>
-      </c>
-      <c r="ADC1" s="1" t="inlineStr">
-        <is>
-          <t>maintaining</t>
-        </is>
-      </c>
-      <c r="ADD1" s="1" t="inlineStr">
-        <is>
-          <t>looks</t>
-        </is>
-      </c>
-      <c r="ADE1" s="1" t="inlineStr">
-        <is>
-          <t>affiliate</t>
-        </is>
-      </c>
-      <c r="ADF1" s="1" t="inlineStr">
-        <is>
-          <t>concrete</t>
-        </is>
-      </c>
-      <c r="ADG1" s="1" t="inlineStr">
-        <is>
-          <t>compromise</t>
-        </is>
-      </c>
-      <c r="ADH1" s="1" t="inlineStr">
-        <is>
-          <t>commitments</t>
-        </is>
-      </c>
-      <c r="ADI1" s="1" t="inlineStr">
-        <is>
-          <t>borrowing</t>
-        </is>
-      </c>
-      <c r="ADJ1" s="1" t="inlineStr">
-        <is>
-          <t>blueprints</t>
-        </is>
-      </c>
-      <c r="ADK1" s="1" t="inlineStr">
-        <is>
-          <t>art</t>
-        </is>
-      </c>
-      <c r="ADL1" s="1" t="inlineStr">
-        <is>
-          <t>analogy</t>
-        </is>
-      </c>
-      <c r="ADM1" s="1" t="inlineStr">
-        <is>
-          <t>accomplishments</t>
-        </is>
-      </c>
-      <c r="ADN1" s="1" t="inlineStr">
-        <is>
-          <t>curve</t>
-        </is>
-      </c>
-      <c r="ADO1" s="1" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
-      <c r="ADP1" s="1" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="ADQ1" s="1" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="ADR1" s="1" t="inlineStr">
-        <is>
-          <t>action</t>
-        </is>
-      </c>
-      <c r="ADS1" s="1" t="inlineStr">
-        <is>
-          <t>america</t>
-        </is>
-      </c>
-      <c r="ADT1" s="1" t="inlineStr">
-        <is>
-          <t>celebration</t>
-        </is>
-      </c>
-      <c r="ADU1" s="1" t="inlineStr">
-        <is>
-          <t>connections</t>
-        </is>
-      </c>
-      <c r="ADV1" s="1" t="inlineStr">
-        <is>
-          <t>construct</t>
-        </is>
-      </c>
-      <c r="ADW1" s="1" t="inlineStr">
-        <is>
-          <t>dedication</t>
-        </is>
-      </c>
-      <c r="ADX1" s="1" t="inlineStr">
-        <is>
-          <t>less-tangible</t>
-        </is>
-      </c>
-      <c r="ADY1" s="1" t="inlineStr">
-        <is>
-          <t>gaining</t>
-        </is>
-      </c>
-      <c r="ADZ1" s="1" t="inlineStr">
-        <is>
-          <t>legislative</t>
-        </is>
-      </c>
-      <c r="AEA1" s="1" t="inlineStr">
-        <is>
-          <t>keeping</t>
-        </is>
-      </c>
-      <c r="AEB1" s="1" t="inlineStr">
-        <is>
-          <t>if</t>
-        </is>
-      </c>
-      <c r="AEC1" s="1" t="inlineStr">
-        <is>
-          <t>ideas</t>
-        </is>
-      </c>
-      <c r="AED1" s="1" t="inlineStr">
-        <is>
-          <t>goals</t>
-        </is>
-      </c>
-      <c r="AEE1" s="1" t="inlineStr">
-        <is>
-          <t>gives</t>
-        </is>
-      </c>
-      <c r="AEF1" s="1" t="inlineStr">
-        <is>
-          <t>examples</t>
-        </is>
-      </c>
-      <c r="AEG1" s="1" t="inlineStr">
-        <is>
-          <t>follows</t>
-        </is>
-      </c>
-      <c r="AEH1" s="1" t="inlineStr">
-        <is>
-          <t>designing</t>
-        </is>
-      </c>
-      <c r="AEI1" s="1" t="inlineStr">
-        <is>
-          <t>entails</t>
-        </is>
-      </c>
-      <c r="AEJ1" s="1" t="inlineStr">
-        <is>
-          <t>encompasses</t>
-        </is>
-      </c>
-      <c r="AEK1" s="1" t="inlineStr">
-        <is>
-          <t>educating</t>
-        </is>
-      </c>
-      <c r="AEL1" s="1" t="inlineStr">
-        <is>
-          <t>educated</t>
-        </is>
-      </c>
-      <c r="AEM1" s="1" t="inlineStr">
-        <is>
-          <t>direction</t>
-        </is>
-      </c>
-      <c r="AEN1" s="1" t="inlineStr">
-        <is>
-          <t>developing</t>
-        </is>
-      </c>
-      <c r="AEO1" s="1" t="inlineStr">
-        <is>
-          <t>detail</t>
-        </is>
-      </c>
-      <c r="AEP1" s="1" t="inlineStr">
-        <is>
-          <t>explored</t>
-        </is>
-      </c>
-      <c r="AEQ1" s="1" t="inlineStr">
-        <is>
-          <t>draw-a-scientist</t>
-        </is>
-      </c>
-      <c r="AER1" s="1" t="inlineStr">
-        <is>
-          <t>activities</t>
-        </is>
-      </c>
-      <c r="AES1" s="1" t="inlineStr">
-        <is>
-          <t>demographic</t>
-        </is>
-      </c>
-      <c r="AET1" s="1" t="inlineStr">
-        <is>
-          <t>20,270</t>
-        </is>
-      </c>
-      <c r="AEU1" s="1" t="inlineStr">
-        <is>
-          <t>4.4</t>
-        </is>
-      </c>
-      <c r="AEV1" s="1" t="inlineStr">
-        <is>
-          <t>5.1</t>
-        </is>
-      </c>
-      <c r="AEW1" s="1" t="inlineStr">
-        <is>
-          <t>5.6</t>
-        </is>
-      </c>
-      <c r="AEX1" s="1" t="inlineStr">
-        <is>
-          <t>addressing</t>
-        </is>
-      </c>
-      <c r="AEY1" s="1" t="inlineStr">
-        <is>
-          <t>attribute</t>
-        </is>
-      </c>
-      <c r="AEZ1" s="1" t="inlineStr">
-        <is>
-          <t>capturing</t>
-        </is>
-      </c>
-      <c r="AFA1" s="1" t="inlineStr">
-        <is>
-          <t>committees</t>
-        </is>
-      </c>
-      <c r="AFB1" s="1" t="inlineStr">
-        <is>
-          <t>comparison</t>
-        </is>
-      </c>
-      <c r="AFC1" s="1" t="inlineStr">
-        <is>
-          <t>comprised</t>
-        </is>
-      </c>
-      <c r="AFD1" s="1" t="inlineStr">
-        <is>
-          <t>distributions</t>
-        </is>
-      </c>
-      <c r="AFE1" s="1" t="inlineStr">
-        <is>
-          <t>whether</t>
-        </is>
-      </c>
-      <c r="AFF1" s="1" t="inlineStr">
-        <is>
-          <t>earned</t>
-        </is>
-      </c>
-      <c r="AFG1" s="1" t="inlineStr">
-        <is>
-          <t>find</t>
-        </is>
-      </c>
-      <c r="AFH1" s="1" t="inlineStr">
-        <is>
-          <t>grades</t>
-        </is>
-      </c>
-      <c r="AFI1" s="1" t="inlineStr">
-        <is>
-          <t>identifying</t>
-        </is>
-      </c>
-      <c r="AFJ1" s="1" t="inlineStr">
-        <is>
-          <t>indicate</t>
-        </is>
-      </c>
-      <c r="AFK1" s="1" t="inlineStr">
-        <is>
-          <t>ineffectiveness</t>
-        </is>
-      </c>
-      <c r="AFL1" s="1" t="inlineStr">
-        <is>
-          <t>k-12</t>
-        </is>
-      </c>
-      <c r="AFM1" s="1" t="inlineStr">
-        <is>
-          <t>percentages</t>
-        </is>
-      </c>
-      <c r="AFN1" s="1" t="inlineStr">
-        <is>
-          <t>poor</t>
-        </is>
-      </c>
-      <c r="AFO1" s="1" t="inlineStr">
-        <is>
-          <t>population</t>
-        </is>
-      </c>
-      <c r="AFP1" s="1" t="inlineStr">
-        <is>
-          <t>125</t>
-        </is>
-      </c>
-      <c r="AFQ1" s="1" t="inlineStr">
-        <is>
-          <t>underachieving</t>
-        </is>
-      </c>
-      <c r="AFR1" s="1" t="inlineStr">
-        <is>
-          <t>rank</t>
-        </is>
-      </c>
-      <c r="AFS1" s="1" t="inlineStr">
-        <is>
-          <t>differentiate</t>
-        </is>
-      </c>
-      <c r="AFT1" s="1" t="inlineStr">
-        <is>
-          <t>directors</t>
-        </is>
-      </c>
-      <c r="AFU1" s="1" t="inlineStr">
-        <is>
-          <t>122</t>
-        </is>
-      </c>
-      <c r="AFV1" s="1" t="inlineStr">
-        <is>
-          <t>28</t>
-        </is>
-      </c>
-      <c r="AFW1" s="1" t="inlineStr">
-        <is>
-          <t>56</t>
-        </is>
-      </c>
-      <c r="AFX1" s="1" t="inlineStr">
-        <is>
-          <t>81</t>
-        </is>
-      </c>
-      <c r="AFY1" s="1" t="inlineStr">
-        <is>
-          <t>classified</t>
-        </is>
-      </c>
-      <c r="AFZ1" s="1" t="inlineStr">
-        <is>
-          <t>consisted</t>
-        </is>
-      </c>
-      <c r="AGA1" s="1" t="inlineStr">
-        <is>
-          <t>correctly</t>
-        </is>
-      </c>
-      <c r="AGB1" s="1" t="inlineStr">
-        <is>
-          <t>differ</t>
-        </is>
-      </c>
-      <c r="AGC1" s="1" t="inlineStr">
-        <is>
-          <t>differed</t>
-        </is>
-      </c>
-      <c r="AGD1" s="1" t="inlineStr">
-        <is>
-          <t>high-achieving</t>
-        </is>
-      </c>
-      <c r="AGE1" s="1" t="inlineStr">
-        <is>
-          <t>underachievement</t>
-        </is>
-      </c>
-      <c r="AGF1" s="1" t="inlineStr">
-        <is>
-          <t>logistic</t>
-        </is>
-      </c>
-      <c r="AGG1" s="1" t="inlineStr">
-        <is>
-          <t>motivation</t>
-        </is>
-      </c>
-      <c r="AGH1" s="1" t="inlineStr">
-        <is>
-          <t>nationwide</t>
-        </is>
-      </c>
-      <c r="AGI1" s="1" t="inlineStr">
-        <is>
-          <t>quantifying</t>
-        </is>
-      </c>
-      <c r="AGJ1" s="1" t="inlineStr">
-        <is>
-          <t>regression</t>
-        </is>
-      </c>
-      <c r="AGK1" s="1" t="inlineStr">
-        <is>
-          <t>related</t>
-        </is>
-      </c>
-      <c r="AGL1" s="1" t="inlineStr">
-        <is>
-          <t>represents</t>
-        </is>
-      </c>
-      <c r="AGM1" s="1" t="inlineStr">
-        <is>
-          <t>self-ratings</t>
-        </is>
-      </c>
-      <c r="AGN1" s="1" t="inlineStr">
-        <is>
-          <t>self-regulation</t>
-        </is>
-      </c>
-      <c r="AGO1" s="1" t="inlineStr">
-        <is>
-          <t>step</t>
-        </is>
-      </c>
-      <c r="AGP1" s="1" t="inlineStr">
-        <is>
-          <t>procedure</t>
-        </is>
-      </c>
-      <c r="AGQ1" s="1" t="inlineStr">
-        <is>
-          <t>culturally</t>
-        </is>
-      </c>
-      <c r="AGR1" s="1" t="inlineStr">
-        <is>
-          <t>score</t>
-        </is>
-      </c>
-      <c r="AGS1" s="1" t="inlineStr">
-        <is>
-          <t>develop</t>
-        </is>
-      </c>
-      <c r="AGT1" s="1" t="inlineStr">
-        <is>
-          <t>selection</t>
-        </is>
-      </c>
-      <c r="AGU1" s="1" t="inlineStr">
-        <is>
-          <t>34</t>
-        </is>
-      </c>
-      <c r="AGV1" s="1" t="inlineStr">
-        <is>
-          <t>acceptance</t>
-        </is>
-      </c>
-      <c r="AGW1" s="1" t="inlineStr">
-        <is>
-          <t>adversarial</t>
-        </is>
-      </c>
-      <c r="AGX1" s="1" t="inlineStr">
-        <is>
-          <t>behalf</t>
-        </is>
-      </c>
-      <c r="AGY1" s="1" t="inlineStr">
-        <is>
-          <t>center</t>
-        </is>
-      </c>
-      <c r="AGZ1" s="1" t="inlineStr">
-        <is>
-          <t>champion</t>
-        </is>
-      </c>
-      <c r="AHA1" s="1" t="inlineStr">
-        <is>
-          <t>contexts</t>
-        </is>
-      </c>
-      <c r="AHB1" s="1" t="inlineStr">
-        <is>
-          <t>cross-case</t>
-        </is>
-      </c>
-      <c r="AHC1" s="1" t="inlineStr">
-        <is>
-          <t>defined</t>
-        </is>
-      </c>
-      <c r="AHD1" s="1" t="inlineStr">
-        <is>
-          <t>after</t>
-        </is>
-      </c>
-      <c r="AHE1" s="1" t="inlineStr">
-        <is>
-          <t>sensitive</t>
-        </is>
-      </c>
-      <c r="AHF1" s="1" t="inlineStr">
-        <is>
-          <t>separately</t>
-        </is>
-      </c>
       <c r="AHG1" s="1" t="inlineStr">
         <is>
-          <t>thus</t>
+          <t>attitude</t>
         </is>
       </c>
       <c r="AHH1" s="1" t="inlineStr">
         <is>
-          <t>u.s.</t>
+          <t>advanced</t>
         </is>
       </c>
       <c r="AHI1" s="1" t="inlineStr">
         <is>
-          <t>useful</t>
+          <t>area</t>
         </is>
       </c>
       <c r="AHJ1" s="1" t="inlineStr">
         <is>
-          <t>attitude</t>
+          <t>1,247</t>
         </is>
       </c>
       <c r="AHK1" s="1" t="inlineStr">
         <is>
+          <t>secondary</t>
+        </is>
+      </c>
+      <c r="AHL1" s="1" t="inlineStr">
+        <is>
+          <t>abstract</t>
+        </is>
+      </c>
+      <c r="AHM1" s="1" t="inlineStr">
+        <is>
+          <t>suggestions</t>
+        </is>
+      </c>
+      <c r="AHN1" s="1" t="inlineStr">
+        <is>
+          <t>completing</t>
+        </is>
+      </c>
+      <c r="AHO1" s="1" t="inlineStr">
+        <is>
+          <t>63</t>
+        </is>
+      </c>
+      <c r="AHP1" s="1" t="inlineStr">
+        <is>
+          <t>briggs</t>
+        </is>
+      </c>
+      <c r="AHQ1" s="1" t="inlineStr">
+        <is>
+          <t>certified</t>
+        </is>
+      </c>
+      <c r="AHR1" s="1" t="inlineStr">
+        <is>
+          <t>cognitive</t>
+        </is>
+      </c>
+      <c r="AHS1" s="1" t="inlineStr">
+        <is>
+          <t>intuition</t>
+        </is>
+      </c>
+      <c r="AHT1" s="1" t="inlineStr">
+        <is>
+          <t>concepts</t>
+        </is>
+      </c>
+      <c r="AHU1" s="1" t="inlineStr">
+        <is>
+          <t>coursework</t>
+        </is>
+      </c>
+      <c r="AHV1" s="1" t="inlineStr">
+        <is>
+          <t>degrees</t>
+        </is>
+      </c>
+      <c r="AHW1" s="1" t="inlineStr">
+        <is>
+          <t>exceptional</t>
+        </is>
+      </c>
+      <c r="AHX1" s="1" t="inlineStr">
+        <is>
+          <t>exemplary</t>
+        </is>
+      </c>
+      <c r="AHY1" s="1" t="inlineStr">
+        <is>
+          <t>formal</t>
+        </is>
+      </c>
+      <c r="AHZ1" s="1" t="inlineStr">
+        <is>
+          <t>holding</t>
+        </is>
+      </c>
+      <c r="AIA1" s="1" t="inlineStr">
+        <is>
+          <t>judged</t>
+        </is>
+      </c>
+      <c r="AIB1" s="1" t="inlineStr">
+        <is>
+          <t>myers</t>
+        </is>
+      </c>
+      <c r="AIC1" s="1" t="inlineStr">
+        <is>
+          <t>likely</t>
+        </is>
+      </c>
+      <c r="AID1" s="1" t="inlineStr">
+        <is>
+          <t>majority</t>
+        </is>
+      </c>
+      <c r="AIE1" s="1" t="inlineStr">
+        <is>
+          <t>respective</t>
+        </is>
+      </c>
+      <c r="AIF1" s="1" t="inlineStr">
+        <is>
+          <t>sapi-18</t>
+        </is>
+      </c>
+      <c r="AIG1" s="1" t="inlineStr">
+        <is>
+          <t>dimensions/domains</t>
+        </is>
+      </c>
+      <c r="AIH1" s="1" t="inlineStr">
+        <is>
+          <t>relationship/ability</t>
+        </is>
+      </c>
+      <c r="AII1" s="1" t="inlineStr">
+        <is>
+          <t>intense</t>
+        </is>
+      </c>
+      <c r="AIJ1" s="1" t="inlineStr">
+        <is>
+          <t>could</t>
+        </is>
+      </c>
+      <c r="AIK1" s="1" t="inlineStr">
+        <is>
+          <t>difficulties</t>
+        </is>
+      </c>
+      <c r="AIL1" s="1" t="inlineStr">
+        <is>
+          <t>objectivity</t>
+        </is>
+      </c>
+      <c r="AIM1" s="1" t="inlineStr">
+        <is>
+          <t>encountered</t>
+        </is>
+      </c>
+      <c r="AIN1" s="1" t="inlineStr">
+        <is>
+          <t>constructed</t>
+        </is>
+      </c>
+      <c r="AIO1" s="1" t="inlineStr">
+        <is>
+          <t>factor</t>
+        </is>
+      </c>
+      <c r="AIP1" s="1" t="inlineStr">
+        <is>
+          <t>feedback</t>
+        </is>
+      </c>
+      <c r="AIQ1" s="1" t="inlineStr">
+        <is>
+          <t>feelings</t>
+        </is>
+      </c>
+      <c r="AIR1" s="1" t="inlineStr">
+        <is>
+          <t>home</t>
+        </is>
+      </c>
+      <c r="AIS1" s="1" t="inlineStr">
+        <is>
+          <t>assessing</t>
+        </is>
+      </c>
+      <c r="AIT1" s="1" t="inlineStr">
+        <is>
+          <t>investigations</t>
+        </is>
+      </c>
+      <c r="AIU1" s="1" t="inlineStr">
+        <is>
+          <t>reflect</t>
+        </is>
+      </c>
+      <c r="AIV1" s="1" t="inlineStr">
+        <is>
+          <t>ab</t>
+        </is>
+      </c>
+      <c r="AIW1" s="1" t="inlineStr">
+        <is>
+          <t>item</t>
+        </is>
+      </c>
+      <c r="AIX1" s="1" t="inlineStr">
+        <is>
+          <t>join</t>
+        </is>
+      </c>
+      <c r="AIY1" s="1" t="inlineStr">
+        <is>
+          <t>290</t>
+        </is>
+      </c>
+      <c r="AIZ1" s="1" t="inlineStr">
+        <is>
+          <t>meeting</t>
+        </is>
+      </c>
+      <c r="AJA1" s="1" t="inlineStr">
+        <is>
+          <t>nominated</t>
+        </is>
+      </c>
+      <c r="AJB1" s="1" t="inlineStr">
+        <is>
+          <t>18-item</t>
+        </is>
+      </c>
+      <c r="AJC1" s="1" t="inlineStr">
+        <is>
+          <t>perfectionism</t>
+        </is>
+      </c>
+      <c r="AJD1" s="1" t="inlineStr">
+        <is>
+          <t>preliminary</t>
+        </is>
+      </c>
+      <c r="AJE1" s="1" t="inlineStr">
+        <is>
+          <t>refinement</t>
+        </is>
+      </c>
+      <c r="AJF1" s="1" t="inlineStr">
+        <is>
+          <t>normative</t>
+        </is>
+      </c>
+      <c r="AJG1" s="1" t="inlineStr">
+        <is>
+          <t>cross-cultural</t>
+        </is>
+      </c>
+      <c r="AJH1" s="1" t="inlineStr">
+        <is>
+          <t>open</t>
+        </is>
+      </c>
+      <c r="AJI1" s="1" t="inlineStr">
+        <is>
+          <t>sa</t>
+        </is>
+      </c>
+      <c r="AJJ1" s="1" t="inlineStr">
+        <is>
+          <t>styles</t>
+        </is>
+      </c>
+      <c r="AJK1" s="1" t="inlineStr">
+        <is>
+          <t>teach</t>
+        </is>
+      </c>
+      <c r="AJL1" s="1" t="inlineStr">
+        <is>
+          <t>thinking</t>
+        </is>
+      </c>
+      <c r="AJM1" s="1" t="inlineStr">
+        <is>
+          <t>value</t>
+        </is>
+      </c>
+      <c r="AJN1" s="1" t="inlineStr">
+        <is>
+          <t>working</t>
+        </is>
+      </c>
+      <c r="AJO1" s="1" t="inlineStr">
+        <is>
+          <t>counseling</t>
+        </is>
+      </c>
+      <c r="AJP1" s="1" t="inlineStr">
+        <is>
           <t>play</t>
         </is>
       </c>
-      <c r="AHL1" s="1" t="inlineStr">
-        <is>
-          <t>styles</t>
-        </is>
-      </c>
-      <c r="AHM1" s="1" t="inlineStr">
-        <is>
-          <t>completing</t>
-        </is>
-      </c>
-      <c r="AHN1" s="1" t="inlineStr">
-        <is>
-          <t>concepts</t>
-        </is>
-      </c>
-      <c r="AHO1" s="1" t="inlineStr">
-        <is>
-          <t>counseling</t>
-        </is>
-      </c>
-      <c r="AHP1" s="1" t="inlineStr">
-        <is>
-          <t>thinking</t>
-        </is>
-      </c>
-      <c r="AHQ1" s="1" t="inlineStr">
-        <is>
-          <t>coursework</t>
-        </is>
-      </c>
-      <c r="AHR1" s="1" t="inlineStr">
-        <is>
-          <t>teach</t>
-        </is>
-      </c>
-      <c r="AHS1" s="1" t="inlineStr">
-        <is>
-          <t>t</t>
-        </is>
-      </c>
-      <c r="AHT1" s="1" t="inlineStr">
-        <is>
-          <t>sa</t>
-        </is>
-      </c>
-      <c r="AHU1" s="1" t="inlineStr">
-        <is>
-          <t>open</t>
-        </is>
-      </c>
-      <c r="AHV1" s="1" t="inlineStr">
-        <is>
-          <t>degrees</t>
-        </is>
-      </c>
-      <c r="AHW1" s="1" t="inlineStr">
-        <is>
-          <t>exceptional</t>
-        </is>
-      </c>
-      <c r="AHX1" s="1" t="inlineStr">
-        <is>
-          <t>exemplary</t>
-        </is>
-      </c>
-      <c r="AHY1" s="1" t="inlineStr">
-        <is>
-          <t>formal</t>
-        </is>
-      </c>
-      <c r="AHZ1" s="1" t="inlineStr">
-        <is>
-          <t>holding</t>
-        </is>
-      </c>
-      <c r="AIA1" s="1" t="inlineStr">
-        <is>
-          <t>cognitive</t>
-        </is>
-      </c>
-      <c r="AIB1" s="1" t="inlineStr">
-        <is>
-          <t>judged</t>
-        </is>
-      </c>
-      <c r="AIC1" s="1" t="inlineStr">
-        <is>
-          <t>likely</t>
-        </is>
-      </c>
-      <c r="AID1" s="1" t="inlineStr">
-        <is>
-          <t>majority</t>
-        </is>
-      </c>
-      <c r="AIE1" s="1" t="inlineStr">
-        <is>
-          <t>myers</t>
-        </is>
-      </c>
-      <c r="AIF1" s="1" t="inlineStr">
-        <is>
-          <t>n</t>
-        </is>
-      </c>
-      <c r="AIG1" s="1" t="inlineStr">
-        <is>
-          <t>normative</t>
-        </is>
-      </c>
-      <c r="AIH1" s="1" t="inlineStr">
-        <is>
-          <t>objectivity</t>
-        </is>
-      </c>
-      <c r="AII1" s="1" t="inlineStr">
-        <is>
-          <t>intuition</t>
-        </is>
-      </c>
-      <c r="AIJ1" s="1" t="inlineStr">
-        <is>
-          <t>ab</t>
-        </is>
-      </c>
-      <c r="AIK1" s="1" t="inlineStr">
-        <is>
-          <t>cross-cultural</t>
-        </is>
-      </c>
-      <c r="AIL1" s="1" t="inlineStr">
-        <is>
-          <t>assessing</t>
-        </is>
-      </c>
-      <c r="AIM1" s="1" t="inlineStr">
-        <is>
-          <t>meeting</t>
-        </is>
-      </c>
-      <c r="AIN1" s="1" t="inlineStr">
-        <is>
-          <t>nominated</t>
-        </is>
-      </c>
-      <c r="AIO1" s="1" t="inlineStr">
-        <is>
-          <t>perfectionism</t>
-        </is>
-      </c>
-      <c r="AIP1" s="1" t="inlineStr">
-        <is>
-          <t>abstract</t>
-        </is>
-      </c>
-      <c r="AIQ1" s="1" t="inlineStr">
-        <is>
-          <t>preliminary</t>
-        </is>
-      </c>
-      <c r="AIR1" s="1" t="inlineStr">
-        <is>
-          <t>refinement</t>
-        </is>
-      </c>
-      <c r="AIS1" s="1" t="inlineStr">
-        <is>
-          <t>reflect</t>
-        </is>
-      </c>
-      <c r="AIT1" s="1" t="inlineStr">
-        <is>
-          <t>relationship/ability</t>
-        </is>
-      </c>
-      <c r="AIU1" s="1" t="inlineStr">
-        <is>
-          <t>working</t>
-        </is>
-      </c>
-      <c r="AIV1" s="1" t="inlineStr">
-        <is>
-          <t>respective</t>
-        </is>
-      </c>
-      <c r="AIW1" s="1" t="inlineStr">
-        <is>
-          <t>sapi-18</t>
-        </is>
-      </c>
-      <c r="AIX1" s="1" t="inlineStr">
-        <is>
-          <t>secondary</t>
-        </is>
-      </c>
-      <c r="AIY1" s="1" t="inlineStr">
-        <is>
-          <t>suggestions</t>
-        </is>
-      </c>
-      <c r="AIZ1" s="1" t="inlineStr">
-        <is>
-          <t>63</t>
-        </is>
-      </c>
-      <c r="AJA1" s="1" t="inlineStr">
-        <is>
-          <t>1,247</t>
-        </is>
-      </c>
-      <c r="AJB1" s="1" t="inlineStr">
-        <is>
-          <t>join</t>
-        </is>
-      </c>
-      <c r="AJC1" s="1" t="inlineStr">
-        <is>
-          <t>item</t>
-        </is>
-      </c>
-      <c r="AJD1" s="1" t="inlineStr">
-        <is>
-          <t>18-item</t>
-        </is>
-      </c>
-      <c r="AJE1" s="1" t="inlineStr">
-        <is>
-          <t>factor</t>
-        </is>
-      </c>
-      <c r="AJF1" s="1" t="inlineStr">
-        <is>
-          <t>certified</t>
-        </is>
-      </c>
-      <c r="AJG1" s="1" t="inlineStr">
-        <is>
-          <t>difficulties</t>
-        </is>
-      </c>
-      <c r="AJH1" s="1" t="inlineStr">
-        <is>
-          <t>dimensions/domains</t>
-        </is>
-      </c>
-      <c r="AJI1" s="1" t="inlineStr">
-        <is>
-          <t>encountered</t>
-        </is>
-      </c>
-      <c r="AJJ1" s="1" t="inlineStr">
-        <is>
-          <t>6</t>
-        </is>
-      </c>
-      <c r="AJK1" s="1" t="inlineStr">
-        <is>
-          <t>briggs</t>
-        </is>
-      </c>
-      <c r="AJL1" s="1" t="inlineStr">
-        <is>
-          <t>feedback</t>
-        </is>
-      </c>
-      <c r="AJM1" s="1" t="inlineStr">
-        <is>
-          <t>investigations</t>
-        </is>
-      </c>
-      <c r="AJN1" s="1" t="inlineStr">
-        <is>
-          <t>feelings</t>
-        </is>
-      </c>
-      <c r="AJO1" s="1" t="inlineStr">
-        <is>
-          <t>home</t>
-        </is>
-      </c>
-      <c r="AJP1" s="1" t="inlineStr">
-        <is>
-          <t>area</t>
-        </is>
-      </c>
       <c r="AJQ1" s="1" t="inlineStr">
         <is>
-          <t>290</t>
+          <t>possible</t>
         </is>
       </c>
       <c r="AJR1" s="1" t="inlineStr">
         <is>
-          <t>advanced</t>
+          <t>normalised</t>
         </is>
       </c>
       <c r="AJS1" s="1" t="inlineStr">
         <is>
-          <t>intense</t>
+          <t>ordinary-length</t>
         </is>
       </c>
       <c r="AJT1" s="1" t="inlineStr">
         <is>
-          <t>value</t>
+          <t>participated</t>
         </is>
       </c>
       <c r="AJU1" s="1" t="inlineStr">
         <is>
-          <t>constructed</t>
+          <t>year-long</t>
         </is>
       </c>
       <c r="AJV1" s="1" t="inlineStr">
         <is>
-          <t>identification</t>
+          <t>previously</t>
         </is>
       </c>
       <c r="AJW1" s="1" t="inlineStr">
         <is>
-          <t>experts</t>
+          <t>published</t>
         </is>
       </c>
       <c r="AJX1" s="1" t="inlineStr">
         <is>
-          <t>procedures</t>
+          <t>standard-length</t>
         </is>
       </c>
       <c r="AJY1" s="1" t="inlineStr">
         <is>
-          <t>pressing</t>
+          <t>long</t>
         </is>
       </c>
       <c r="AJZ1" s="1" t="inlineStr">
         <is>
-          <t>permitted</t>
+          <t>measuring</t>
         </is>
       </c>
       <c r="AKA1" s="1" t="inlineStr">
         <is>
-          <t>number</t>
+          <t>recent</t>
         </is>
       </c>
       <c r="AKB1" s="1" t="inlineStr">
         <is>
-          <t>answered</t>
+          <t>fci</t>
         </is>
       </c>
       <c r="AKC1" s="1" t="inlineStr">
         <is>
-          <t>grouped</t>
+          <t>improve</t>
         </is>
       </c>
       <c r="AKD1" s="1" t="inlineStr">
         <is>
-          <t>frequent</t>
+          <t>comparisons</t>
         </is>
       </c>
       <c r="AKE1" s="1" t="inlineStr">
         <is>
-          <t>e</t>
+          <t>concept</t>
         </is>
       </c>
       <c r="AKF1" s="1" t="inlineStr">
         <is>
-          <t>say</t>
+          <t>concerning</t>
         </is>
       </c>
       <c r="AKG1" s="1" t="inlineStr">
         <is>
-          <t>developments</t>
+          <t>couses</t>
         </is>
       </c>
       <c r="AKH1" s="1" t="inlineStr">
         <is>
-          <t>descriptive</t>
+          <t>direct</t>
         </is>
       </c>
       <c r="AKI1" s="1" t="inlineStr">
         <is>
-          <t>definitional</t>
+          <t>force</t>
         </is>
       </c>
       <c r="AKJ1" s="1" t="inlineStr">
         <is>
-          <t>define</t>
+          <t>conducted</t>
         </is>
       </c>
       <c r="AKK1" s="1" t="inlineStr">
         <is>
-          <t>curricula</t>
+          <t>discussions</t>
         </is>
       </c>
       <c r="AKL1" s="1" t="inlineStr">
         <is>
-          <t>consensus</t>
+          <t>diagnosis</t>
         </is>
       </c>
       <c r="AKM1" s="1" t="inlineStr">
         <is>
-          <t>conceptualize</t>
+          <t>deficit</t>
         </is>
       </c>
       <c r="AKN1" s="1" t="inlineStr">
         <is>
-          <t>responses</t>
+          <t>cpt</t>
         </is>
       </c>
       <c r="AKO1" s="1" t="inlineStr">
         <is>
-          <t>small</t>
+          <t>correlations</t>
         </is>
       </c>
       <c r="AKP1" s="1" t="inlineStr">
         <is>
-          <t>authorities</t>
+          <t>continuous</t>
         </is>
       </c>
       <c r="AKQ1" s="1" t="inlineStr">
         <is>
-          <t>according</t>
+          <t>consistently</t>
         </is>
       </c>
       <c r="AKR1" s="1" t="inlineStr">
         <is>
-          <t>could</t>
+          <t>tasks</t>
         </is>
       </c>
       <c r="AKS1" s="1" t="inlineStr">
         <is>
-          <t>under-representation</t>
+          <t>commission</t>
         </is>
       </c>
       <c r="AKT1" s="1" t="inlineStr">
         <is>
-          <t>64</t>
+          <t>check</t>
         </is>
       </c>
       <c r="AKU1" s="1" t="inlineStr">
         <is>
-          <t>sorted</t>
+          <t>exception</t>
         </is>
       </c>
       <c r="AKV1" s="1" t="inlineStr">
         <is>
-          <t>coded</t>
+          <t>cbcl</t>
         </is>
       </c>
       <c r="AKW1" s="1" t="inlineStr">
         <is>
-          <t>analytic</t>
+          <t>behavior</t>
         </is>
       </c>
       <c r="AKX1" s="1" t="inlineStr">
         <is>
-          <t>unanswered</t>
+          <t>assesses</t>
         </is>
       </c>
       <c r="AKY1" s="1" t="inlineStr">
         <is>
-          <t>translating</t>
+          <t>177</t>
         </is>
       </c>
       <c r="AKZ1" s="1" t="inlineStr">
         <is>
-          <t>strategy</t>
+          <t>disorder</t>
         </is>
       </c>
       <c r="ALA1" s="1" t="inlineStr">
         <is>
-          <t>year-long</t>
+          <t>list</t>
         </is>
       </c>
       <c r="ALB1" s="1" t="inlineStr">
         <is>
-          <t>standard-length</t>
+          <t>fewer</t>
         </is>
       </c>
       <c r="ALC1" s="1" t="inlineStr">
         <is>
-          <t>recent</t>
+          <t>rt</t>
         </is>
       </c>
       <c r="ALD1" s="1" t="inlineStr">
         <is>
-          <t>normalised</t>
+          <t>specifically</t>
         </is>
       </c>
       <c r="ALE1" s="1" t="inlineStr">
         <is>
-          <t>ordinary-length</t>
+          <t>tova</t>
         </is>
       </c>
       <c r="ALF1" s="1" t="inlineStr">
         <is>
-          <t>participated</t>
+          <t>trf</t>
         </is>
       </c>
       <c r="ALG1" s="1" t="inlineStr">
         <is>
-          <t>possible</t>
+          <t>variability</t>
         </is>
       </c>
       <c r="ALH1" s="1" t="inlineStr">
         <is>
-          <t>some</t>
+          <t>variably</t>
         </is>
       </c>
       <c r="ALI1" s="1" t="inlineStr">
         <is>
-          <t>previously</t>
+          <t>sensitivity</t>
         </is>
       </c>
       <c r="ALJ1" s="1" t="inlineStr">
         <is>
-          <t>published</t>
+          <t>report</t>
         </is>
       </c>
       <c r="ALK1" s="1" t="inlineStr">
         <is>
-          <t>measuring</t>
+          <t>form</t>
         </is>
       </c>
       <c r="ALL1" s="1" t="inlineStr">
         <is>
-          <t>long</t>
+          <t>relation</t>
         </is>
       </c>
       <c r="ALM1" s="1" t="inlineStr">
         <is>
-          <t>improve</t>
+          <t>mentioned</t>
         </is>
       </c>
       <c r="ALN1" s="1" t="inlineStr">
         <is>
-          <t>force</t>
+          <t>measured</t>
         </is>
       </c>
       <c r="ALO1" s="1" t="inlineStr">
         <is>
-          <t>fci</t>
+          <t>lower</t>
         </is>
       </c>
       <c r="ALP1" s="1" t="inlineStr">
         <is>
-          <t>direct</t>
+          <t>suggested</t>
         </is>
       </c>
       <c r="ALQ1" s="1" t="inlineStr">
         <is>
-          <t>couses</t>
+          <t>hyperactivity</t>
         </is>
       </c>
       <c r="ALR1" s="1" t="inlineStr">
         <is>
-          <t>concerning</t>
-        </is>
-      </c>
-      <c r="ALS1" s="1" t="inlineStr">
-        <is>
-          <t>concept</t>
-        </is>
-      </c>
-      <c r="ALT1" s="1" t="inlineStr">
-        <is>
-          <t>comparisons</t>
-        </is>
-      </c>
-      <c r="ALU1" s="1" t="inlineStr">
-        <is>
-          <t>8</t>
-        </is>
-      </c>
-      <c r="ALV1" s="1" t="inlineStr">
-        <is>
-          <t>tova</t>
-        </is>
-      </c>
-      <c r="ALW1" s="1" t="inlineStr">
-        <is>
-          <t>behavior</t>
-        </is>
-      </c>
-      <c r="ALX1" s="1" t="inlineStr">
-        <is>
-          <t>177</t>
-        </is>
-      </c>
-      <c r="ALY1" s="1" t="inlineStr">
-        <is>
-          <t>rt</t>
-        </is>
-      </c>
-      <c r="ALZ1" s="1" t="inlineStr">
-        <is>
-          <t>list</t>
-        </is>
-      </c>
-      <c r="AMA1" s="1" t="inlineStr">
-        <is>
-          <t>lower</t>
-        </is>
-      </c>
-      <c r="AMB1" s="1" t="inlineStr">
-        <is>
-          <t>measured</t>
-        </is>
-      </c>
-      <c r="AMC1" s="1" t="inlineStr">
-        <is>
-          <t>mentioned</t>
-        </is>
-      </c>
-      <c r="AMD1" s="1" t="inlineStr">
-        <is>
-          <t>relation</t>
-        </is>
-      </c>
-      <c r="AME1" s="1" t="inlineStr">
-        <is>
-          <t>report</t>
-        </is>
-      </c>
-      <c r="AMF1" s="1" t="inlineStr">
-        <is>
-          <t>sensitivity</t>
-        </is>
-      </c>
-      <c r="AMG1" s="1" t="inlineStr">
-        <is>
-          <t>further</t>
-        </is>
-      </c>
-      <c r="AMH1" s="1" t="inlineStr">
-        <is>
-          <t>specifically</t>
-        </is>
-      </c>
-      <c r="AMI1" s="1" t="inlineStr">
-        <is>
-          <t>suggested</t>
-        </is>
-      </c>
-      <c r="AMJ1" s="1" t="inlineStr">
-        <is>
-          <t>tasks</t>
-        </is>
-      </c>
-      <c r="AMK1" s="1" t="inlineStr">
-        <is>
-          <t>that</t>
-        </is>
-      </c>
-      <c r="AML1" s="1" t="inlineStr">
-        <is>
-          <t>variably</t>
-        </is>
-      </c>
-      <c r="AMM1" s="1" t="inlineStr">
-        <is>
-          <t>variability</t>
-        </is>
-      </c>
-      <c r="AMN1" s="1" t="inlineStr">
-        <is>
-          <t>hyperactivity</t>
-        </is>
-      </c>
-      <c r="AMO1" s="1" t="inlineStr">
-        <is>
-          <t>form</t>
-        </is>
-      </c>
-      <c r="AMP1" s="1" t="inlineStr">
-        <is>
-          <t>assesses</t>
-        </is>
-      </c>
-      <c r="AMQ1" s="1" t="inlineStr">
-        <is>
-          <t>continuous</t>
-        </is>
-      </c>
-      <c r="AMR1" s="1" t="inlineStr">
-        <is>
-          <t>trf</t>
-        </is>
-      </c>
-      <c r="AMS1" s="1" t="inlineStr">
-        <is>
-          <t>cbcl</t>
-        </is>
-      </c>
-      <c r="AMT1" s="1" t="inlineStr">
-        <is>
-          <t>check</t>
-        </is>
-      </c>
-      <c r="AMU1" s="1" t="inlineStr">
-        <is>
-          <t>commission</t>
-        </is>
-      </c>
-      <c r="AMV1" s="1" t="inlineStr">
-        <is>
-          <t>conducted</t>
-        </is>
-      </c>
-      <c r="AMW1" s="1" t="inlineStr">
-        <is>
-          <t>consistently</t>
-        </is>
-      </c>
-      <c r="AMX1" s="1" t="inlineStr">
-        <is>
-          <t>correlations</t>
-        </is>
-      </c>
-      <c r="AMY1" s="1" t="inlineStr">
-        <is>
-          <t>fewer</t>
-        </is>
-      </c>
-      <c r="AMZ1" s="1" t="inlineStr">
-        <is>
-          <t>deficit</t>
-        </is>
-      </c>
-      <c r="ANA1" s="1" t="inlineStr">
-        <is>
-          <t>diagnosis</t>
-        </is>
-      </c>
-      <c r="ANB1" s="1" t="inlineStr">
-        <is>
-          <t>discussions</t>
-        </is>
-      </c>
-      <c r="ANC1" s="1" t="inlineStr">
-        <is>
-          <t>disorder</t>
-        </is>
-      </c>
-      <c r="AND1" s="1" t="inlineStr">
-        <is>
           <t>errors</t>
-        </is>
-      </c>
-      <c r="ANE1" s="1" t="inlineStr">
-        <is>
-          <t>exception</t>
-        </is>
-      </c>
-      <c r="ANF1" s="1" t="inlineStr">
-        <is>
-          <t>cpt</t>
         </is>
       </c>
     </row>
@@ -5669,64 +5469,64 @@
         <v>2003</v>
       </c>
       <c r="C2" t="n">
-        <v>2.84</v>
+        <v>4</v>
       </c>
       <c r="D2" t="n">
-        <v>2.84</v>
+        <v>1.52</v>
       </c>
       <c r="E2" t="n">
-        <v>1.51</v>
+        <v>1.25</v>
       </c>
       <c r="F2" t="n">
-        <v>1.25</v>
+        <v>1.14</v>
       </c>
       <c r="G2" t="n">
-        <v>1.13</v>
+        <v>0.76</v>
       </c>
       <c r="H2" t="n">
-        <v>0.74</v>
+        <v>0.7300000000000002</v>
       </c>
       <c r="I2" t="n">
-        <v>0.7200000000000002</v>
+        <v>0.73</v>
       </c>
       <c r="J2" t="n">
-        <v>0.71</v>
+        <v>0.67</v>
       </c>
       <c r="K2" t="n">
-        <v>0.66</v>
+        <v>0.65</v>
       </c>
       <c r="L2" t="n">
+        <v>0.6400000000000001</v>
+      </c>
+      <c r="M2" t="n">
+        <v>0.6399999999999999</v>
+      </c>
+      <c r="N2" t="n">
         <v>0.6300000000000001</v>
       </c>
-      <c r="M2" t="n">
-        <v>0.63</v>
-      </c>
-      <c r="N2" t="n">
-        <v>0.6299999999999999</v>
-      </c>
       <c r="O2" t="n">
-        <v>0.6200000000000001</v>
+        <v>0.61</v>
       </c>
       <c r="P2" t="n">
-        <v>0.61</v>
+        <v>0.6000000000000001</v>
       </c>
       <c r="Q2" t="n">
-        <v>0.6000000000000001</v>
+        <v>0.6</v>
       </c>
       <c r="R2" t="n">
         <v>0.6</v>
       </c>
       <c r="S2" t="n">
-        <v>0.6</v>
+        <v>0.57</v>
       </c>
       <c r="T2" t="n">
         <v>0.57</v>
       </c>
       <c r="U2" t="n">
-        <v>0.57</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="V2" t="n">
-        <v>0.5600000000000001</v>
+        <v>0.55</v>
       </c>
       <c r="W2" t="n">
         <v>0.54</v>
@@ -5735,7 +5535,7 @@
         <v>0.54</v>
       </c>
       <c r="Y2" t="n">
-        <v>0.53</v>
+        <v>0.54</v>
       </c>
       <c r="Z2" t="n">
         <v>0.53</v>
@@ -5744,58 +5544,58 @@
         <v>0.53</v>
       </c>
       <c r="AB2" t="n">
+        <v>0.53</v>
+      </c>
+      <c r="AC2" t="n">
         <v>0.52</v>
       </c>
-      <c r="AC2" t="n">
+      <c r="AD2" t="n">
         <v>0.51</v>
       </c>
-      <c r="AD2" t="n">
-        <v>0.5</v>
-      </c>
       <c r="AE2" t="n">
-        <v>0.5</v>
+        <v>0.51</v>
       </c>
       <c r="AF2" t="n">
         <v>0.4999999999999999</v>
       </c>
       <c r="AG2" t="n">
-        <v>0.49</v>
+        <v>0.48</v>
       </c>
       <c r="AH2" t="n">
-        <v>0.49</v>
+        <v>0.48</v>
       </c>
       <c r="AI2" t="n">
         <v>0.48</v>
       </c>
       <c r="AJ2" t="n">
-        <v>0.48</v>
+        <v>0.47</v>
       </c>
       <c r="AK2" t="n">
         <v>0.47</v>
       </c>
       <c r="AL2" t="n">
-        <v>0.47</v>
+        <v>0.46</v>
       </c>
       <c r="AM2" t="n">
-        <v>0.47</v>
+        <v>0.46</v>
       </c>
       <c r="AN2" t="n">
         <v>0.46</v>
       </c>
       <c r="AO2" t="n">
-        <v>0.46</v>
+        <v>0.45</v>
       </c>
       <c r="AP2" t="n">
         <v>0.45</v>
       </c>
       <c r="AQ2" t="n">
-        <v>0.45</v>
+        <v>0.44</v>
       </c>
       <c r="AR2" t="n">
-        <v>0.45</v>
+        <v>0.44</v>
       </c>
       <c r="AS2" t="n">
-        <v>0.45</v>
+        <v>0.44</v>
       </c>
       <c r="AT2" t="n">
         <v>0.44</v>
@@ -5816,25 +5616,25 @@
         <v>0.44</v>
       </c>
       <c r="AZ2" t="n">
-        <v>0.43</v>
+        <v>0.44</v>
       </c>
       <c r="BA2" t="n">
-        <v>0.43</v>
+        <v>0.44</v>
       </c>
       <c r="BB2" t="n">
+        <v>0.44</v>
+      </c>
+      <c r="BC2" t="n">
+        <v>0.44</v>
+      </c>
+      <c r="BD2" t="n">
         <v>0.42</v>
       </c>
-      <c r="BC2" t="n">
+      <c r="BE2" t="n">
         <v>0.42</v>
       </c>
-      <c r="BD2" t="n">
-        <v>0.41</v>
-      </c>
-      <c r="BE2" t="n">
-        <v>0.41</v>
-      </c>
       <c r="BF2" t="n">
-        <v>0.41</v>
+        <v>0.42</v>
       </c>
       <c r="BG2" t="n">
         <v>0.41</v>
@@ -5843,55 +5643,55 @@
         <v>0.41</v>
       </c>
       <c r="BI2" t="n">
-        <v>0.41</v>
+        <v>0.4</v>
       </c>
       <c r="BJ2" t="n">
-        <v>0.41</v>
+        <v>0.39</v>
       </c>
       <c r="BK2" t="n">
-        <v>0.41</v>
+        <v>0.39</v>
       </c>
       <c r="BL2" t="n">
-        <v>0.41</v>
+        <v>0.38</v>
       </c>
       <c r="BM2" t="n">
-        <v>0.4</v>
+        <v>0.38</v>
       </c>
       <c r="BN2" t="n">
-        <v>0.4</v>
+        <v>0.38</v>
       </c>
       <c r="BO2" t="n">
         <v>0.38</v>
       </c>
       <c r="BP2" t="n">
-        <v>0.38</v>
+        <v>0.37</v>
       </c>
       <c r="BQ2" t="n">
-        <v>0.38</v>
+        <v>0.37</v>
       </c>
       <c r="BR2" t="n">
-        <v>0.38</v>
+        <v>0.37</v>
       </c>
       <c r="BS2" t="n">
-        <v>0.38</v>
+        <v>0.37</v>
       </c>
       <c r="BT2" t="n">
         <v>0.37</v>
       </c>
       <c r="BU2" t="n">
-        <v>0.37</v>
+        <v>0.36</v>
       </c>
       <c r="BV2" t="n">
-        <v>0.37</v>
+        <v>0.36</v>
       </c>
       <c r="BW2" t="n">
-        <v>0.37</v>
+        <v>0.35</v>
       </c>
       <c r="BX2" t="n">
-        <v>0.36</v>
+        <v>0.35</v>
       </c>
       <c r="BY2" t="n">
-        <v>0.36</v>
+        <v>0.35</v>
       </c>
       <c r="BZ2" t="n">
         <v>0.35</v>
@@ -5900,100 +5700,100 @@
         <v>0.35</v>
       </c>
       <c r="CB2" t="n">
-        <v>0.35</v>
+        <v>0.34</v>
       </c>
       <c r="CC2" t="n">
-        <v>0.35</v>
+        <v>0.34</v>
       </c>
       <c r="CD2" t="n">
-        <v>0.35</v>
+        <v>0.34</v>
       </c>
       <c r="CE2" t="n">
-        <v>0.35</v>
+        <v>0.34</v>
       </c>
       <c r="CF2" t="n">
         <v>0.34</v>
       </c>
       <c r="CG2" t="n">
-        <v>0.34</v>
+        <v>0.33</v>
       </c>
       <c r="CH2" t="n">
-        <v>0.34</v>
+        <v>0.33</v>
       </c>
       <c r="CI2" t="n">
-        <v>0.34</v>
+        <v>0.32</v>
       </c>
       <c r="CJ2" t="n">
-        <v>0.34</v>
+        <v>0.32</v>
       </c>
       <c r="CK2" t="n">
-        <v>0.33</v>
+        <v>0.32</v>
       </c>
       <c r="CL2" t="n">
-        <v>0.33</v>
+        <v>0.32</v>
       </c>
       <c r="CM2" t="n">
-        <v>0.33</v>
+        <v>0.32</v>
       </c>
       <c r="CN2" t="n">
         <v>0.32</v>
       </c>
       <c r="CO2" t="n">
-        <v>0.32</v>
+        <v>0.3100000000000001</v>
       </c>
       <c r="CP2" t="n">
-        <v>0.32</v>
+        <v>0.31</v>
       </c>
       <c r="CQ2" t="n">
-        <v>0.32</v>
+        <v>0.31</v>
       </c>
       <c r="CR2" t="n">
-        <v>0.32</v>
+        <v>0.3</v>
       </c>
       <c r="CS2" t="n">
-        <v>0.3100000000000001</v>
+        <v>0.3</v>
       </c>
       <c r="CT2" t="n">
-        <v>0.3100000000000001</v>
+        <v>0.3</v>
       </c>
       <c r="CU2" t="n">
-        <v>0.31</v>
+        <v>0.3</v>
       </c>
       <c r="CV2" t="n">
-        <v>0.31</v>
+        <v>0.3</v>
       </c>
       <c r="CW2" t="n">
-        <v>0.31</v>
+        <v>0.3</v>
       </c>
       <c r="CX2" t="n">
-        <v>0.31</v>
+        <v>0.3</v>
       </c>
       <c r="CY2" t="n">
         <v>0.3</v>
       </c>
       <c r="CZ2" t="n">
-        <v>0.3</v>
+        <v>0.29</v>
       </c>
       <c r="DA2" t="n">
-        <v>0.3</v>
+        <v>0.29</v>
       </c>
       <c r="DB2" t="n">
-        <v>0.3</v>
+        <v>0.29</v>
       </c>
       <c r="DC2" t="n">
-        <v>0.3</v>
+        <v>0.29</v>
       </c>
       <c r="DD2" t="n">
         <v>0.29</v>
       </c>
       <c r="DE2" t="n">
-        <v>0.29</v>
+        <v>0.28</v>
       </c>
       <c r="DF2" t="n">
-        <v>0.29</v>
+        <v>0.28</v>
       </c>
       <c r="DG2" t="n">
-        <v>0.29</v>
+        <v>0.28</v>
       </c>
       <c r="DH2" t="n">
         <v>0.28</v>
@@ -6017,13 +5817,13 @@
         <v>0.28</v>
       </c>
       <c r="DO2" t="n">
-        <v>0.28</v>
+        <v>0.27</v>
       </c>
       <c r="DP2" t="n">
-        <v>0.28</v>
+        <v>0.27</v>
       </c>
       <c r="DQ2" t="n">
-        <v>0.28</v>
+        <v>0.27</v>
       </c>
       <c r="DR2" t="n">
         <v>0.27</v>
@@ -6053,13 +5853,13 @@
         <v>0.27</v>
       </c>
       <c r="EA2" t="n">
-        <v>0.27</v>
+        <v>0.26</v>
       </c>
       <c r="EB2" t="n">
-        <v>0.27</v>
+        <v>0.26</v>
       </c>
       <c r="EC2" t="n">
-        <v>0.27</v>
+        <v>0.26</v>
       </c>
       <c r="ED2" t="n">
         <v>0.26</v>
@@ -6086,7 +5886,7 @@
         <v>0.26</v>
       </c>
       <c r="EL2" t="n">
-        <v>0.26</v>
+        <v>0.25</v>
       </c>
       <c r="EM2" t="n">
         <v>0.25</v>
@@ -6122,16 +5922,16 @@
         <v>0.25</v>
       </c>
       <c r="EX2" t="n">
-        <v>0.25</v>
+        <v>0.24</v>
       </c>
       <c r="EY2" t="n">
-        <v>0.25</v>
+        <v>0.24</v>
       </c>
       <c r="EZ2" t="n">
-        <v>0.25</v>
+        <v>0.24</v>
       </c>
       <c r="FA2" t="n">
-        <v>0.25</v>
+        <v>0.24</v>
       </c>
       <c r="FB2" t="n">
         <v>0.24</v>
@@ -6164,22 +5964,22 @@
         <v>0.24</v>
       </c>
       <c r="FL2" t="n">
-        <v>0.24</v>
+        <v>0.23</v>
       </c>
       <c r="FM2" t="n">
-        <v>0.24</v>
+        <v>0.23</v>
       </c>
       <c r="FN2" t="n">
-        <v>0.24</v>
+        <v>0.23</v>
       </c>
       <c r="FO2" t="n">
-        <v>0.24</v>
+        <v>0.23</v>
       </c>
       <c r="FP2" t="n">
-        <v>0.24</v>
+        <v>0.23</v>
       </c>
       <c r="FQ2" t="n">
-        <v>0.24</v>
+        <v>0.23</v>
       </c>
       <c r="FR2" t="n">
         <v>0.23</v>
@@ -6191,22 +5991,22 @@
         <v>0.23</v>
       </c>
       <c r="FU2" t="n">
-        <v>0.23</v>
+        <v>0.22</v>
       </c>
       <c r="FV2" t="n">
-        <v>0.23</v>
+        <v>0.22</v>
       </c>
       <c r="FW2" t="n">
-        <v>0.23</v>
+        <v>0.22</v>
       </c>
       <c r="FX2" t="n">
-        <v>0.23</v>
+        <v>0.22</v>
       </c>
       <c r="FY2" t="n">
-        <v>0.23</v>
+        <v>0.22</v>
       </c>
       <c r="FZ2" t="n">
-        <v>0.23</v>
+        <v>0.22</v>
       </c>
       <c r="GA2" t="n">
         <v>0.22</v>
@@ -6230,13 +6030,13 @@
         <v>0.22</v>
       </c>
       <c r="GH2" t="n">
-        <v>0.22</v>
+        <v>0.21</v>
       </c>
       <c r="GI2" t="n">
-        <v>0.22</v>
+        <v>0.21</v>
       </c>
       <c r="GJ2" t="n">
-        <v>0.22</v>
+        <v>0.21</v>
       </c>
       <c r="GK2" t="n">
         <v>0.21</v>
@@ -6284,19 +6084,19 @@
         <v>0.21</v>
       </c>
       <c r="GZ2" t="n">
-        <v>0.21</v>
+        <v>0.2</v>
       </c>
       <c r="HA2" t="n">
-        <v>0.21</v>
+        <v>0.2</v>
       </c>
       <c r="HB2" t="n">
-        <v>0.21</v>
+        <v>0.2</v>
       </c>
       <c r="HC2" t="n">
-        <v>0.21</v>
+        <v>0.2</v>
       </c>
       <c r="HD2" t="n">
-        <v>0.21</v>
+        <v>0.2</v>
       </c>
       <c r="HE2" t="n">
         <v>0.2</v>
@@ -6344,16 +6144,16 @@
         <v>0.2</v>
       </c>
       <c r="HT2" t="n">
-        <v>0.2</v>
+        <v>0.19</v>
       </c>
       <c r="HU2" t="n">
-        <v>0.2</v>
+        <v>0.19</v>
       </c>
       <c r="HV2" t="n">
-        <v>0.2</v>
+        <v>0.19</v>
       </c>
       <c r="HW2" t="n">
-        <v>0.2</v>
+        <v>0.19</v>
       </c>
       <c r="HX2" t="n">
         <v>0.19</v>
@@ -6428,13 +6228,13 @@
         <v>0.19</v>
       </c>
       <c r="IV2" t="n">
-        <v>0.19</v>
+        <v>0.18</v>
       </c>
       <c r="IW2" t="n">
-        <v>0.19</v>
+        <v>0.18</v>
       </c>
       <c r="IX2" t="n">
-        <v>0.19</v>
+        <v>0.18</v>
       </c>
       <c r="IY2" t="n">
         <v>0.18</v>
@@ -6518,10 +6318,10 @@
         <v>0.18</v>
       </c>
       <c r="JZ2" t="n">
-        <v>0.17</v>
+        <v>0.18</v>
       </c>
       <c r="KA2" t="n">
-        <v>0.17</v>
+        <v>0.18</v>
       </c>
       <c r="KB2" t="n">
         <v>0.17</v>
@@ -6563,13 +6363,13 @@
         <v>0.17</v>
       </c>
       <c r="KO2" t="n">
-        <v>0.16</v>
+        <v>0.17</v>
       </c>
       <c r="KP2" t="n">
-        <v>0.16</v>
+        <v>0.17</v>
       </c>
       <c r="KQ2" t="n">
-        <v>0.16</v>
+        <v>0.17</v>
       </c>
       <c r="KR2" t="n">
         <v>0.16</v>
@@ -6668,28 +6468,28 @@
         <v>0.16</v>
       </c>
       <c r="LX2" t="n">
-        <v>0.16</v>
+        <v>0.15</v>
       </c>
       <c r="LY2" t="n">
-        <v>0.16</v>
+        <v>0.15</v>
       </c>
       <c r="LZ2" t="n">
-        <v>0.16</v>
+        <v>0.15</v>
       </c>
       <c r="MA2" t="n">
-        <v>0.16</v>
+        <v>0.15</v>
       </c>
       <c r="MB2" t="n">
-        <v>0.16</v>
+        <v>0.15</v>
       </c>
       <c r="MC2" t="n">
-        <v>0.16</v>
+        <v>0.15</v>
       </c>
       <c r="MD2" t="n">
-        <v>0.16</v>
+        <v>0.15</v>
       </c>
       <c r="ME2" t="n">
-        <v>0.16</v>
+        <v>0.15</v>
       </c>
       <c r="MF2" t="n">
         <v>0.15</v>
@@ -6821,34 +6621,34 @@
         <v>0.15</v>
       </c>
       <c r="NW2" t="n">
-        <v>0.15</v>
+        <v>0.14</v>
       </c>
       <c r="NX2" t="n">
-        <v>0.15</v>
+        <v>0.14</v>
       </c>
       <c r="NY2" t="n">
-        <v>0.15</v>
+        <v>0.14</v>
       </c>
       <c r="NZ2" t="n">
-        <v>0.15</v>
+        <v>0.14</v>
       </c>
       <c r="OA2" t="n">
-        <v>0.15</v>
+        <v>0.14</v>
       </c>
       <c r="OB2" t="n">
-        <v>0.15</v>
+        <v>0.14</v>
       </c>
       <c r="OC2" t="n">
-        <v>0.15</v>
+        <v>0.14</v>
       </c>
       <c r="OD2" t="n">
-        <v>0.15</v>
+        <v>0.14</v>
       </c>
       <c r="OE2" t="n">
-        <v>0.15</v>
+        <v>0.14</v>
       </c>
       <c r="OF2" t="n">
-        <v>0.15</v>
+        <v>0.14</v>
       </c>
       <c r="OG2" t="n">
         <v>0.14</v>
@@ -6899,40 +6699,40 @@
         <v>0.14</v>
       </c>
       <c r="OW2" t="n">
-        <v>0.14</v>
+        <v>0.13</v>
       </c>
       <c r="OX2" t="n">
-        <v>0.14</v>
+        <v>0.13</v>
       </c>
       <c r="OY2" t="n">
-        <v>0.14</v>
+        <v>0.13</v>
       </c>
       <c r="OZ2" t="n">
-        <v>0.14</v>
+        <v>0.13</v>
       </c>
       <c r="PA2" t="n">
-        <v>0.14</v>
+        <v>0.13</v>
       </c>
       <c r="PB2" t="n">
-        <v>0.14</v>
+        <v>0.13</v>
       </c>
       <c r="PC2" t="n">
-        <v>0.14</v>
+        <v>0.13</v>
       </c>
       <c r="PD2" t="n">
-        <v>0.14</v>
+        <v>0.13</v>
       </c>
       <c r="PE2" t="n">
-        <v>0.14</v>
+        <v>0.13</v>
       </c>
       <c r="PF2" t="n">
-        <v>0.14</v>
+        <v>0.13</v>
       </c>
       <c r="PG2" t="n">
-        <v>0.14</v>
+        <v>0.13</v>
       </c>
       <c r="PH2" t="n">
-        <v>0.14</v>
+        <v>0.13</v>
       </c>
       <c r="PI2" t="n">
         <v>0.13</v>
@@ -6971,37 +6771,37 @@
         <v>0.13</v>
       </c>
       <c r="PU2" t="n">
-        <v>0.12</v>
+        <v>0.13</v>
       </c>
       <c r="PV2" t="n">
-        <v>0.12</v>
+        <v>0.13</v>
       </c>
       <c r="PW2" t="n">
-        <v>0.12</v>
+        <v>0.13</v>
       </c>
       <c r="PX2" t="n">
-        <v>0.12</v>
+        <v>0.13</v>
       </c>
       <c r="PY2" t="n">
-        <v>0.12</v>
+        <v>0.13</v>
       </c>
       <c r="PZ2" t="n">
-        <v>0.12</v>
+        <v>0.13</v>
       </c>
       <c r="QA2" t="n">
-        <v>0.12</v>
+        <v>0.13</v>
       </c>
       <c r="QB2" t="n">
-        <v>0.12</v>
+        <v>0.13</v>
       </c>
       <c r="QC2" t="n">
-        <v>0.12</v>
+        <v>0.13</v>
       </c>
       <c r="QD2" t="n">
-        <v>0.12</v>
+        <v>0.13</v>
       </c>
       <c r="QE2" t="n">
-        <v>0.12</v>
+        <v>0.13</v>
       </c>
       <c r="QF2" t="n">
         <v>0.12</v>
@@ -7142,67 +6942,67 @@
         <v>0.12</v>
       </c>
       <c r="RZ2" t="n">
-        <v>0.12</v>
+        <v>0.11</v>
       </c>
       <c r="SA2" t="n">
-        <v>0.12</v>
+        <v>0.11</v>
       </c>
       <c r="SB2" t="n">
-        <v>0.12</v>
+        <v>0.11</v>
       </c>
       <c r="SC2" t="n">
-        <v>0.12</v>
+        <v>0.11</v>
       </c>
       <c r="SD2" t="n">
-        <v>0.12</v>
+        <v>0.11</v>
       </c>
       <c r="SE2" t="n">
-        <v>0.12</v>
+        <v>0.11</v>
       </c>
       <c r="SF2" t="n">
-        <v>0.12</v>
+        <v>0.11</v>
       </c>
       <c r="SG2" t="n">
-        <v>0.12</v>
+        <v>0.11</v>
       </c>
       <c r="SH2" t="n">
-        <v>0.12</v>
+        <v>0.11</v>
       </c>
       <c r="SI2" t="n">
-        <v>0.12</v>
+        <v>0.11</v>
       </c>
       <c r="SJ2" t="n">
-        <v>0.12</v>
+        <v>0.11</v>
       </c>
       <c r="SK2" t="n">
-        <v>0.12</v>
+        <v>0.11</v>
       </c>
       <c r="SL2" t="n">
-        <v>0.12</v>
+        <v>0.11</v>
       </c>
       <c r="SM2" t="n">
-        <v>0.12</v>
+        <v>0.11</v>
       </c>
       <c r="SN2" t="n">
-        <v>0.12</v>
+        <v>0.11</v>
       </c>
       <c r="SO2" t="n">
-        <v>0.12</v>
+        <v>0.11</v>
       </c>
       <c r="SP2" t="n">
-        <v>0.12</v>
+        <v>0.11</v>
       </c>
       <c r="SQ2" t="n">
-        <v>0.12</v>
+        <v>0.11</v>
       </c>
       <c r="SR2" t="n">
-        <v>0.12</v>
+        <v>0.11</v>
       </c>
       <c r="SS2" t="n">
-        <v>0.12</v>
+        <v>0.11</v>
       </c>
       <c r="ST2" t="n">
-        <v>0.12</v>
+        <v>0.11</v>
       </c>
       <c r="SU2" t="n">
         <v>0.11</v>
@@ -7457,79 +7257,79 @@
         <v>0.11</v>
       </c>
       <c r="WA2" t="n">
-        <v>0.11</v>
+        <v>0.1</v>
       </c>
       <c r="WB2" t="n">
-        <v>0.11</v>
+        <v>0.1</v>
       </c>
       <c r="WC2" t="n">
-        <v>0.11</v>
+        <v>0.1</v>
       </c>
       <c r="WD2" t="n">
-        <v>0.11</v>
+        <v>0.1</v>
       </c>
       <c r="WE2" t="n">
-        <v>0.11</v>
+        <v>0.1</v>
       </c>
       <c r="WF2" t="n">
-        <v>0.11</v>
+        <v>0.1</v>
       </c>
       <c r="WG2" t="n">
-        <v>0.11</v>
+        <v>0.1</v>
       </c>
       <c r="WH2" t="n">
-        <v>0.11</v>
+        <v>0.1</v>
       </c>
       <c r="WI2" t="n">
-        <v>0.11</v>
+        <v>0.1</v>
       </c>
       <c r="WJ2" t="n">
-        <v>0.11</v>
+        <v>0.1</v>
       </c>
       <c r="WK2" t="n">
-        <v>0.11</v>
+        <v>0.1</v>
       </c>
       <c r="WL2" t="n">
-        <v>0.11</v>
+        <v>0.1</v>
       </c>
       <c r="WM2" t="n">
-        <v>0.11</v>
+        <v>0.1</v>
       </c>
       <c r="WN2" t="n">
-        <v>0.11</v>
+        <v>0.1</v>
       </c>
       <c r="WO2" t="n">
-        <v>0.11</v>
+        <v>0.1</v>
       </c>
       <c r="WP2" t="n">
-        <v>0.11</v>
+        <v>0.1</v>
       </c>
       <c r="WQ2" t="n">
-        <v>0.11</v>
+        <v>0.1</v>
       </c>
       <c r="WR2" t="n">
-        <v>0.11</v>
+        <v>0.1</v>
       </c>
       <c r="WS2" t="n">
-        <v>0.11</v>
+        <v>0.1</v>
       </c>
       <c r="WT2" t="n">
-        <v>0.11</v>
+        <v>0.1</v>
       </c>
       <c r="WU2" t="n">
-        <v>0.11</v>
+        <v>0.1</v>
       </c>
       <c r="WV2" t="n">
-        <v>0.11</v>
+        <v>0.1</v>
       </c>
       <c r="WW2" t="n">
-        <v>0.11</v>
+        <v>0.1</v>
       </c>
       <c r="WX2" t="n">
-        <v>0.11</v>
+        <v>0.1</v>
       </c>
       <c r="WY2" t="n">
-        <v>0.11</v>
+        <v>0.1</v>
       </c>
       <c r="WZ2" t="n">
         <v>0.1</v>
@@ -7772,13 +7572,13 @@
         <v>0.1</v>
       </c>
       <c r="AAB2" t="n">
-        <v>0.09</v>
+        <v>0.1</v>
       </c>
       <c r="AAC2" t="n">
-        <v>0.09</v>
+        <v>0.1</v>
       </c>
       <c r="AAD2" t="n">
-        <v>0.09</v>
+        <v>0.1</v>
       </c>
       <c r="AAE2" t="n">
         <v>0.09</v>
@@ -8336,13 +8136,13 @@
         <v>0.09</v>
       </c>
       <c r="AHH2" t="n">
-        <v>0.09</v>
+        <v>0.08</v>
       </c>
       <c r="AHI2" t="n">
-        <v>0.09</v>
+        <v>0.08</v>
       </c>
       <c r="AHJ2" t="n">
-        <v>0.09</v>
+        <v>0.08</v>
       </c>
       <c r="AHK2" t="n">
         <v>0.08</v>
@@ -8519,285 +8319,165 @@
         <v>0.08</v>
       </c>
       <c r="AJQ2" t="n">
-        <v>0.08</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="AJR2" t="n">
-        <v>0.08</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="AJS2" t="n">
-        <v>0.08</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="AJT2" t="n">
-        <v>0.08</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="AJU2" t="n">
-        <v>0.08</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="AJV2" t="n">
-        <v>0.08</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="AJW2" t="n">
-        <v>0.08</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="AJX2" t="n">
-        <v>0.08</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="AJY2" t="n">
-        <v>0.08</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="AJZ2" t="n">
-        <v>0.08</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="AKA2" t="n">
-        <v>0.08</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="AKB2" t="n">
-        <v>0.08</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="AKC2" t="n">
-        <v>0.08</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="AKD2" t="n">
-        <v>0.08</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="AKE2" t="n">
-        <v>0.08</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="AKF2" t="n">
-        <v>0.08</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="AKG2" t="n">
-        <v>0.08</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="AKH2" t="n">
-        <v>0.08</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="AKI2" t="n">
-        <v>0.08</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="AKJ2" t="n">
-        <v>0.08</v>
+        <v>0.06</v>
       </c>
       <c r="AKK2" t="n">
-        <v>0.08</v>
+        <v>0.06</v>
       </c>
       <c r="AKL2" t="n">
-        <v>0.08</v>
+        <v>0.06</v>
       </c>
       <c r="AKM2" t="n">
-        <v>0.08</v>
+        <v>0.06</v>
       </c>
       <c r="AKN2" t="n">
-        <v>0.08</v>
+        <v>0.06</v>
       </c>
       <c r="AKO2" t="n">
-        <v>0.08</v>
+        <v>0.06</v>
       </c>
       <c r="AKP2" t="n">
-        <v>0.08</v>
+        <v>0.06</v>
       </c>
       <c r="AKQ2" t="n">
-        <v>0.08</v>
+        <v>0.06</v>
       </c>
       <c r="AKR2" t="n">
-        <v>0.08</v>
+        <v>0.06</v>
       </c>
       <c r="AKS2" t="n">
-        <v>0.08</v>
+        <v>0.06</v>
       </c>
       <c r="AKT2" t="n">
-        <v>0.08</v>
+        <v>0.06</v>
       </c>
       <c r="AKU2" t="n">
-        <v>0.08</v>
+        <v>0.06</v>
       </c>
       <c r="AKV2" t="n">
-        <v>0.08</v>
+        <v>0.06</v>
       </c>
       <c r="AKW2" t="n">
-        <v>0.08</v>
+        <v>0.06</v>
       </c>
       <c r="AKX2" t="n">
-        <v>0.08</v>
+        <v>0.06</v>
       </c>
       <c r="AKY2" t="n">
-        <v>0.08</v>
+        <v>0.06</v>
       </c>
       <c r="AKZ2" t="n">
-        <v>0.08</v>
+        <v>0.06</v>
       </c>
       <c r="ALA2" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.06</v>
       </c>
       <c r="ALB2" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.06</v>
       </c>
       <c r="ALC2" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.06</v>
       </c>
       <c r="ALD2" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.06</v>
       </c>
       <c r="ALE2" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.06</v>
       </c>
       <c r="ALF2" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.06</v>
       </c>
       <c r="ALG2" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.06</v>
       </c>
       <c r="ALH2" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.06</v>
       </c>
       <c r="ALI2" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.06</v>
       </c>
       <c r="ALJ2" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.06</v>
       </c>
       <c r="ALK2" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.06</v>
       </c>
       <c r="ALL2" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.06</v>
       </c>
       <c r="ALM2" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.06</v>
       </c>
       <c r="ALN2" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.06</v>
       </c>
       <c r="ALO2" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.06</v>
       </c>
       <c r="ALP2" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.06</v>
       </c>
       <c r="ALQ2" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.06</v>
       </c>
       <c r="ALR2" t="n">
-        <v>0.07000000000000001</v>
-      </c>
-      <c r="ALS2" t="n">
-        <v>0.07000000000000001</v>
-      </c>
-      <c r="ALT2" t="n">
-        <v>0.07000000000000001</v>
-      </c>
-      <c r="ALU2" t="n">
-        <v>0.07000000000000001</v>
-      </c>
-      <c r="ALV2" t="n">
-        <v>0.06</v>
-      </c>
-      <c r="ALW2" t="n">
-        <v>0.06</v>
-      </c>
-      <c r="ALX2" t="n">
-        <v>0.06</v>
-      </c>
-      <c r="ALY2" t="n">
-        <v>0.06</v>
-      </c>
-      <c r="ALZ2" t="n">
-        <v>0.06</v>
-      </c>
-      <c r="AMA2" t="n">
-        <v>0.06</v>
-      </c>
-      <c r="AMB2" t="n">
-        <v>0.06</v>
-      </c>
-      <c r="AMC2" t="n">
-        <v>0.06</v>
-      </c>
-      <c r="AMD2" t="n">
-        <v>0.06</v>
-      </c>
-      <c r="AME2" t="n">
-        <v>0.06</v>
-      </c>
-      <c r="AMF2" t="n">
-        <v>0.06</v>
-      </c>
-      <c r="AMG2" t="n">
-        <v>0.06</v>
-      </c>
-      <c r="AMH2" t="n">
-        <v>0.06</v>
-      </c>
-      <c r="AMI2" t="n">
-        <v>0.06</v>
-      </c>
-      <c r="AMJ2" t="n">
-        <v>0.06</v>
-      </c>
-      <c r="AMK2" t="n">
-        <v>0.06</v>
-      </c>
-      <c r="AML2" t="n">
-        <v>0.06</v>
-      </c>
-      <c r="AMM2" t="n">
-        <v>0.06</v>
-      </c>
-      <c r="AMN2" t="n">
-        <v>0.06</v>
-      </c>
-      <c r="AMO2" t="n">
-        <v>0.06</v>
-      </c>
-      <c r="AMP2" t="n">
-        <v>0.06</v>
-      </c>
-      <c r="AMQ2" t="n">
-        <v>0.06</v>
-      </c>
-      <c r="AMR2" t="n">
-        <v>0.06</v>
-      </c>
-      <c r="AMS2" t="n">
-        <v>0.06</v>
-      </c>
-      <c r="AMT2" t="n">
-        <v>0.06</v>
-      </c>
-      <c r="AMU2" t="n">
-        <v>0.06</v>
-      </c>
-      <c r="AMV2" t="n">
-        <v>0.06</v>
-      </c>
-      <c r="AMW2" t="n">
-        <v>0.06</v>
-      </c>
-      <c r="AMX2" t="n">
-        <v>0.06</v>
-      </c>
-      <c r="AMY2" t="n">
-        <v>0.06</v>
-      </c>
-      <c r="AMZ2" t="n">
-        <v>0.06</v>
-      </c>
-      <c r="ANA2" t="n">
-        <v>0.06</v>
-      </c>
-      <c r="ANB2" t="n">
-        <v>0.06</v>
-      </c>
-      <c r="ANC2" t="n">
-        <v>0.06</v>
-      </c>
-      <c r="AND2" t="n">
-        <v>0.06</v>
-      </c>
-      <c r="ANE2" t="n">
-        <v>0.06</v>
-      </c>
-      <c r="ANF2" t="n">
         <v>0.06</v>
       </c>
     </row>
